--- a/product_data/processing_metadata/C4/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C4/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE.v0/processing_metadata/C4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{44D4C86A-6D31-46FF-96E9-7CB5DA15733F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5ACAFAD5-6B65-44C9-B017-087BFB43B010}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{44D4C86A-6D31-46FF-96E9-7CB5DA15733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9950D5-B319-4671-9CF0-32E3BD0E8512}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="670" windowWidth="19040" windowHeight="10130" xr2:uid="{69322DFE-E2CA-486C-AA5E-7CF334D8D225}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69322DFE-E2CA-486C-AA5E-7CF334D8D225}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1709" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="350">
   <si>
     <t>33LG20110101</t>
   </si>
@@ -1018,6 +1018,72 @@
   </si>
   <si>
     <t>depth</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>PAL-LTER_pig_chl</t>
+  </si>
+  <si>
+    <t>PAL-LTER_pig_hplc</t>
+  </si>
+  <si>
+    <t>CLIVAR</t>
+  </si>
+  <si>
+    <t>33RR19971202_pig_hplc</t>
+  </si>
+  <si>
+    <t>33RR19971202_pig_fluor</t>
+  </si>
+  <si>
+    <t>33RR19980108_pig_hplc</t>
+  </si>
+  <si>
+    <t>33RR19980213_pig_hplc</t>
+  </si>
+  <si>
+    <t>33RR19980213_pig_fluor</t>
+  </si>
+  <si>
+    <t>33RR19980108_pig_fluor</t>
+  </si>
+  <si>
+    <t>353L20021015_pig</t>
+  </si>
+  <si>
+    <t>353L20021217_pig</t>
+  </si>
+  <si>
+    <t>353L20030219_pig</t>
+  </si>
+  <si>
+    <t>353L20031021_pig</t>
+  </si>
+  <si>
+    <t>353L20031205_pig</t>
+  </si>
+  <si>
+    <t>353L20040106_pig</t>
+  </si>
+  <si>
+    <t>353L20040218_pig</t>
+  </si>
+  <si>
+    <t>353L20041019_pig</t>
+  </si>
+  <si>
+    <t>353L20051018_pig</t>
+  </si>
+  <si>
+    <t>353L20051229_pig</t>
+  </si>
+  <si>
+    <t>353L20060217_pig</t>
+  </si>
+  <si>
+    <t>353L20061020_pig</t>
   </si>
 </sst>
 </file>
@@ -1369,15 +1435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3EC7E7-D61A-4686-AF29-9DAA74ADE754}">
-  <dimension ref="A1:BU47"/>
+  <dimension ref="A1:BV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI31" workbookViewId="0">
-      <selection activeCell="AQ38" sqref="AQ38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1409,196 +1475,199 @@
         <v>38</v>
       </c>
       <c r="K1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>47</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>48</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>49</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>50</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>51</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>62</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>64</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>65</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>66</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>68</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>69</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>71</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>72</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>73</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>74</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>75</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>76</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>78</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>79</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>80</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>81</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>82</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>83</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>84</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>85</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>86</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>87</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>88</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>89</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>90</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>91</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>92</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>93</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>94</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>95</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>96</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>97</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>98</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>99</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>100</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1630,109 +1699,112 @@
         <v>183</v>
       </c>
       <c r="K2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L2" t="s">
         <v>184</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>185</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>186</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>187</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>188</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>189</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>190</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>191</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>192</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>193</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>118</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>143</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>65</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>194</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>195</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>69</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>73</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>75</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>77</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>78</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>196</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>197</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>198</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>153</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>199</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>200</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>201</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>202</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>203</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>204</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>205</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>206</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>207</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1764,109 +1836,112 @@
         <v>210</v>
       </c>
       <c r="K3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L3" t="s">
         <v>211</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>185</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>186</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>187</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>188</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>189</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>190</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>191</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>192</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>193</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>118</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>143</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>65</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>194</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>195</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>69</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>73</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>75</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>77</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>78</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>196</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>197</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>198</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>153</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>199</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>200</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>201</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>202</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>203</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>204</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>205</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>206</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>207</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BU3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1898,109 +1973,112 @@
         <v>213</v>
       </c>
       <c r="K4" t="s">
+        <v>340</v>
+      </c>
+      <c r="L4" t="s">
         <v>214</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>185</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>186</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>187</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>188</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>189</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>190</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>191</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>192</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>193</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>118</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>143</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>65</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>194</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>195</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>69</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>73</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>75</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>77</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>78</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>196</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>197</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>198</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>153</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>199</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>200</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>201</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>202</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>203</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>204</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>205</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>206</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>207</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BU4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -2032,109 +2110,112 @@
         <v>216</v>
       </c>
       <c r="K5" t="s">
+        <v>341</v>
+      </c>
+      <c r="L5" t="s">
         <v>217</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>185</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>186</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>187</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>188</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>189</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>190</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>191</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>192</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>193</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>118</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>143</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>65</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>194</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>195</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>69</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>73</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>75</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>77</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>78</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>196</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>197</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>198</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>153</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>199</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>200</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>201</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>202</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>203</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>204</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BO5" t="s">
         <v>205</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>206</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BQ5" t="s">
         <v>207</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BU5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2166,109 +2247,112 @@
         <v>219</v>
       </c>
       <c r="K6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L6" t="s">
         <v>220</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>185</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>186</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>187</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>188</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>189</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>190</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>191</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>192</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>193</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>118</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>143</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>65</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>194</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>195</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>69</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>73</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>75</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>77</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>78</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>196</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>197</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>198</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BC6" t="s">
         <v>153</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BD6" t="s">
         <v>199</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
         <v>200</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>201</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6" t="s">
         <v>202</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BI6" t="s">
         <v>203</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BK6" t="s">
         <v>204</v>
       </c>
-      <c r="BN6" t="s">
+      <c r="BO6" t="s">
         <v>205</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BP6" t="s">
         <v>206</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BQ6" t="s">
         <v>207</v>
       </c>
-      <c r="BT6" t="s">
+      <c r="BU6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2300,109 +2384,112 @@
         <v>222</v>
       </c>
       <c r="K7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L7" t="s">
         <v>223</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>185</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>186</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>187</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>188</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>189</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>190</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>191</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>192</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>193</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>118</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>143</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>65</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>194</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>195</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>69</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>73</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AV7" t="s">
         <v>75</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>77</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>78</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>196</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>197</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>198</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BC7" t="s">
         <v>153</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BD7" t="s">
         <v>199</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>200</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>201</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>202</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>203</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>204</v>
       </c>
-      <c r="BN7" t="s">
+      <c r="BO7" t="s">
         <v>205</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>206</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BQ7" t="s">
         <v>207</v>
       </c>
-      <c r="BT7" t="s">
+      <c r="BU7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -2434,109 +2521,112 @@
         <v>225</v>
       </c>
       <c r="K8" t="s">
+        <v>344</v>
+      </c>
+      <c r="L8" t="s">
         <v>226</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>185</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>186</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>187</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>188</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>189</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>190</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>191</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>192</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>193</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>118</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>143</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>65</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>194</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>195</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>69</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>73</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" t="s">
         <v>75</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>77</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>78</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>196</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>197</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>198</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>153</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
         <v>199</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
         <v>200</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>201</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>202</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>203</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>204</v>
       </c>
-      <c r="BN8" t="s">
+      <c r="BO8" t="s">
         <v>205</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BP8" t="s">
         <v>206</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BQ8" t="s">
         <v>207</v>
       </c>
-      <c r="BT8" t="s">
+      <c r="BU8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -2568,46 +2658,49 @@
         <v>228</v>
       </c>
       <c r="K9" t="s">
+        <v>345</v>
+      </c>
+      <c r="L9" t="s">
         <v>229</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>185</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>186</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>230</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>188</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>231</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>232</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>191</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>192</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>233</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>118</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>143</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -2639,115 +2732,118 @@
         <v>236</v>
       </c>
       <c r="K10" t="s">
+        <v>346</v>
+      </c>
+      <c r="L10" t="s">
         <v>237</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>185</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>186</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>187</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>188</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>189</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>190</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>192</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>193</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>118</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>143</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>65</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>194</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>195</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>69</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>73</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" t="s">
         <v>75</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>77</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>78</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>196</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>197</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>198</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>153</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>199</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>200</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>201</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>202</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>203</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>238</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>204</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
         <v>239</v>
       </c>
-      <c r="BN10" t="s">
+      <c r="BO10" t="s">
         <v>205</v>
       </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>206</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BQ10" t="s">
         <v>207</v>
       </c>
-      <c r="BT10" t="s">
+      <c r="BU10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2779,115 +2875,118 @@
         <v>241</v>
       </c>
       <c r="K11" t="s">
+        <v>347</v>
+      </c>
+      <c r="L11" t="s">
         <v>242</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>185</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>186</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>187</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>188</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>189</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>190</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>191</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>192</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>193</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>118</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>143</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>65</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>194</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>195</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>69</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>73</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" t="s">
         <v>75</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>77</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>78</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>196</v>
       </c>
-      <c r="AZ11" t="s">
+      <c r="BA11" t="s">
         <v>197</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
         <v>198</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BC11" t="s">
         <v>153</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BD11" t="s">
         <v>199</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BE11" t="s">
         <v>200</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BF11" t="s">
         <v>201</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BG11" t="s">
         <v>202</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BI11" t="s">
         <v>203</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
         <v>238</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BK11" t="s">
         <v>204</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BL11" t="s">
         <v>239</v>
       </c>
-      <c r="BN11" t="s">
+      <c r="BO11" t="s">
         <v>205</v>
       </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
         <v>206</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BQ11" t="s">
         <v>207</v>
       </c>
-      <c r="BT11" t="s">
+      <c r="BU11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -2919,115 +3018,118 @@
         <v>244</v>
       </c>
       <c r="K12" t="s">
+        <v>348</v>
+      </c>
+      <c r="L12" t="s">
         <v>245</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>185</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>186</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>187</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>188</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>189</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>190</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>191</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>193</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>118</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>143</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>65</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>194</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" t="s">
         <v>195</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>69</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AT12" t="s">
         <v>73</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>75</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>77</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>78</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>196</v>
       </c>
-      <c r="AZ12" t="s">
+      <c r="BA12" t="s">
         <v>197</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>198</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BC12" t="s">
         <v>153</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BD12" t="s">
         <v>199</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BE12" t="s">
         <v>200</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>201</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BG12" t="s">
         <v>202</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BI12" t="s">
         <v>203</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>238</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BK12" t="s">
         <v>204</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
         <v>239</v>
       </c>
-      <c r="BN12" t="s">
+      <c r="BO12" t="s">
         <v>205</v>
       </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
         <v>206</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BQ12" t="s">
         <v>207</v>
       </c>
-      <c r="BT12" t="s">
+      <c r="BU12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -3059,115 +3161,118 @@
         <v>247</v>
       </c>
       <c r="K13" t="s">
+        <v>349</v>
+      </c>
+      <c r="L13" t="s">
         <v>248</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>185</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>186</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>187</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>188</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>189</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>190</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>191</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>192</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>118</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>143</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>65</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>194</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AO13" t="s">
         <v>195</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AP13" t="s">
         <v>69</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AT13" t="s">
         <v>73</v>
       </c>
-      <c r="AU13" t="s">
+      <c r="AV13" t="s">
         <v>75</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>77</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>78</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>196</v>
       </c>
-      <c r="AZ13" t="s">
+      <c r="BA13" t="s">
         <v>197</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>198</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BC13" t="s">
         <v>153</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BD13" t="s">
         <v>199</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BE13" t="s">
         <v>200</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>201</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BG13" t="s">
         <v>202</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BI13" t="s">
         <v>203</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>238</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BK13" t="s">
         <v>204</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
         <v>239</v>
       </c>
-      <c r="BN13" t="s">
+      <c r="BO13" t="s">
         <v>205</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
         <v>206</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BQ13" t="s">
         <v>207</v>
       </c>
-      <c r="BT13" t="s">
+      <c r="BU13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -3196,58 +3301,61 @@
         <v>109</v>
       </c>
       <c r="K14" t="s">
+        <v>329</v>
+      </c>
+      <c r="L14" t="s">
         <v>110</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-999</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>111</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>112</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>113</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>114</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>115</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>114</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>115</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>116</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>117</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>118</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>119</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>120</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>121</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>122</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -3276,58 +3384,61 @@
         <v>109</v>
       </c>
       <c r="K15" t="s">
+        <v>329</v>
+      </c>
+      <c r="L15" t="s">
         <v>110</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-999</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>111</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>112</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>113</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>114</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>115</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>114</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>115</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>116</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>117</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>118</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>119</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>120</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>121</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>122</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -3356,58 +3467,61 @@
         <v>109</v>
       </c>
       <c r="K16" t="s">
+        <v>329</v>
+      </c>
+      <c r="L16" t="s">
         <v>110</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-999</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>111</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>112</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>113</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>114</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>115</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>114</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>115</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>116</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>117</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>118</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>119</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>120</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>121</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>122</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -3436,58 +3550,61 @@
         <v>109</v>
       </c>
       <c r="K17" t="s">
+        <v>329</v>
+      </c>
+      <c r="L17" t="s">
         <v>110</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-999</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>127</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>112</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>113</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>114</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>115</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>114</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>115</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>116</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>117</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>118</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>119</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>120</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>121</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>122</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -3516,58 +3633,61 @@
         <v>109</v>
       </c>
       <c r="K18" t="s">
+        <v>329</v>
+      </c>
+      <c r="L18" t="s">
         <v>110</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-999</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>111</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>112</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>113</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>114</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>115</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>114</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>115</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>116</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>117</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>118</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>119</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>120</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>121</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>122</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -3596,58 +3716,61 @@
         <v>109</v>
       </c>
       <c r="K19" t="s">
+        <v>329</v>
+      </c>
+      <c r="L19" t="s">
         <v>110</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-999</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>111</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>112</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>113</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>114</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>115</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>114</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>115</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>116</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>117</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>118</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>119</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>120</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>121</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>122</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -3676,58 +3799,61 @@
         <v>109</v>
       </c>
       <c r="K20" t="s">
+        <v>329</v>
+      </c>
+      <c r="L20" t="s">
         <v>110</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-999</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>111</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>112</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>113</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>114</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>115</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>114</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>115</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>116</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>117</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>118</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>119</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>120</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>121</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>122</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -3756,58 +3882,61 @@
         <v>109</v>
       </c>
       <c r="K21" t="s">
+        <v>329</v>
+      </c>
+      <c r="L21" t="s">
         <v>110</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-999</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>111</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>112</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>113</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>114</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>115</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>114</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>115</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>116</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>117</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>118</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>119</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>120</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>121</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>122</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -3836,58 +3965,61 @@
         <v>109</v>
       </c>
       <c r="K22" t="s">
+        <v>329</v>
+      </c>
+      <c r="L22" t="s">
         <v>110</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-999</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>111</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>112</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>113</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>114</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>115</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>114</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>115</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>116</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>117</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>118</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>119</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>120</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>121</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>122</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -3916,58 +4048,61 @@
         <v>109</v>
       </c>
       <c r="K23" t="s">
+        <v>329</v>
+      </c>
+      <c r="L23" t="s">
         <v>110</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-999</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>111</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>112</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>113</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>114</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>115</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>114</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>115</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>116</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>117</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>118</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>119</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>120</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>121</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>122</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -3996,58 +4131,61 @@
         <v>109</v>
       </c>
       <c r="K24" t="s">
+        <v>329</v>
+      </c>
+      <c r="L24" t="s">
         <v>110</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-999</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>111</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>112</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>113</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>114</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>115</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>114</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>115</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>116</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>117</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>118</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>119</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>120</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>121</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>122</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -4076,58 +4214,61 @@
         <v>109</v>
       </c>
       <c r="K25" t="s">
+        <v>329</v>
+      </c>
+      <c r="L25" t="s">
         <v>110</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-999</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>111</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>112</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>113</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>114</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>115</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>115</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>116</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>117</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>118</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>119</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>120</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>121</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>122</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -4156,58 +4297,61 @@
         <v>109</v>
       </c>
       <c r="K26" t="s">
+        <v>329</v>
+      </c>
+      <c r="L26" t="s">
         <v>110</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-999</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>111</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>112</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>113</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>114</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>115</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>114</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>116</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>117</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>118</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>119</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>120</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>121</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>122</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -4236,118 +4380,121 @@
         <v>140</v>
       </c>
       <c r="K27" t="s">
+        <v>330</v>
+      </c>
+      <c r="L27" t="s">
         <v>141</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-999</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>142</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>112</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>113</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>114</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>115</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>114</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>115</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>116</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>117</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>118</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>119</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>120</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>143</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>144</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27" t="s">
         <v>145</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>146</v>
       </c>
-      <c r="AO27" t="s">
+      <c r="AP27" t="s">
         <v>147</v>
       </c>
-      <c r="AU27" t="s">
+      <c r="AV27" t="s">
         <v>148</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX27" t="s">
         <v>149</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ27" t="s">
         <v>150</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BA27" t="s">
         <v>151</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BB27" t="s">
         <v>152</v>
       </c>
-      <c r="BB27" t="s">
+      <c r="BC27" t="s">
         <v>153</v>
       </c>
-      <c r="BC27" t="s">
+      <c r="BD27" t="s">
         <v>154</v>
       </c>
-      <c r="BD27" t="s">
+      <c r="BE27" t="s">
         <v>155</v>
       </c>
-      <c r="BE27" t="s">
+      <c r="BF27" t="s">
         <v>85</v>
       </c>
-      <c r="BF27" t="s">
+      <c r="BG27" t="s">
         <v>156</v>
       </c>
-      <c r="BH27" t="s">
+      <c r="BI27" t="s">
         <v>157</v>
       </c>
-      <c r="BI27" t="s">
+      <c r="BJ27" t="s">
         <v>158</v>
       </c>
-      <c r="BJ27" t="s">
+      <c r="BK27" t="s">
         <v>159</v>
       </c>
-      <c r="BN27" t="s">
+      <c r="BO27" t="s">
         <v>160</v>
       </c>
-      <c r="BO27" t="s">
+      <c r="BP27" t="s">
         <v>161</v>
       </c>
-      <c r="BP27" t="s">
+      <c r="BQ27" t="s">
         <v>162</v>
       </c>
-      <c r="BS27" t="s">
+      <c r="BT27" t="s">
         <v>163</v>
       </c>
-      <c r="BT27" t="s">
+      <c r="BU27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -4376,118 +4523,121 @@
         <v>140</v>
       </c>
       <c r="K28" t="s">
+        <v>330</v>
+      </c>
+      <c r="L28" t="s">
         <v>141</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-999</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>142</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>112</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>113</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>114</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>115</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>114</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>115</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>116</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>117</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>118</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>119</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>120</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>143</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AK28" t="s">
         <v>144</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AL28" t="s">
         <v>145</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>146</v>
       </c>
-      <c r="AO28" t="s">
+      <c r="AP28" t="s">
         <v>147</v>
       </c>
-      <c r="AU28" t="s">
+      <c r="AV28" t="s">
         <v>148</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AX28" t="s">
         <v>149</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="AZ28" t="s">
         <v>150</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BA28" t="s">
         <v>151</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BB28" t="s">
         <v>152</v>
       </c>
-      <c r="BB28" t="s">
+      <c r="BC28" t="s">
         <v>153</v>
       </c>
-      <c r="BC28" t="s">
+      <c r="BD28" t="s">
         <v>154</v>
       </c>
-      <c r="BD28" t="s">
+      <c r="BE28" t="s">
         <v>155</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BF28" t="s">
         <v>85</v>
       </c>
-      <c r="BF28" t="s">
+      <c r="BG28" t="s">
         <v>156</v>
       </c>
-      <c r="BH28" t="s">
+      <c r="BI28" t="s">
         <v>157</v>
       </c>
-      <c r="BI28" t="s">
+      <c r="BJ28" t="s">
         <v>158</v>
       </c>
-      <c r="BJ28" t="s">
+      <c r="BK28" t="s">
         <v>159</v>
       </c>
-      <c r="BN28" t="s">
+      <c r="BO28" t="s">
         <v>160</v>
       </c>
-      <c r="BO28" t="s">
+      <c r="BP28" t="s">
         <v>161</v>
       </c>
-      <c r="BP28" t="s">
+      <c r="BQ28" t="s">
         <v>162</v>
       </c>
-      <c r="BS28" t="s">
+      <c r="BT28" t="s">
         <v>163</v>
       </c>
-      <c r="BT28" t="s">
+      <c r="BU28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -4516,118 +4666,121 @@
         <v>140</v>
       </c>
       <c r="K29" t="s">
+        <v>330</v>
+      </c>
+      <c r="L29" t="s">
         <v>141</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-999</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>142</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>112</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>113</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>114</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>115</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>114</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>115</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>117</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>118</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>119</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>120</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>143</v>
       </c>
-      <c r="AJ29" t="s">
+      <c r="AK29" t="s">
         <v>144</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AL29" t="s">
         <v>145</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AM29" t="s">
         <v>146</v>
       </c>
-      <c r="AO29" t="s">
+      <c r="AP29" t="s">
         <v>147</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AV29" t="s">
         <v>148</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AX29" t="s">
         <v>149</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="AZ29" t="s">
         <v>150</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BA29" t="s">
         <v>151</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BB29" t="s">
         <v>152</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BC29" t="s">
         <v>153</v>
       </c>
-      <c r="BC29" t="s">
+      <c r="BD29" t="s">
         <v>154</v>
       </c>
-      <c r="BD29" t="s">
+      <c r="BE29" t="s">
         <v>155</v>
       </c>
-      <c r="BE29" t="s">
+      <c r="BF29" t="s">
         <v>85</v>
       </c>
-      <c r="BF29" t="s">
+      <c r="BG29" t="s">
         <v>156</v>
       </c>
-      <c r="BH29" t="s">
+      <c r="BI29" t="s">
         <v>157</v>
       </c>
-      <c r="BI29" t="s">
+      <c r="BJ29" t="s">
         <v>158</v>
       </c>
-      <c r="BJ29" t="s">
+      <c r="BK29" t="s">
         <v>159</v>
       </c>
-      <c r="BN29" t="s">
+      <c r="BO29" t="s">
         <v>160</v>
       </c>
-      <c r="BO29" t="s">
+      <c r="BP29" t="s">
         <v>161</v>
       </c>
-      <c r="BP29" t="s">
+      <c r="BQ29" t="s">
         <v>162</v>
       </c>
-      <c r="BS29" t="s">
+      <c r="BT29" t="s">
         <v>163</v>
       </c>
-      <c r="BT29" t="s">
+      <c r="BU29" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -4656,118 +4809,121 @@
         <v>140</v>
       </c>
       <c r="K30" t="s">
+        <v>330</v>
+      </c>
+      <c r="L30" t="s">
         <v>141</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-999</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>142</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>112</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>113</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>114</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>115</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>114</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>115</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>116</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>117</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>118</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>119</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>120</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>143</v>
       </c>
-      <c r="AJ30" t="s">
+      <c r="AK30" t="s">
         <v>144</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AL30" t="s">
         <v>145</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
         <v>146</v>
       </c>
-      <c r="AO30" t="s">
+      <c r="AP30" t="s">
         <v>147</v>
       </c>
-      <c r="AU30" t="s">
+      <c r="AV30" t="s">
         <v>148</v>
       </c>
-      <c r="AW30" t="s">
+      <c r="AX30" t="s">
         <v>149</v>
       </c>
-      <c r="AY30" t="s">
+      <c r="AZ30" t="s">
         <v>150</v>
       </c>
-      <c r="AZ30" t="s">
+      <c r="BA30" t="s">
         <v>151</v>
       </c>
-      <c r="BA30" t="s">
+      <c r="BB30" t="s">
         <v>152</v>
       </c>
-      <c r="BB30" t="s">
+      <c r="BC30" t="s">
         <v>153</v>
       </c>
-      <c r="BC30" t="s">
+      <c r="BD30" t="s">
         <v>154</v>
       </c>
-      <c r="BD30" t="s">
+      <c r="BE30" t="s">
         <v>155</v>
       </c>
-      <c r="BE30" t="s">
+      <c r="BF30" t="s">
         <v>85</v>
       </c>
-      <c r="BF30" t="s">
+      <c r="BG30" t="s">
         <v>156</v>
       </c>
-      <c r="BH30" t="s">
+      <c r="BI30" t="s">
         <v>157</v>
       </c>
-      <c r="BI30" t="s">
+      <c r="BJ30" t="s">
         <v>158</v>
       </c>
-      <c r="BJ30" t="s">
+      <c r="BK30" t="s">
         <v>159</v>
       </c>
-      <c r="BN30" t="s">
+      <c r="BO30" t="s">
         <v>160</v>
       </c>
-      <c r="BO30" t="s">
+      <c r="BP30" t="s">
         <v>161</v>
       </c>
-      <c r="BP30" t="s">
+      <c r="BQ30" t="s">
         <v>162</v>
       </c>
-      <c r="BS30" t="s">
+      <c r="BT30" t="s">
         <v>163</v>
       </c>
-      <c r="BT30" t="s">
+      <c r="BU30" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -4796,118 +4952,121 @@
         <v>140</v>
       </c>
       <c r="K31" t="s">
+        <v>330</v>
+      </c>
+      <c r="L31" t="s">
         <v>141</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-999</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>142</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>112</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>113</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>114</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>115</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>114</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>115</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>116</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>117</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>118</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>119</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>120</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>143</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AK31" t="s">
         <v>144</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AL31" t="s">
         <v>145</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AM31" t="s">
         <v>146</v>
       </c>
-      <c r="AO31" t="s">
+      <c r="AP31" t="s">
         <v>147</v>
       </c>
-      <c r="AU31" t="s">
+      <c r="AV31" t="s">
         <v>148</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AX31" t="s">
         <v>149</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="AZ31" t="s">
         <v>150</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="BA31" t="s">
         <v>151</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BB31" t="s">
         <v>152</v>
       </c>
-      <c r="BB31" t="s">
+      <c r="BC31" t="s">
         <v>153</v>
       </c>
-      <c r="BC31" t="s">
+      <c r="BD31" t="s">
         <v>154</v>
       </c>
-      <c r="BD31" t="s">
+      <c r="BE31" t="s">
         <v>155</v>
       </c>
-      <c r="BE31" t="s">
+      <c r="BF31" t="s">
         <v>85</v>
       </c>
-      <c r="BF31" t="s">
+      <c r="BG31" t="s">
         <v>156</v>
       </c>
-      <c r="BH31" t="s">
+      <c r="BI31" t="s">
         <v>157</v>
       </c>
-      <c r="BI31" t="s">
+      <c r="BJ31" t="s">
         <v>158</v>
       </c>
-      <c r="BJ31" t="s">
+      <c r="BK31" t="s">
         <v>159</v>
       </c>
-      <c r="BN31" t="s">
+      <c r="BO31" t="s">
         <v>160</v>
       </c>
-      <c r="BO31" t="s">
+      <c r="BP31" t="s">
         <v>161</v>
       </c>
-      <c r="BP31" t="s">
+      <c r="BQ31" t="s">
         <v>162</v>
       </c>
-      <c r="BS31" t="s">
+      <c r="BT31" t="s">
         <v>163</v>
       </c>
-      <c r="BT31" t="s">
+      <c r="BU31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -4936,118 +5095,121 @@
         <v>140</v>
       </c>
       <c r="K32" t="s">
+        <v>330</v>
+      </c>
+      <c r="L32" t="s">
         <v>141</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-999</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>142</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>112</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>113</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>114</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>115</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>114</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>115</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>117</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AB32" t="s">
         <v>118</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AC32" t="s">
         <v>119</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AD32" t="s">
         <v>120</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>143</v>
       </c>
-      <c r="AJ32" t="s">
+      <c r="AK32" t="s">
         <v>144</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AL32" t="s">
         <v>145</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AM32" t="s">
         <v>146</v>
       </c>
-      <c r="AO32" t="s">
+      <c r="AP32" t="s">
         <v>147</v>
       </c>
-      <c r="AU32" t="s">
+      <c r="AV32" t="s">
         <v>148</v>
       </c>
-      <c r="AW32" t="s">
+      <c r="AX32" t="s">
         <v>149</v>
       </c>
-      <c r="AY32" t="s">
+      <c r="AZ32" t="s">
         <v>150</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="BA32" t="s">
         <v>151</v>
       </c>
-      <c r="BA32" t="s">
+      <c r="BB32" t="s">
         <v>152</v>
       </c>
-      <c r="BB32" t="s">
+      <c r="BC32" t="s">
         <v>153</v>
       </c>
-      <c r="BC32" t="s">
+      <c r="BD32" t="s">
         <v>154</v>
       </c>
-      <c r="BD32" t="s">
+      <c r="BE32" t="s">
         <v>155</v>
       </c>
-      <c r="BE32" t="s">
+      <c r="BF32" t="s">
         <v>85</v>
       </c>
-      <c r="BF32" t="s">
+      <c r="BG32" t="s">
         <v>156</v>
       </c>
-      <c r="BH32" t="s">
+      <c r="BI32" t="s">
         <v>157</v>
       </c>
-      <c r="BI32" t="s">
+      <c r="BJ32" t="s">
         <v>158</v>
       </c>
-      <c r="BJ32" t="s">
+      <c r="BK32" t="s">
         <v>159</v>
       </c>
-      <c r="BN32" t="s">
+      <c r="BO32" t="s">
         <v>160</v>
       </c>
-      <c r="BO32" t="s">
+      <c r="BP32" t="s">
         <v>161</v>
       </c>
-      <c r="BP32" t="s">
+      <c r="BQ32" t="s">
         <v>162</v>
       </c>
-      <c r="BS32" t="s">
+      <c r="BT32" t="s">
         <v>163</v>
       </c>
-      <c r="BT32" t="s">
+      <c r="BU32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -5076,118 +5238,121 @@
         <v>140</v>
       </c>
       <c r="K33" t="s">
+        <v>330</v>
+      </c>
+      <c r="L33" t="s">
         <v>141</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-999</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>142</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>112</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>113</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>114</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>115</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>114</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>115</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>116</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>117</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AB33" t="s">
         <v>118</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AC33" t="s">
         <v>119</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AD33" t="s">
         <v>120</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>143</v>
       </c>
-      <c r="AJ33" t="s">
+      <c r="AK33" t="s">
         <v>144</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AL33" t="s">
         <v>145</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AM33" t="s">
         <v>146</v>
       </c>
-      <c r="AO33" t="s">
+      <c r="AP33" t="s">
         <v>147</v>
       </c>
-      <c r="AU33" t="s">
+      <c r="AV33" t="s">
         <v>148</v>
       </c>
-      <c r="AW33" t="s">
+      <c r="AX33" t="s">
         <v>149</v>
       </c>
-      <c r="AY33" t="s">
+      <c r="AZ33" t="s">
         <v>150</v>
       </c>
-      <c r="AZ33" t="s">
+      <c r="BA33" t="s">
         <v>151</v>
       </c>
-      <c r="BA33" t="s">
+      <c r="BB33" t="s">
         <v>152</v>
       </c>
-      <c r="BB33" t="s">
+      <c r="BC33" t="s">
         <v>153</v>
       </c>
-      <c r="BC33" t="s">
+      <c r="BD33" t="s">
         <v>154</v>
       </c>
-      <c r="BD33" t="s">
+      <c r="BE33" t="s">
         <v>155</v>
       </c>
-      <c r="BE33" t="s">
+      <c r="BF33" t="s">
         <v>85</v>
       </c>
-      <c r="BF33" t="s">
+      <c r="BG33" t="s">
         <v>156</v>
       </c>
-      <c r="BH33" t="s">
+      <c r="BI33" t="s">
         <v>157</v>
       </c>
-      <c r="BI33" t="s">
+      <c r="BJ33" t="s">
         <v>158</v>
       </c>
-      <c r="BJ33" t="s">
+      <c r="BK33" t="s">
         <v>159</v>
       </c>
-      <c r="BN33" t="s">
+      <c r="BO33" t="s">
         <v>160</v>
       </c>
-      <c r="BO33" t="s">
+      <c r="BP33" t="s">
         <v>161</v>
       </c>
-      <c r="BP33" t="s">
+      <c r="BQ33" t="s">
         <v>162</v>
       </c>
-      <c r="BS33" t="s">
+      <c r="BT33" t="s">
         <v>163</v>
       </c>
-      <c r="BT33" t="s">
+      <c r="BU33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -5216,118 +5381,121 @@
         <v>140</v>
       </c>
       <c r="K34" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" t="s">
         <v>141</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-999</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>142</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>112</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>113</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>114</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>115</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>114</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>115</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>116</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>117</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AB34" t="s">
         <v>118</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AC34" t="s">
         <v>119</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>120</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>143</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AK34" t="s">
         <v>144</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AL34" t="s">
         <v>145</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AM34" t="s">
         <v>146</v>
       </c>
-      <c r="AO34" t="s">
+      <c r="AP34" t="s">
         <v>147</v>
       </c>
-      <c r="AU34" t="s">
+      <c r="AV34" t="s">
         <v>148</v>
       </c>
-      <c r="AW34" t="s">
+      <c r="AX34" t="s">
         <v>149</v>
       </c>
-      <c r="AY34" t="s">
+      <c r="AZ34" t="s">
         <v>150</v>
       </c>
-      <c r="AZ34" t="s">
+      <c r="BA34" t="s">
         <v>151</v>
       </c>
-      <c r="BA34" t="s">
+      <c r="BB34" t="s">
         <v>152</v>
       </c>
-      <c r="BB34" t="s">
+      <c r="BC34" t="s">
         <v>153</v>
       </c>
-      <c r="BC34" t="s">
+      <c r="BD34" t="s">
         <v>154</v>
       </c>
-      <c r="BD34" t="s">
+      <c r="BE34" t="s">
         <v>155</v>
       </c>
-      <c r="BE34" t="s">
+      <c r="BF34" t="s">
         <v>85</v>
       </c>
-      <c r="BF34" t="s">
+      <c r="BG34" t="s">
         <v>156</v>
       </c>
-      <c r="BH34" t="s">
+      <c r="BI34" t="s">
         <v>157</v>
       </c>
-      <c r="BI34" t="s">
+      <c r="BJ34" t="s">
         <v>158</v>
       </c>
-      <c r="BJ34" t="s">
+      <c r="BK34" t="s">
         <v>159</v>
       </c>
-      <c r="BN34" t="s">
+      <c r="BO34" t="s">
         <v>160</v>
       </c>
-      <c r="BO34" t="s">
+      <c r="BP34" t="s">
         <v>161</v>
       </c>
-      <c r="BP34" t="s">
+      <c r="BQ34" t="s">
         <v>162</v>
       </c>
-      <c r="BS34" t="s">
+      <c r="BT34" t="s">
         <v>163</v>
       </c>
-      <c r="BT34" t="s">
+      <c r="BU34" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -5356,118 +5524,121 @@
         <v>140</v>
       </c>
       <c r="K35" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
         <v>141</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>-999</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>142</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>112</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>113</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>114</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>115</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>114</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>115</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>116</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>117</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AB35" t="s">
         <v>118</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AC35" t="s">
         <v>119</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AD35" t="s">
         <v>120</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>143</v>
       </c>
-      <c r="AJ35" t="s">
+      <c r="AK35" t="s">
         <v>144</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AL35" t="s">
         <v>145</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AM35" t="s">
         <v>146</v>
       </c>
-      <c r="AO35" t="s">
+      <c r="AP35" t="s">
         <v>147</v>
       </c>
-      <c r="AU35" t="s">
+      <c r="AV35" t="s">
         <v>148</v>
       </c>
-      <c r="AW35" t="s">
+      <c r="AX35" t="s">
         <v>149</v>
       </c>
-      <c r="AY35" t="s">
+      <c r="AZ35" t="s">
         <v>150</v>
       </c>
-      <c r="AZ35" t="s">
+      <c r="BA35" t="s">
         <v>151</v>
       </c>
-      <c r="BA35" t="s">
+      <c r="BB35" t="s">
         <v>152</v>
       </c>
-      <c r="BB35" t="s">
+      <c r="BC35" t="s">
         <v>153</v>
       </c>
-      <c r="BC35" t="s">
+      <c r="BD35" t="s">
         <v>154</v>
       </c>
-      <c r="BD35" t="s">
+      <c r="BE35" t="s">
         <v>155</v>
       </c>
-      <c r="BE35" t="s">
+      <c r="BF35" t="s">
         <v>85</v>
       </c>
-      <c r="BF35" t="s">
+      <c r="BG35" t="s">
         <v>156</v>
       </c>
-      <c r="BH35" t="s">
+      <c r="BI35" t="s">
         <v>157</v>
       </c>
-      <c r="BI35" t="s">
+      <c r="BJ35" t="s">
         <v>158</v>
       </c>
-      <c r="BJ35" t="s">
+      <c r="BK35" t="s">
         <v>159</v>
       </c>
-      <c r="BN35" t="s">
+      <c r="BO35" t="s">
         <v>160</v>
       </c>
-      <c r="BO35" t="s">
+      <c r="BP35" t="s">
         <v>161</v>
       </c>
-      <c r="BP35" t="s">
+      <c r="BQ35" t="s">
         <v>162</v>
       </c>
-      <c r="BS35" t="s">
+      <c r="BT35" t="s">
         <v>163</v>
       </c>
-      <c r="BT35" t="s">
+      <c r="BU35" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -5496,118 +5667,121 @@
         <v>140</v>
       </c>
       <c r="K36" t="s">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s">
         <v>141</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>-999</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>174</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>112</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>113</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>114</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>115</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>114</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>115</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>117</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
         <v>118</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
         <v>119</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>120</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>143</v>
       </c>
-      <c r="AJ36" t="s">
+      <c r="AK36" t="s">
         <v>144</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AL36" t="s">
         <v>145</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AM36" t="s">
         <v>146</v>
       </c>
-      <c r="AO36" t="s">
+      <c r="AP36" t="s">
         <v>147</v>
       </c>
-      <c r="AU36" t="s">
+      <c r="AV36" t="s">
         <v>148</v>
       </c>
-      <c r="AW36" t="s">
+      <c r="AX36" t="s">
         <v>149</v>
       </c>
-      <c r="AY36" t="s">
+      <c r="AZ36" t="s">
         <v>150</v>
       </c>
-      <c r="AZ36" t="s">
+      <c r="BA36" t="s">
         <v>151</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BB36" t="s">
         <v>152</v>
       </c>
-      <c r="BB36" t="s">
+      <c r="BC36" t="s">
         <v>153</v>
       </c>
-      <c r="BC36" t="s">
+      <c r="BD36" t="s">
         <v>154</v>
       </c>
-      <c r="BD36" t="s">
+      <c r="BE36" t="s">
         <v>155</v>
       </c>
-      <c r="BE36" t="s">
+      <c r="BF36" t="s">
         <v>85</v>
       </c>
-      <c r="BF36" t="s">
+      <c r="BG36" t="s">
         <v>156</v>
       </c>
-      <c r="BH36" t="s">
+      <c r="BI36" t="s">
         <v>157</v>
       </c>
-      <c r="BI36" t="s">
+      <c r="BJ36" t="s">
         <v>158</v>
       </c>
-      <c r="BJ36" t="s">
+      <c r="BK36" t="s">
         <v>159</v>
       </c>
-      <c r="BN36" t="s">
+      <c r="BO36" t="s">
         <v>160</v>
       </c>
-      <c r="BO36" t="s">
+      <c r="BP36" t="s">
         <v>161</v>
       </c>
-      <c r="BP36" t="s">
+      <c r="BQ36" t="s">
         <v>162</v>
       </c>
-      <c r="BS36" t="s">
+      <c r="BT36" t="s">
         <v>163</v>
       </c>
-      <c r="BT36" t="s">
+      <c r="BU36" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -5636,118 +5810,121 @@
         <v>140</v>
       </c>
       <c r="K37" t="s">
+        <v>330</v>
+      </c>
+      <c r="L37" t="s">
         <v>141</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>-999</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>176</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>112</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>113</v>
       </c>
-      <c r="T37" t="s">
+      <c r="U37" t="s">
         <v>114</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>115</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>114</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>115</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>116</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>117</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>118</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>119</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>120</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>143</v>
       </c>
-      <c r="AJ37" t="s">
+      <c r="AK37" t="s">
         <v>144</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AL37" t="s">
         <v>145</v>
       </c>
-      <c r="AL37" t="s">
+      <c r="AM37" t="s">
         <v>146</v>
       </c>
-      <c r="AO37" t="s">
+      <c r="AP37" t="s">
         <v>147</v>
       </c>
-      <c r="AU37" t="s">
+      <c r="AV37" t="s">
         <v>148</v>
       </c>
-      <c r="AW37" t="s">
+      <c r="AX37" t="s">
         <v>149</v>
       </c>
-      <c r="AY37" t="s">
+      <c r="AZ37" t="s">
         <v>150</v>
       </c>
-      <c r="AZ37" t="s">
+      <c r="BA37" t="s">
         <v>151</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="BB37" t="s">
         <v>152</v>
       </c>
-      <c r="BB37" t="s">
+      <c r="BC37" t="s">
         <v>153</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BD37" t="s">
         <v>154</v>
       </c>
-      <c r="BD37" t="s">
+      <c r="BE37" t="s">
         <v>155</v>
       </c>
-      <c r="BE37" t="s">
+      <c r="BF37" t="s">
         <v>85</v>
       </c>
-      <c r="BF37" t="s">
+      <c r="BG37" t="s">
         <v>156</v>
       </c>
-      <c r="BH37" t="s">
+      <c r="BI37" t="s">
         <v>157</v>
       </c>
-      <c r="BI37" t="s">
+      <c r="BJ37" t="s">
         <v>158</v>
       </c>
-      <c r="BJ37" t="s">
+      <c r="BK37" t="s">
         <v>159</v>
       </c>
-      <c r="BN37" t="s">
+      <c r="BO37" t="s">
         <v>160</v>
       </c>
-      <c r="BO37" t="s">
+      <c r="BP37" t="s">
         <v>161</v>
       </c>
-      <c r="BP37" t="s">
+      <c r="BQ37" t="s">
         <v>162</v>
       </c>
-      <c r="BS37" t="s">
+      <c r="BT37" t="s">
         <v>163</v>
       </c>
-      <c r="BT37" t="s">
+      <c r="BU37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -5776,118 +5953,121 @@
         <v>140</v>
       </c>
       <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
         <v>141</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>-999</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>174</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>112</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>113</v>
       </c>
-      <c r="T38" t="s">
+      <c r="U38" t="s">
         <v>114</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>115</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>114</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>115</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>116</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>117</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>119</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>120</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>143</v>
       </c>
-      <c r="AJ38" t="s">
+      <c r="AK38" t="s">
         <v>144</v>
       </c>
-      <c r="AK38" t="s">
+      <c r="AL38" t="s">
         <v>145</v>
       </c>
-      <c r="AL38" t="s">
+      <c r="AM38" t="s">
         <v>146</v>
       </c>
-      <c r="AO38" t="s">
+      <c r="AP38" t="s">
         <v>147</v>
       </c>
-      <c r="AU38" t="s">
+      <c r="AV38" t="s">
         <v>148</v>
       </c>
-      <c r="AW38" t="s">
+      <c r="AX38" t="s">
         <v>149</v>
       </c>
-      <c r="AY38" t="s">
+      <c r="AZ38" t="s">
         <v>150</v>
       </c>
-      <c r="AZ38" t="s">
+      <c r="BA38" t="s">
         <v>151</v>
       </c>
-      <c r="BA38" t="s">
+      <c r="BB38" t="s">
         <v>152</v>
       </c>
-      <c r="BB38" t="s">
+      <c r="BC38" t="s">
         <v>153</v>
       </c>
-      <c r="BC38" t="s">
+      <c r="BD38" t="s">
         <v>154</v>
       </c>
-      <c r="BD38" t="s">
+      <c r="BE38" t="s">
         <v>155</v>
       </c>
-      <c r="BE38" t="s">
+      <c r="BF38" t="s">
         <v>85</v>
       </c>
-      <c r="BF38" t="s">
+      <c r="BG38" t="s">
         <v>156</v>
       </c>
-      <c r="BH38" t="s">
+      <c r="BI38" t="s">
         <v>157</v>
       </c>
-      <c r="BI38" t="s">
+      <c r="BJ38" t="s">
         <v>158</v>
       </c>
-      <c r="BJ38" t="s">
+      <c r="BK38" t="s">
         <v>159</v>
       </c>
-      <c r="BN38" t="s">
+      <c r="BO38" t="s">
         <v>160</v>
       </c>
-      <c r="BO38" t="s">
+      <c r="BP38" t="s">
         <v>161</v>
       </c>
-      <c r="BP38" t="s">
+      <c r="BQ38" t="s">
         <v>162</v>
       </c>
-      <c r="BS38" t="s">
+      <c r="BT38" t="s">
         <v>163</v>
       </c>
-      <c r="BT38" t="s">
+      <c r="BU38" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -5913,91 +6093,94 @@
         <v>252</v>
       </c>
       <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
         <v>250</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>253</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>186</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>301</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>302</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>254</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AD39" t="s">
         <v>255</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>256</v>
       </c>
-      <c r="AH39" t="s">
+      <c r="AI39" t="s">
         <v>257</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AL39" t="s">
         <v>258</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AM39" t="s">
         <v>259</v>
       </c>
-      <c r="AN39" t="s">
+      <c r="AO39" t="s">
         <v>260</v>
       </c>
-      <c r="AO39" t="s">
+      <c r="AP39" t="s">
         <v>261</v>
       </c>
-      <c r="AV39" t="s">
+      <c r="AW39" t="s">
         <v>262</v>
       </c>
-      <c r="AW39" t="s">
+      <c r="AX39" t="s">
         <v>263</v>
       </c>
-      <c r="AY39" t="s">
+      <c r="AZ39" t="s">
         <v>264</v>
       </c>
-      <c r="AZ39" t="s">
+      <c r="BA39" t="s">
         <v>265</v>
       </c>
-      <c r="BA39" t="s">
+      <c r="BB39" t="s">
         <v>266</v>
       </c>
-      <c r="BB39" t="s">
+      <c r="BC39" t="s">
         <v>267</v>
       </c>
-      <c r="BD39" t="s">
+      <c r="BE39" t="s">
         <v>200</v>
       </c>
-      <c r="BE39" t="s">
+      <c r="BF39" t="s">
         <v>268</v>
       </c>
-      <c r="BF39" t="s">
+      <c r="BG39" t="s">
         <v>269</v>
       </c>
-      <c r="BH39" t="s">
+      <c r="BI39" t="s">
         <v>203</v>
       </c>
-      <c r="BI39" t="s">
+      <c r="BJ39" t="s">
         <v>270</v>
       </c>
-      <c r="BJ39" t="s">
+      <c r="BK39" t="s">
         <v>271</v>
       </c>
-      <c r="BK39" t="s">
+      <c r="BL39" t="s">
         <v>272</v>
       </c>
-      <c r="BO39" t="s">
+      <c r="BP39" t="s">
         <v>273</v>
       </c>
-      <c r="BP39" t="s">
+      <c r="BQ39" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -6023,34 +6206,37 @@
         <v>252</v>
       </c>
       <c r="K40" t="s">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s">
         <v>277</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>253</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>186</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>301</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>302</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AC40" t="s">
         <v>254</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AD40" t="s">
         <v>255</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>143</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AF40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -6076,91 +6262,94 @@
         <v>252</v>
       </c>
       <c r="K41" t="s">
+        <v>334</v>
+      </c>
+      <c r="L41" t="s">
         <v>250</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>253</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>186</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>301</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>302</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AC41" t="s">
         <v>254</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AD41" t="s">
         <v>255</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AE41" t="s">
         <v>256</v>
       </c>
-      <c r="AH41" t="s">
+      <c r="AI41" t="s">
         <v>257</v>
       </c>
-      <c r="AK41" t="s">
+      <c r="AL41" t="s">
         <v>258</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="AM41" t="s">
         <v>259</v>
       </c>
-      <c r="AN41" t="s">
+      <c r="AO41" t="s">
         <v>260</v>
       </c>
-      <c r="AO41" t="s">
+      <c r="AP41" t="s">
         <v>261</v>
       </c>
-      <c r="AV41" t="s">
+      <c r="AW41" t="s">
         <v>262</v>
       </c>
-      <c r="AW41" t="s">
+      <c r="AX41" t="s">
         <v>263</v>
       </c>
-      <c r="AY41" t="s">
+      <c r="AZ41" t="s">
         <v>264</v>
       </c>
-      <c r="AZ41" t="s">
+      <c r="BA41" t="s">
         <v>265</v>
       </c>
-      <c r="BA41" t="s">
+      <c r="BB41" t="s">
         <v>266</v>
       </c>
-      <c r="BB41" t="s">
+      <c r="BC41" t="s">
         <v>267</v>
       </c>
-      <c r="BD41" t="s">
+      <c r="BE41" t="s">
         <v>200</v>
       </c>
-      <c r="BE41" t="s">
+      <c r="BF41" t="s">
         <v>268</v>
       </c>
-      <c r="BF41" t="s">
+      <c r="BG41" t="s">
         <v>269</v>
       </c>
-      <c r="BH41" t="s">
+      <c r="BI41" t="s">
         <v>203</v>
       </c>
-      <c r="BI41" t="s">
+      <c r="BJ41" t="s">
         <v>270</v>
       </c>
-      <c r="BJ41" t="s">
+      <c r="BK41" t="s">
         <v>271</v>
       </c>
-      <c r="BK41" t="s">
+      <c r="BL41" t="s">
         <v>272</v>
       </c>
-      <c r="BO41" t="s">
+      <c r="BP41" t="s">
         <v>273</v>
       </c>
-      <c r="BP41" t="s">
+      <c r="BQ41" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -6186,34 +6375,37 @@
         <v>252</v>
       </c>
       <c r="K42" t="s">
+        <v>337</v>
+      </c>
+      <c r="L42" t="s">
         <v>277</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>253</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>186</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>301</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>302</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AC42" t="s">
         <v>254</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AD42" t="s">
         <v>255</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>143</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -6239,91 +6431,94 @@
         <v>252</v>
       </c>
       <c r="K43" t="s">
+        <v>335</v>
+      </c>
+      <c r="L43" t="s">
         <v>250</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>253</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>186</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>301</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>302</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AC43" t="s">
         <v>254</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AD43" t="s">
         <v>255</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>256</v>
       </c>
-      <c r="AH43" t="s">
+      <c r="AI43" t="s">
         <v>257</v>
       </c>
-      <c r="AK43" t="s">
+      <c r="AL43" t="s">
         <v>258</v>
       </c>
-      <c r="AL43" t="s">
+      <c r="AM43" t="s">
         <v>259</v>
       </c>
-      <c r="AN43" t="s">
+      <c r="AO43" t="s">
         <v>260</v>
       </c>
-      <c r="AO43" t="s">
+      <c r="AP43" t="s">
         <v>261</v>
       </c>
-      <c r="AV43" t="s">
+      <c r="AW43" t="s">
         <v>262</v>
       </c>
-      <c r="AW43" t="s">
+      <c r="AX43" t="s">
         <v>263</v>
       </c>
-      <c r="AY43" t="s">
+      <c r="AZ43" t="s">
         <v>264</v>
       </c>
-      <c r="AZ43" t="s">
+      <c r="BA43" t="s">
         <v>265</v>
       </c>
-      <c r="BA43" t="s">
+      <c r="BB43" t="s">
         <v>266</v>
       </c>
-      <c r="BB43" t="s">
+      <c r="BC43" t="s">
         <v>267</v>
       </c>
-      <c r="BD43" t="s">
+      <c r="BE43" t="s">
         <v>200</v>
       </c>
-      <c r="BE43" t="s">
+      <c r="BF43" t="s">
         <v>268</v>
       </c>
-      <c r="BF43" t="s">
+      <c r="BG43" t="s">
         <v>269</v>
       </c>
-      <c r="BH43" t="s">
+      <c r="BI43" t="s">
         <v>203</v>
       </c>
-      <c r="BI43" t="s">
+      <c r="BJ43" t="s">
         <v>270</v>
       </c>
-      <c r="BJ43" t="s">
+      <c r="BK43" t="s">
         <v>271</v>
       </c>
-      <c r="BK43" t="s">
+      <c r="BL43" t="s">
         <v>272</v>
       </c>
-      <c r="BO43" t="s">
+      <c r="BP43" t="s">
         <v>273</v>
       </c>
-      <c r="BP43" t="s">
+      <c r="BQ43" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -6349,34 +6544,37 @@
         <v>252</v>
       </c>
       <c r="K44" t="s">
+        <v>336</v>
+      </c>
+      <c r="L44" t="s">
         <v>277</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>253</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>186</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>301</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>302</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AC44" t="s">
         <v>254</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AD44" t="s">
         <v>255</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>143</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AF44" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -6408,55 +6606,58 @@
         <v>289</v>
       </c>
       <c r="K45" t="s">
+        <v>331</v>
+      </c>
+      <c r="L45" t="s">
         <v>325</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>290</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>-999</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>112</v>
-      </c>
-      <c r="R45" t="s">
-        <v>291</v>
       </c>
       <c r="S45" t="s">
         <v>291</v>
       </c>
       <c r="T45" t="s">
+        <v>291</v>
+      </c>
+      <c r="U45" t="s">
         <v>292</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>293</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>294</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>295</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>296</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>297</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>298</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AD45" t="s">
         <v>327</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AF45" t="s">
         <v>299</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AG45" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -6488,55 +6689,58 @@
         <v>289</v>
       </c>
       <c r="K46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" t="s">
         <v>325</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>290</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>-999</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>112</v>
-      </c>
-      <c r="R46" t="s">
-        <v>291</v>
       </c>
       <c r="S46" t="s">
         <v>291</v>
       </c>
       <c r="T46" t="s">
+        <v>291</v>
+      </c>
+      <c r="U46" t="s">
         <v>292</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>293</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>294</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>295</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>296</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>297</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>298</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AD46" t="s">
         <v>327</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
         <v>299</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AG46" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -6568,120 +6772,123 @@
         <v>289</v>
       </c>
       <c r="K47" t="s">
+        <v>331</v>
+      </c>
+      <c r="L47" t="s">
         <v>326</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>290</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>-999</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>1E-4</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>185</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>112</v>
-      </c>
-      <c r="R47" t="s">
-        <v>291</v>
       </c>
       <c r="S47" t="s">
         <v>291</v>
       </c>
       <c r="T47" t="s">
+        <v>291</v>
+      </c>
+      <c r="U47" t="s">
         <v>292</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>293</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>294</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>295</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>296</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>297</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>298</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AI47" t="s">
         <v>306</v>
       </c>
-      <c r="AJ47" t="s">
+      <c r="AK47" t="s">
         <v>307</v>
       </c>
-      <c r="AK47" t="s">
+      <c r="AL47" t="s">
         <v>308</v>
       </c>
-      <c r="AL47" t="s">
+      <c r="AM47" t="s">
         <v>309</v>
       </c>
-      <c r="AO47" t="s">
+      <c r="AP47" t="s">
         <v>310</v>
       </c>
-      <c r="AP47" t="s">
+      <c r="AQ47" t="s">
         <v>311</v>
       </c>
-      <c r="AS47" t="s">
+      <c r="AT47" t="s">
         <v>324</v>
       </c>
-      <c r="AU47" t="s">
+      <c r="AV47" t="s">
         <v>323</v>
       </c>
-      <c r="AW47" t="s">
+      <c r="AX47" t="s">
         <v>312</v>
       </c>
-      <c r="AY47" t="s">
+      <c r="AZ47" t="s">
         <v>313</v>
       </c>
-      <c r="AZ47" t="s">
+      <c r="BA47" t="s">
         <v>314</v>
       </c>
-      <c r="BA47" t="s">
+      <c r="BB47" t="s">
         <v>315</v>
       </c>
-      <c r="BB47" t="s">
+      <c r="BC47" t="s">
         <v>82</v>
       </c>
-      <c r="BC47" t="s">
+      <c r="BD47" t="s">
         <v>316</v>
       </c>
-      <c r="BD47" t="s">
+      <c r="BE47" t="s">
         <v>317</v>
       </c>
-      <c r="BE47" t="s">
+      <c r="BF47" t="s">
         <v>201</v>
       </c>
-      <c r="BF47" t="s">
+      <c r="BG47" t="s">
         <v>202</v>
       </c>
-      <c r="BH47" t="s">
+      <c r="BI47" t="s">
         <v>318</v>
       </c>
-      <c r="BM47" t="s">
+      <c r="BN47" t="s">
         <v>319</v>
       </c>
-      <c r="BN47" t="s">
+      <c r="BO47" t="s">
         <v>320</v>
       </c>
-      <c r="BO47" t="s">
+      <c r="BP47" t="s">
         <v>321</v>
       </c>
-      <c r="BP47" t="s">
+      <c r="BQ47" t="s">
         <v>322</v>
       </c>
-      <c r="BS47" t="s">
+      <c r="BT47" t="s">
         <v>99</v>
       </c>
-      <c r="BT47" t="s">
+      <c r="BU47" t="s">
         <v>100</v>
       </c>
     </row>

--- a/product_data/processing_metadata/C4/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C4/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{44D4C86A-6D31-46FF-96E9-7CB5DA15733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC9950D5-B319-4671-9CF0-32E3BD0E8512}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{44D4C86A-6D31-46FF-96E9-7CB5DA15733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD45F028-DE3A-4C4E-A621-7E23E43D623C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69322DFE-E2CA-486C-AA5E-7CF334D8D225}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69322DFE-E2CA-486C-AA5E-7CF334D8D225}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="339">
   <si>
     <t>33LG20110101</t>
   </si>
@@ -588,9 +588,6 @@
     <t>10.4225/15/5214439081269</t>
   </si>
   <si>
-    <t>Wright_etal_1992</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -669,63 +666,42 @@
     <t>10.4225/15/521449B6B8AE0</t>
   </si>
   <si>
-    <t>Wright_etal_1993</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20030219</t>
   </si>
   <si>
     <t>10.4225/15/5214565920010</t>
   </si>
   <si>
-    <t>Wright_etal_1994</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20031021</t>
   </si>
   <si>
     <t>10.4225/15/52145994425BF</t>
   </si>
   <si>
-    <t>Wright_etal_1995</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20031205</t>
   </si>
   <si>
     <t>10.4225/15/52145FA66AF8A</t>
   </si>
   <si>
-    <t>Wright_etal_1996</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20040106</t>
   </si>
   <si>
     <t>10.4225/15/5215A350CF51B</t>
   </si>
   <si>
-    <t>Wright_etal_1997</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20040218</t>
   </si>
   <si>
     <t>10.4225/15/5215A7F3124D6</t>
   </si>
   <si>
-    <t>Wright_etal_1998</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20041019</t>
   </si>
   <si>
     <t>10.4225/15/5215AF880C5E4</t>
   </si>
   <si>
-    <t>Wright_etal_1999</t>
-  </si>
-  <si>
     <t>Date(UTC)</t>
   </si>
   <si>
@@ -747,9 +723,6 @@
     <t>10.4225/15/5216E3A703643</t>
   </si>
   <si>
-    <t>Wright_etal_2000</t>
-  </si>
-  <si>
     <t>alpha-carot</t>
   </si>
   <si>
@@ -762,27 +735,18 @@
     <t>10.4225/15/521AB4A7693BD</t>
   </si>
   <si>
-    <t>Wright_etal_2001</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20060217</t>
   </si>
   <si>
     <t>10.4225/15/521ABAA06322A</t>
   </si>
   <si>
-    <t>Wright_etal_2002</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/AADC/HPLC/353L20061020</t>
   </si>
   <si>
     <t>10.4225/15/521BE0CB374A3</t>
   </si>
   <si>
-    <t>Wright_etal_2003</t>
-  </si>
-  <si>
     <t>E:/Data_downloads/JGOFS/33RR19971202/HPLC_pigments</t>
   </si>
   <si>
@@ -1084,16 +1048,25 @@
   </si>
   <si>
     <t>353L20061020_pig</t>
+  </si>
+  <si>
+    <t>BCO-DMO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1437,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3EC7E7-D61A-4686-AF29-9DAA74ADE754}">
   <dimension ref="A1:BV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1475,7 +1448,7 @@
         <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L1" t="s">
         <v>39</v>
@@ -1699,37 +1672,37 @@
         <v>183</v>
       </c>
       <c r="K2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="L2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" t="s">
         <v>184</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>185</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>186</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>187</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>188</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>189</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>190</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>191</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>192</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>193</v>
       </c>
       <c r="AB2" t="s">
         <v>118</v>
@@ -1741,10 +1714,10 @@
         <v>65</v>
       </c>
       <c r="AM2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO2" t="s">
         <v>194</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>195</v>
       </c>
       <c r="AP2" t="s">
         <v>69</v>
@@ -1762,46 +1735,46 @@
         <v>78</v>
       </c>
       <c r="AZ2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA2" t="s">
         <v>196</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>197</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>198</v>
       </c>
       <c r="BC2" t="s">
         <v>153</v>
       </c>
       <c r="BD2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE2" t="s">
         <v>199</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>200</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>201</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>202</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>203</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BO2" t="s">
         <v>204</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>205</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>206</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BU2" t="s">
         <v>207</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:74" x14ac:dyDescent="0.35">
@@ -1809,7 +1782,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
         <v>104</v>
@@ -1833,40 +1806,40 @@
         <v>182</v>
       </c>
       <c r="J3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K3" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L3" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="P3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" t="s">
         <v>185</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>186</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>187</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>188</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>189</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>190</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>191</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>192</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>193</v>
       </c>
       <c r="AB3" t="s">
         <v>118</v>
@@ -1878,10 +1851,10 @@
         <v>65</v>
       </c>
       <c r="AM3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO3" t="s">
         <v>194</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>195</v>
       </c>
       <c r="AP3" t="s">
         <v>69</v>
@@ -1899,46 +1872,46 @@
         <v>78</v>
       </c>
       <c r="AZ3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA3" t="s">
         <v>196</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>197</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>198</v>
       </c>
       <c r="BC3" t="s">
         <v>153</v>
       </c>
       <c r="BD3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE3" t="s">
         <v>199</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>200</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>201</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BI3" t="s">
         <v>202</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BK3" t="s">
         <v>203</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BO3" t="s">
         <v>204</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>205</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>206</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BU3" t="s">
         <v>207</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.35">
@@ -1946,7 +1919,7 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" t="s">
         <v>104</v>
@@ -1970,40 +1943,40 @@
         <v>182</v>
       </c>
       <c r="J4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K4" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="L4" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="P4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" t="s">
         <v>185</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>186</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>187</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>188</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>189</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>190</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>191</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>192</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>193</v>
       </c>
       <c r="AB4" t="s">
         <v>118</v>
@@ -2015,10 +1988,10 @@
         <v>65</v>
       </c>
       <c r="AM4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO4" t="s">
         <v>194</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>195</v>
       </c>
       <c r="AP4" t="s">
         <v>69</v>
@@ -2036,46 +2009,46 @@
         <v>78</v>
       </c>
       <c r="AZ4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA4" t="s">
         <v>196</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>197</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>198</v>
       </c>
       <c r="BC4" t="s">
         <v>153</v>
       </c>
       <c r="BD4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE4" t="s">
         <v>199</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>200</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>201</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BI4" t="s">
         <v>202</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BK4" t="s">
         <v>203</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BO4" t="s">
         <v>204</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>205</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>206</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BU4" t="s">
         <v>207</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.35">
@@ -2083,7 +2056,7 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
@@ -2107,40 +2080,40 @@
         <v>182</v>
       </c>
       <c r="J5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="L5" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="P5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" t="s">
         <v>185</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="U5" t="s">
         <v>186</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>187</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>188</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>189</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>190</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>191</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>192</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>193</v>
       </c>
       <c r="AB5" t="s">
         <v>118</v>
@@ -2152,10 +2125,10 @@
         <v>65</v>
       </c>
       <c r="AM5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO5" t="s">
         <v>194</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>195</v>
       </c>
       <c r="AP5" t="s">
         <v>69</v>
@@ -2173,46 +2146,46 @@
         <v>78</v>
       </c>
       <c r="AZ5" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA5" t="s">
         <v>196</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>197</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>198</v>
       </c>
       <c r="BC5" t="s">
         <v>153</v>
       </c>
       <c r="BD5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE5" t="s">
         <v>199</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>200</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>201</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BI5" t="s">
         <v>202</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BK5" t="s">
         <v>203</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BO5" t="s">
         <v>204</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>205</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BQ5" t="s">
         <v>206</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BU5" t="s">
         <v>207</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.35">
@@ -2220,7 +2193,7 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -2244,40 +2217,40 @@
         <v>182</v>
       </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K6" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="L6" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" t="s">
         <v>185</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
         <v>186</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>187</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>188</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>189</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>190</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>191</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>192</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>193</v>
       </c>
       <c r="AB6" t="s">
         <v>118</v>
@@ -2289,10 +2262,10 @@
         <v>65</v>
       </c>
       <c r="AM6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO6" t="s">
         <v>194</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>195</v>
       </c>
       <c r="AP6" t="s">
         <v>69</v>
@@ -2310,46 +2283,46 @@
         <v>78</v>
       </c>
       <c r="AZ6" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA6" t="s">
         <v>196</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>197</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>198</v>
       </c>
       <c r="BC6" t="s">
         <v>153</v>
       </c>
       <c r="BD6" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE6" t="s">
         <v>199</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>200</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6" t="s">
         <v>201</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BI6" t="s">
         <v>202</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BK6" t="s">
         <v>203</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BO6" t="s">
         <v>204</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BP6" t="s">
         <v>205</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BQ6" t="s">
         <v>206</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BU6" t="s">
         <v>207</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:74" x14ac:dyDescent="0.35">
@@ -2357,7 +2330,7 @@
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
@@ -2381,40 +2354,40 @@
         <v>182</v>
       </c>
       <c r="J7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L7" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="P7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" t="s">
         <v>185</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="U7" t="s">
         <v>186</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>187</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>188</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>189</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>190</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>191</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>192</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>193</v>
       </c>
       <c r="AB7" t="s">
         <v>118</v>
@@ -2426,10 +2399,10 @@
         <v>65</v>
       </c>
       <c r="AM7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO7" t="s">
         <v>194</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>195</v>
       </c>
       <c r="AP7" t="s">
         <v>69</v>
@@ -2447,46 +2420,46 @@
         <v>78</v>
       </c>
       <c r="AZ7" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA7" t="s">
         <v>196</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>197</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>198</v>
       </c>
       <c r="BC7" t="s">
         <v>153</v>
       </c>
       <c r="BD7" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE7" t="s">
         <v>199</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>200</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>201</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BI7" t="s">
         <v>202</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BK7" t="s">
         <v>203</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BO7" t="s">
         <v>204</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BP7" t="s">
         <v>205</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BQ7" t="s">
         <v>206</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BU7" t="s">
         <v>207</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:74" x14ac:dyDescent="0.35">
@@ -2494,7 +2467,7 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
@@ -2518,40 +2491,40 @@
         <v>182</v>
       </c>
       <c r="J8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K8" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L8" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="P8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" t="s">
         <v>185</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="U8" t="s">
         <v>186</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>187</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>188</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>189</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>190</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>191</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>192</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>193</v>
       </c>
       <c r="AB8" t="s">
         <v>118</v>
@@ -2563,10 +2536,10 @@
         <v>65</v>
       </c>
       <c r="AM8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO8" t="s">
         <v>194</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>195</v>
       </c>
       <c r="AP8" t="s">
         <v>69</v>
@@ -2584,46 +2557,46 @@
         <v>78</v>
       </c>
       <c r="AZ8" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA8" t="s">
         <v>196</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>197</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>198</v>
       </c>
       <c r="BC8" t="s">
         <v>153</v>
       </c>
       <c r="BD8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE8" t="s">
         <v>199</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>200</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>201</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BI8" t="s">
         <v>202</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BK8" t="s">
         <v>203</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BO8" t="s">
         <v>204</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BP8" t="s">
         <v>205</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BQ8" t="s">
         <v>206</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BU8" t="s">
         <v>207</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:74" x14ac:dyDescent="0.35">
@@ -2631,7 +2604,7 @@
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
@@ -2655,40 +2628,40 @@
         <v>182</v>
       </c>
       <c r="J9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K9" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L9" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="P9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" t="s">
         <v>185</v>
       </c>
-      <c r="Q9" t="s">
-        <v>186</v>
-      </c>
       <c r="U9" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="V9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="X9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Y9" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z9" t="s">
         <v>191</v>
       </c>
-      <c r="Z9" t="s">
-        <v>192</v>
-      </c>
       <c r="AA9" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AB9" t="s">
         <v>118</v>
@@ -2697,7 +2670,7 @@
         <v>143</v>
       </c>
       <c r="AL9" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:74" x14ac:dyDescent="0.35">
@@ -2705,7 +2678,7 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
@@ -2729,40 +2702,40 @@
         <v>182</v>
       </c>
       <c r="J10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K10" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="L10" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" t="s">
         <v>185</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="U10" t="s">
         <v>186</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>187</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>188</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>189</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>190</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>192</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>193</v>
       </c>
       <c r="AB10" t="s">
         <v>118</v>
@@ -2774,10 +2747,10 @@
         <v>65</v>
       </c>
       <c r="AM10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO10" t="s">
         <v>194</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>195</v>
       </c>
       <c r="AP10" t="s">
         <v>69</v>
@@ -2795,52 +2768,52 @@
         <v>78</v>
       </c>
       <c r="AZ10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA10" t="s">
         <v>196</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>197</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>198</v>
       </c>
       <c r="BC10" t="s">
         <v>153</v>
       </c>
       <c r="BD10" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE10" t="s">
         <v>199</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>200</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>201</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BI10" t="s">
         <v>202</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK10" t="s">
         <v>203</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO10" t="s">
         <v>204</v>
       </c>
-      <c r="BL10" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO10" t="s">
+      <c r="BP10" t="s">
         <v>205</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BQ10" t="s">
         <v>206</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BU10" t="s">
         <v>207</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:74" x14ac:dyDescent="0.35">
@@ -2848,7 +2821,7 @@
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
@@ -2872,40 +2845,40 @@
         <v>182</v>
       </c>
       <c r="J11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K11" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="L11" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="P11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" t="s">
         <v>185</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="U11" t="s">
         <v>186</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>187</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>188</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>189</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>190</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>191</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>192</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>193</v>
       </c>
       <c r="AB11" t="s">
         <v>118</v>
@@ -2917,10 +2890,10 @@
         <v>65</v>
       </c>
       <c r="AM11" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO11" t="s">
         <v>194</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>195</v>
       </c>
       <c r="AP11" t="s">
         <v>69</v>
@@ -2938,52 +2911,52 @@
         <v>78</v>
       </c>
       <c r="AZ11" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA11" t="s">
         <v>196</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BB11" t="s">
         <v>197</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>198</v>
       </c>
       <c r="BC11" t="s">
         <v>153</v>
       </c>
       <c r="BD11" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE11" t="s">
         <v>199</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BF11" t="s">
         <v>200</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BG11" t="s">
         <v>201</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BI11" t="s">
         <v>202</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK11" t="s">
         <v>203</v>
       </c>
-      <c r="BJ11" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK11" t="s">
+      <c r="BL11" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO11" t="s">
         <v>204</v>
       </c>
-      <c r="BL11" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO11" t="s">
+      <c r="BP11" t="s">
         <v>205</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BQ11" t="s">
         <v>206</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BU11" t="s">
         <v>207</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:74" x14ac:dyDescent="0.35">
@@ -2991,7 +2964,7 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -3015,40 +2988,40 @@
         <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="K12" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="L12" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="P12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" t="s">
         <v>185</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="U12" t="s">
         <v>186</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>187</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>188</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>189</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>190</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>191</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>193</v>
       </c>
       <c r="AB12" t="s">
         <v>118</v>
@@ -3060,10 +3033,10 @@
         <v>65</v>
       </c>
       <c r="AM12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO12" t="s">
         <v>194</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>195</v>
       </c>
       <c r="AP12" t="s">
         <v>69</v>
@@ -3081,52 +3054,52 @@
         <v>78</v>
       </c>
       <c r="AZ12" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA12" t="s">
         <v>196</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BB12" t="s">
         <v>197</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>198</v>
       </c>
       <c r="BC12" t="s">
         <v>153</v>
       </c>
       <c r="BD12" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE12" t="s">
         <v>199</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>200</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BG12" t="s">
         <v>201</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BI12" t="s">
         <v>202</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK12" t="s">
         <v>203</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK12" t="s">
+      <c r="BL12" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO12" t="s">
         <v>204</v>
       </c>
-      <c r="BL12" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO12" t="s">
+      <c r="BP12" t="s">
         <v>205</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BQ12" t="s">
         <v>206</v>
       </c>
-      <c r="BQ12" t="s">
+      <c r="BU12" t="s">
         <v>207</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:74" x14ac:dyDescent="0.35">
@@ -3134,7 +3107,7 @@
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
         <v>104</v>
@@ -3158,40 +3131,40 @@
         <v>182</v>
       </c>
       <c r="J13" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K13" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L13" t="s">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="P13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" t="s">
         <v>185</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="U13" t="s">
         <v>186</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>187</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>188</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>189</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>190</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>191</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>192</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>193</v>
       </c>
       <c r="AB13" t="s">
         <v>118</v>
@@ -3203,10 +3176,10 @@
         <v>65</v>
       </c>
       <c r="AM13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO13" t="s">
         <v>194</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>195</v>
       </c>
       <c r="AP13" t="s">
         <v>69</v>
@@ -3224,52 +3197,52 @@
         <v>78</v>
       </c>
       <c r="AZ13" t="s">
+        <v>195</v>
+      </c>
+      <c r="BA13" t="s">
         <v>196</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BB13" t="s">
         <v>197</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>198</v>
       </c>
       <c r="BC13" t="s">
         <v>153</v>
       </c>
       <c r="BD13" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE13" t="s">
         <v>199</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>200</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BG13" t="s">
         <v>201</v>
       </c>
-      <c r="BG13" t="s">
+      <c r="BI13" t="s">
         <v>202</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
+        <v>229</v>
+      </c>
+      <c r="BK13" t="s">
         <v>203</v>
       </c>
-      <c r="BJ13" t="s">
-        <v>238</v>
-      </c>
-      <c r="BK13" t="s">
+      <c r="BL13" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO13" t="s">
         <v>204</v>
       </c>
-      <c r="BL13" t="s">
-        <v>239</v>
-      </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
         <v>205</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BQ13" t="s">
         <v>206</v>
       </c>
-      <c r="BQ13" t="s">
+      <c r="BU13" t="s">
         <v>207</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:74" x14ac:dyDescent="0.35">
@@ -3301,7 +3274,7 @@
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L14" t="s">
         <v>110</v>
@@ -3384,7 +3357,7 @@
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L15" t="s">
         <v>110</v>
@@ -3467,7 +3440,7 @@
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L16" t="s">
         <v>110</v>
@@ -3550,7 +3523,7 @@
         <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L17" t="s">
         <v>110</v>
@@ -3633,7 +3606,7 @@
         <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L18" t="s">
         <v>110</v>
@@ -3716,7 +3689,7 @@
         <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L19" t="s">
         <v>110</v>
@@ -3799,7 +3772,7 @@
         <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L20" t="s">
         <v>110</v>
@@ -3882,7 +3855,7 @@
         <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L21" t="s">
         <v>110</v>
@@ -3965,7 +3938,7 @@
         <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L22" t="s">
         <v>110</v>
@@ -4048,7 +4021,7 @@
         <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L23" t="s">
         <v>110</v>
@@ -4131,7 +4104,7 @@
         <v>109</v>
       </c>
       <c r="K24" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L24" t="s">
         <v>110</v>
@@ -4214,7 +4187,7 @@
         <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L25" t="s">
         <v>110</v>
@@ -4297,7 +4270,7 @@
         <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L26" t="s">
         <v>110</v>
@@ -4380,7 +4353,7 @@
         <v>140</v>
       </c>
       <c r="K27" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L27" t="s">
         <v>141</v>
@@ -4523,7 +4496,7 @@
         <v>140</v>
       </c>
       <c r="K28" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L28" t="s">
         <v>141</v>
@@ -4666,7 +4639,7 @@
         <v>140</v>
       </c>
       <c r="K29" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L29" t="s">
         <v>141</v>
@@ -4809,7 +4782,7 @@
         <v>140</v>
       </c>
       <c r="K30" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s">
         <v>141</v>
@@ -4952,7 +4925,7 @@
         <v>140</v>
       </c>
       <c r="K31" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s">
         <v>141</v>
@@ -5095,7 +5068,7 @@
         <v>140</v>
       </c>
       <c r="K32" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L32" t="s">
         <v>141</v>
@@ -5238,7 +5211,7 @@
         <v>140</v>
       </c>
       <c r="K33" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L33" t="s">
         <v>141</v>
@@ -5381,7 +5354,7 @@
         <v>140</v>
       </c>
       <c r="K34" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s">
         <v>141</v>
@@ -5524,7 +5497,7 @@
         <v>140</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
         <v>141</v>
@@ -5667,7 +5640,7 @@
         <v>140</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s">
         <v>141</v>
@@ -5810,7 +5783,7 @@
         <v>140</v>
       </c>
       <c r="K37" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
         <v>141</v>
@@ -5953,7 +5926,7 @@
         <v>140</v>
       </c>
       <c r="K38" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s">
         <v>141</v>
@@ -6072,13 +6045,13 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C39" t="s">
         <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -6087,97 +6060,97 @@
         <v>106</v>
       </c>
       <c r="G39" t="s">
+        <v>239</v>
+      </c>
+      <c r="I39" t="s">
+        <v>240</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>238</v>
+      </c>
+      <c r="N39" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>185</v>
+      </c>
+      <c r="S39" t="s">
+        <v>289</v>
+      </c>
+      <c r="T39" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX39" t="s">
         <v>251</v>
       </c>
-      <c r="I39" t="s">
+      <c r="AZ39" t="s">
         <v>252</v>
       </c>
-      <c r="K39" t="s">
-        <v>332</v>
-      </c>
-      <c r="L39" t="s">
-        <v>250</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="BA39" t="s">
         <v>253</v>
       </c>
-      <c r="Q39" t="s">
-        <v>186</v>
-      </c>
-      <c r="S39" t="s">
-        <v>301</v>
-      </c>
-      <c r="T39" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC39" t="s">
+      <c r="BB39" t="s">
         <v>254</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="BC39" t="s">
         <v>255</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="BE39" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF39" t="s">
         <v>256</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="BG39" t="s">
         <v>257</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="BI39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ39" t="s">
         <v>258</v>
       </c>
-      <c r="AM39" t="s">
+      <c r="BK39" t="s">
         <v>259</v>
       </c>
-      <c r="AO39" t="s">
+      <c r="BL39" t="s">
         <v>260</v>
       </c>
-      <c r="AP39" t="s">
+      <c r="BP39" t="s">
         <v>261</v>
       </c>
-      <c r="AW39" t="s">
+      <c r="BQ39" t="s">
         <v>262</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>263</v>
-      </c>
-      <c r="AZ39" t="s">
-        <v>264</v>
-      </c>
-      <c r="BA39" t="s">
-        <v>265</v>
-      </c>
-      <c r="BB39" t="s">
-        <v>266</v>
-      </c>
-      <c r="BC39" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE39" t="s">
-        <v>200</v>
-      </c>
-      <c r="BF39" t="s">
-        <v>268</v>
-      </c>
-      <c r="BG39" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI39" t="s">
-        <v>203</v>
-      </c>
-      <c r="BJ39" t="s">
-        <v>270</v>
-      </c>
-      <c r="BK39" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL39" t="s">
-        <v>272</v>
-      </c>
-      <c r="BP39" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ39" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:73" x14ac:dyDescent="0.35">
@@ -6185,13 +6158,13 @@
         <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C40" t="s">
         <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -6200,40 +6173,40 @@
         <v>106</v>
       </c>
       <c r="G40" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I40" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K40" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="N40" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="Q40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S40" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="T40" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AC40" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AD40" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AE40" t="s">
         <v>143</v>
       </c>
       <c r="AF40" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:73" x14ac:dyDescent="0.35">
@@ -6241,13 +6214,13 @@
         <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C41" t="s">
         <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -6256,97 +6229,97 @@
         <v>106</v>
       </c>
       <c r="G41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I41" t="s">
+        <v>240</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>238</v>
+      </c>
+      <c r="N41" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>185</v>
+      </c>
+      <c r="S41" t="s">
+        <v>289</v>
+      </c>
+      <c r="T41" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX41" t="s">
         <v>251</v>
       </c>
-      <c r="I41" t="s">
+      <c r="AZ41" t="s">
         <v>252</v>
       </c>
-      <c r="K41" t="s">
-        <v>334</v>
-      </c>
-      <c r="L41" t="s">
-        <v>250</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="BA41" t="s">
         <v>253</v>
       </c>
-      <c r="Q41" t="s">
-        <v>186</v>
-      </c>
-      <c r="S41" t="s">
-        <v>301</v>
-      </c>
-      <c r="T41" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC41" t="s">
+      <c r="BB41" t="s">
         <v>254</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="BC41" t="s">
         <v>255</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="BE41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF41" t="s">
         <v>256</v>
       </c>
-      <c r="AI41" t="s">
+      <c r="BG41" t="s">
         <v>257</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="BI41" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ41" t="s">
         <v>258</v>
       </c>
-      <c r="AM41" t="s">
+      <c r="BK41" t="s">
         <v>259</v>
       </c>
-      <c r="AO41" t="s">
+      <c r="BL41" t="s">
         <v>260</v>
       </c>
-      <c r="AP41" t="s">
+      <c r="BP41" t="s">
         <v>261</v>
       </c>
-      <c r="AW41" t="s">
+      <c r="BQ41" t="s">
         <v>262</v>
-      </c>
-      <c r="AX41" t="s">
-        <v>263</v>
-      </c>
-      <c r="AZ41" t="s">
-        <v>264</v>
-      </c>
-      <c r="BA41" t="s">
-        <v>265</v>
-      </c>
-      <c r="BB41" t="s">
-        <v>266</v>
-      </c>
-      <c r="BC41" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE41" t="s">
-        <v>200</v>
-      </c>
-      <c r="BF41" t="s">
-        <v>268</v>
-      </c>
-      <c r="BG41" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI41" t="s">
-        <v>203</v>
-      </c>
-      <c r="BJ41" t="s">
-        <v>270</v>
-      </c>
-      <c r="BK41" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL41" t="s">
-        <v>272</v>
-      </c>
-      <c r="BP41" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ41" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:73" x14ac:dyDescent="0.35">
@@ -6354,13 +6327,13 @@
         <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C42" t="s">
         <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -6369,40 +6342,40 @@
         <v>106</v>
       </c>
       <c r="G42" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I42" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K42" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L42" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="N42" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="Q42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S42" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="T42" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AC42" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AD42" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AE42" t="s">
         <v>143</v>
       </c>
       <c r="AF42" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:73" x14ac:dyDescent="0.35">
@@ -6410,13 +6383,13 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
         <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
@@ -6425,97 +6398,97 @@
         <v>106</v>
       </c>
       <c r="G43" t="s">
+        <v>239</v>
+      </c>
+      <c r="I43" t="s">
+        <v>240</v>
+      </c>
+      <c r="K43" t="s">
+        <v>323</v>
+      </c>
+      <c r="L43" t="s">
+        <v>238</v>
+      </c>
+      <c r="N43" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>185</v>
+      </c>
+      <c r="S43" t="s">
+        <v>289</v>
+      </c>
+      <c r="T43" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX43" t="s">
         <v>251</v>
       </c>
-      <c r="I43" t="s">
+      <c r="AZ43" t="s">
         <v>252</v>
       </c>
-      <c r="K43" t="s">
-        <v>335</v>
-      </c>
-      <c r="L43" t="s">
-        <v>250</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="BA43" t="s">
         <v>253</v>
       </c>
-      <c r="Q43" t="s">
-        <v>186</v>
-      </c>
-      <c r="S43" t="s">
-        <v>301</v>
-      </c>
-      <c r="T43" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC43" t="s">
+      <c r="BB43" t="s">
         <v>254</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="BC43" t="s">
         <v>255</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="BE43" t="s">
+        <v>199</v>
+      </c>
+      <c r="BF43" t="s">
         <v>256</v>
       </c>
-      <c r="AI43" t="s">
+      <c r="BG43" t="s">
         <v>257</v>
       </c>
-      <c r="AL43" t="s">
+      <c r="BI43" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ43" t="s">
         <v>258</v>
       </c>
-      <c r="AM43" t="s">
+      <c r="BK43" t="s">
         <v>259</v>
       </c>
-      <c r="AO43" t="s">
+      <c r="BL43" t="s">
         <v>260</v>
       </c>
-      <c r="AP43" t="s">
+      <c r="BP43" t="s">
         <v>261</v>
       </c>
-      <c r="AW43" t="s">
+      <c r="BQ43" t="s">
         <v>262</v>
-      </c>
-      <c r="AX43" t="s">
-        <v>263</v>
-      </c>
-      <c r="AZ43" t="s">
-        <v>264</v>
-      </c>
-      <c r="BA43" t="s">
-        <v>265</v>
-      </c>
-      <c r="BB43" t="s">
-        <v>266</v>
-      </c>
-      <c r="BC43" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE43" t="s">
-        <v>200</v>
-      </c>
-      <c r="BF43" t="s">
-        <v>268</v>
-      </c>
-      <c r="BG43" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI43" t="s">
-        <v>203</v>
-      </c>
-      <c r="BJ43" t="s">
-        <v>270</v>
-      </c>
-      <c r="BK43" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL43" t="s">
-        <v>272</v>
-      </c>
-      <c r="BP43" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ43" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:73" x14ac:dyDescent="0.35">
@@ -6523,13 +6496,13 @@
         <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C44" t="s">
         <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>250</v>
+        <v>338</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -6538,40 +6511,40 @@
         <v>106</v>
       </c>
       <c r="G44" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K44" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="L44" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="N44" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="Q44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S44" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="T44" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="AC44" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AD44" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AE44" t="s">
         <v>143</v>
       </c>
       <c r="AF44" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:73" x14ac:dyDescent="0.35">
@@ -6579,13 +6552,13 @@
         <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D45" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -6594,25 +6567,25 @@
         <v>106</v>
       </c>
       <c r="G45" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="H45" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I45" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="J45" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="K45" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L45" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="N45">
         <v>-999</v>
@@ -6621,40 +6594,40 @@
         <v>112</v>
       </c>
       <c r="S45" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="T45" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="U45" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="V45" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="W45" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="X45" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="Z45" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="AA45" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AB45" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AD45" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AG45" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:73" x14ac:dyDescent="0.35">
@@ -6662,40 +6635,40 @@
         <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C46" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D46" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F46" t="s">
         <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="H46" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I46" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="J46" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="K46" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L46" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M46" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="N46">
         <v>-999</v>
@@ -6704,40 +6677,40 @@
         <v>112</v>
       </c>
       <c r="S46" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="T46" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="U46" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="V46" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="W46" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="X46" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="Z46" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="AA46" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="AB46" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="AD46" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="AF46" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AG46" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:73" x14ac:dyDescent="0.35">
@@ -6745,40 +6718,40 @@
         <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C47" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D47" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F47" t="s">
         <v>106</v>
       </c>
       <c r="G47" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="H47" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="I47" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="J47" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="K47" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="L47" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M47" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="N47">
         <v>-999</v>
@@ -6787,103 +6760,103 @@
         <v>1E-4</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q47" t="s">
         <v>112</v>
       </c>
       <c r="S47" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="T47" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="U47" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="V47" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="W47" t="s">
+        <v>282</v>
+      </c>
+      <c r="X47" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>286</v>
+      </c>
+      <c r="AI47" t="s">
         <v>294</v>
       </c>
-      <c r="X47" t="s">
+      <c r="AK47" t="s">
         <v>295</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AL47" t="s">
         <v>296</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AM47" t="s">
         <v>297</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AP47" t="s">
         <v>298</v>
       </c>
-      <c r="AI47" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>307</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>308</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>309</v>
-      </c>
-      <c r="AP47" t="s">
-        <v>310</v>
-      </c>
       <c r="AQ47" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV47" t="s">
         <v>311</v>
       </c>
-      <c r="AT47" t="s">
-        <v>324</v>
-      </c>
-      <c r="AV47" t="s">
-        <v>323</v>
-      </c>
       <c r="AX47" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="AZ47" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="BA47" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="BB47" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="BC47" t="s">
         <v>82</v>
       </c>
       <c r="BD47" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="BE47" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="BF47" t="s">
+        <v>200</v>
+      </c>
+      <c r="BG47" t="s">
         <v>201</v>
       </c>
-      <c r="BG47" t="s">
-        <v>202</v>
-      </c>
       <c r="BI47" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="BN47" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="BO47" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="BP47" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="BQ47" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="BT47" t="s">
         <v>99</v>
@@ -6893,6 +6866,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/product_data/processing_metadata/C4/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C4/PIG_meta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{44D4C86A-6D31-46FF-96E9-7CB5DA15733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD45F028-DE3A-4C4E-A621-7E23E43D623C}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{44D4C86A-6D31-46FF-96E9-7CB5DA15733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDB21EA1-FD79-4285-8344-A359DE7E5780}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69322DFE-E2CA-486C-AA5E-7CF334D8D225}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="341">
   <si>
     <t>33LG20110101</t>
   </si>
@@ -459,9 +459,6 @@
     <t>10.6073/pasta/4d583713667a0f52b9d2937a26d0d82e</t>
   </si>
   <si>
-    <t>Wright_etal_1991</t>
-  </si>
-  <si>
     <t>Cast-uw</t>
   </si>
   <si>
@@ -831,9 +828,6 @@
     <t>Walker O. Smith</t>
   </si>
   <si>
-    <t>JGOFS_1994</t>
-  </si>
-  <si>
     <t>chl_a_fluor</t>
   </si>
   <si>
@@ -978,9 +972,6 @@
     <t>Mueller_2003</t>
   </si>
   <si>
-    <t>VanHeukelem _Thomas_2001</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
@@ -1051,6 +1042,21 @@
   </si>
   <si>
     <t>BCO-DMO</t>
+  </si>
+  <si>
+    <t>Wright_1991</t>
+  </si>
+  <si>
+    <t>analysis_type</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>VanHeukelem_Thomas_2001</t>
   </si>
 </sst>
 </file>
@@ -1408,15 +1414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3EC7E7-D61A-4686-AF29-9DAA74ADE754}">
-  <dimension ref="A1:BV47"/>
+  <dimension ref="A1:BW47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1448,210 +1454,213 @@
         <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>61</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>64</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>65</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>68</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>69</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>70</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>71</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>73</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>75</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>76</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>77</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>79</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>80</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>81</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>82</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>83</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>84</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>85</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>86</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>87</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>88</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>89</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>90</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>91</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>92</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>93</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>94</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>95</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>96</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>97</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>98</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>99</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>100</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1660,135 +1669,138 @@
         <v>106</v>
       </c>
       <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>180</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>181</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>182</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L2" t="s">
+        <v>338</v>
+      </c>
+      <c r="M2" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q2" t="s">
         <v>183</v>
       </c>
-      <c r="K2" t="s">
-        <v>326</v>
-      </c>
-      <c r="L2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>185</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>186</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>187</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>188</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>189</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>190</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>191</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN2" t="s">
         <v>192</v>
       </c>
-      <c r="AB2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
         <v>193</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA2" t="s">
         <v>194</v>
       </c>
-      <c r="AP2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>195</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>196</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE2" t="s">
         <v>197</v>
       </c>
-      <c r="BC2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>198</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>199</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>200</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BJ2" t="s">
         <v>201</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BL2" t="s">
         <v>202</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BP2" t="s">
         <v>203</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BQ2" t="s">
         <v>204</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>205</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BV2" t="s">
         <v>206</v>
       </c>
-      <c r="BU2" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
         <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -1797,135 +1809,138 @@
         <v>106</v>
       </c>
       <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>180</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>181</v>
       </c>
-      <c r="I3" t="s">
-        <v>182</v>
-      </c>
       <c r="J3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L3" t="s">
-        <v>141</v>
-      </c>
-      <c r="P3" t="s">
+        <v>338</v>
+      </c>
+      <c r="M3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>183</v>
+      </c>
+      <c r="R3" t="s">
         <v>184</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="V3" t="s">
         <v>185</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>186</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>187</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>188</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>189</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AA3" t="s">
         <v>190</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AB3" t="s">
         <v>191</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN3" t="s">
         <v>192</v>
       </c>
-      <c r="AB3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM3" t="s">
+      <c r="AP3" t="s">
         <v>193</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AQ3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA3" t="s">
         <v>194</v>
       </c>
-      <c r="AP3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ3" t="s">
+      <c r="BB3" t="s">
         <v>195</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BC3" t="s">
         <v>196</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BD3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE3" t="s">
         <v>197</v>
       </c>
-      <c r="BC3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD3" t="s">
+      <c r="BF3" t="s">
         <v>198</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
         <v>199</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BH3" t="s">
         <v>200</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BJ3" t="s">
         <v>201</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BL3" t="s">
         <v>202</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="BP3" t="s">
         <v>203</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BQ3" t="s">
         <v>204</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BR3" t="s">
         <v>205</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BV3" t="s">
         <v>206</v>
       </c>
-      <c r="BU3" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
         <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -1934,135 +1949,138 @@
         <v>106</v>
       </c>
       <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>180</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>181</v>
       </c>
-      <c r="I4" t="s">
-        <v>182</v>
-      </c>
       <c r="J4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L4" t="s">
-        <v>141</v>
-      </c>
-      <c r="P4" t="s">
+        <v>338</v>
+      </c>
+      <c r="M4" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" t="s">
         <v>184</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="V4" t="s">
         <v>185</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>186</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>187</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>188</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>189</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>190</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>191</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN4" t="s">
         <v>192</v>
       </c>
-      <c r="AB4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>193</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA4" t="s">
         <v>194</v>
       </c>
-      <c r="AP4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ4" t="s">
+      <c r="BB4" t="s">
         <v>195</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BC4" t="s">
         <v>196</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BD4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE4" t="s">
         <v>197</v>
       </c>
-      <c r="BC4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD4" t="s">
+      <c r="BF4" t="s">
         <v>198</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BG4" t="s">
         <v>199</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BH4" t="s">
         <v>200</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BJ4" t="s">
         <v>201</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BL4" t="s">
         <v>202</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BP4" t="s">
         <v>203</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BQ4" t="s">
         <v>204</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BR4" t="s">
         <v>205</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BV4" t="s">
         <v>206</v>
       </c>
-      <c r="BU4" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -2071,135 +2089,138 @@
         <v>106</v>
       </c>
       <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" t="s">
         <v>180</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>181</v>
       </c>
-      <c r="I5" t="s">
-        <v>182</v>
-      </c>
       <c r="J5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L5" t="s">
-        <v>141</v>
-      </c>
-      <c r="P5" t="s">
+        <v>338</v>
+      </c>
+      <c r="M5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>183</v>
+      </c>
+      <c r="R5" t="s">
         <v>184</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="V5" t="s">
         <v>185</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>186</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>187</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>188</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>189</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>190</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AB5" t="s">
         <v>191</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AC5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN5" t="s">
         <v>192</v>
       </c>
-      <c r="AB5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM5" t="s">
+      <c r="AP5" t="s">
         <v>193</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AQ5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA5" t="s">
         <v>194</v>
       </c>
-      <c r="AP5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ5" t="s">
+      <c r="BB5" t="s">
         <v>195</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BC5" t="s">
         <v>196</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BD5" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE5" t="s">
         <v>197</v>
       </c>
-      <c r="BC5" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD5" t="s">
+      <c r="BF5" t="s">
         <v>198</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BG5" t="s">
         <v>199</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BH5" t="s">
         <v>200</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BJ5" t="s">
         <v>201</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BL5" t="s">
         <v>202</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BP5" t="s">
         <v>203</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BQ5" t="s">
         <v>204</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BR5" t="s">
         <v>205</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BV5" t="s">
         <v>206</v>
       </c>
-      <c r="BU5" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -2208,135 +2229,138 @@
         <v>106</v>
       </c>
       <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" t="s">
         <v>180</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>181</v>
       </c>
-      <c r="I6" t="s">
-        <v>182</v>
-      </c>
       <c r="J6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L6" t="s">
-        <v>141</v>
-      </c>
-      <c r="P6" t="s">
+        <v>338</v>
+      </c>
+      <c r="M6" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>183</v>
+      </c>
+      <c r="R6" t="s">
         <v>184</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="V6" t="s">
         <v>185</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>186</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>187</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>188</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>189</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>190</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>191</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN6" t="s">
         <v>192</v>
       </c>
-      <c r="AB6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AP6" t="s">
         <v>193</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AQ6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA6" t="s">
         <v>194</v>
       </c>
-      <c r="AP6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="BB6" t="s">
         <v>195</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BC6" t="s">
         <v>196</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BD6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE6" t="s">
         <v>197</v>
       </c>
-      <c r="BC6" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD6" t="s">
+      <c r="BF6" t="s">
         <v>198</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BG6" t="s">
         <v>199</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BH6" t="s">
         <v>200</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BJ6" t="s">
         <v>201</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BL6" t="s">
         <v>202</v>
       </c>
-      <c r="BK6" t="s">
+      <c r="BP6" t="s">
         <v>203</v>
       </c>
-      <c r="BO6" t="s">
+      <c r="BQ6" t="s">
         <v>204</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BR6" t="s">
         <v>205</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BV6" t="s">
         <v>206</v>
       </c>
-      <c r="BU6" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -2345,135 +2369,138 @@
         <v>106</v>
       </c>
       <c r="G7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" t="s">
         <v>180</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>181</v>
       </c>
-      <c r="I7" t="s">
-        <v>182</v>
-      </c>
       <c r="J7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>183</v>
+      </c>
+      <c r="R7" t="s">
         <v>184</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="V7" t="s">
         <v>185</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>186</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>187</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>189</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>190</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>191</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN7" t="s">
         <v>192</v>
       </c>
-      <c r="AB7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM7" t="s">
+      <c r="AP7" t="s">
         <v>193</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AQ7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA7" t="s">
         <v>194</v>
       </c>
-      <c r="AP7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ7" t="s">
+      <c r="BB7" t="s">
         <v>195</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BC7" t="s">
         <v>196</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BD7" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE7" t="s">
         <v>197</v>
       </c>
-      <c r="BC7" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD7" t="s">
+      <c r="BF7" t="s">
         <v>198</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BG7" t="s">
         <v>199</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BH7" t="s">
         <v>200</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BJ7" t="s">
         <v>201</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BL7" t="s">
         <v>202</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BP7" t="s">
         <v>203</v>
       </c>
-      <c r="BO7" t="s">
+      <c r="BQ7" t="s">
         <v>204</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BR7" t="s">
         <v>205</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BV7" t="s">
         <v>206</v>
       </c>
-      <c r="BU7" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -2482,135 +2509,138 @@
         <v>106</v>
       </c>
       <c r="G8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" t="s">
         <v>180</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>181</v>
       </c>
-      <c r="I8" t="s">
-        <v>182</v>
-      </c>
       <c r="J8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L8" t="s">
-        <v>141</v>
-      </c>
-      <c r="P8" t="s">
+        <v>338</v>
+      </c>
+      <c r="M8" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>183</v>
+      </c>
+      <c r="R8" t="s">
         <v>184</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="V8" t="s">
         <v>185</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>186</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>187</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>188</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>190</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
         <v>191</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN8" t="s">
         <v>192</v>
       </c>
-      <c r="AB8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="AP8" t="s">
         <v>193</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AQ8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA8" t="s">
         <v>194</v>
       </c>
-      <c r="AP8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ8" t="s">
+      <c r="BB8" t="s">
         <v>195</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BC8" t="s">
         <v>196</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BD8" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE8" t="s">
         <v>197</v>
       </c>
-      <c r="BC8" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD8" t="s">
+      <c r="BF8" t="s">
         <v>198</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BG8" t="s">
         <v>199</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BH8" t="s">
         <v>200</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BJ8" t="s">
         <v>201</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BL8" t="s">
         <v>202</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BP8" t="s">
         <v>203</v>
       </c>
-      <c r="BO8" t="s">
+      <c r="BQ8" t="s">
         <v>204</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BR8" t="s">
         <v>205</v>
       </c>
-      <c r="BQ8" t="s">
+      <c r="BV8" t="s">
         <v>206</v>
       </c>
-      <c r="BU8" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
         <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -2619,72 +2649,75 @@
         <v>106</v>
       </c>
       <c r="G9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" t="s">
         <v>180</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>181</v>
       </c>
-      <c r="I9" t="s">
-        <v>182</v>
-      </c>
       <c r="J9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" t="s">
+        <v>338</v>
+      </c>
+      <c r="M9" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>183</v>
+      </c>
+      <c r="R9" t="s">
+        <v>184</v>
+      </c>
+      <c r="V9" t="s">
         <v>221</v>
       </c>
-      <c r="K9" t="s">
-        <v>333</v>
-      </c>
-      <c r="L9" t="s">
-        <v>141</v>
-      </c>
-      <c r="P9" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>185</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
+        <v>186</v>
+      </c>
+      <c r="X9" t="s">
         <v>222</v>
       </c>
-      <c r="V9" t="s">
-        <v>187</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>223</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB9" t="s">
         <v>224</v>
       </c>
-      <c r="Y9" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM9" t="s">
         <v>225</v>
       </c>
-      <c r="AB9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>226</v>
-      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -2693,141 +2726,144 @@
         <v>106</v>
       </c>
       <c r="G10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" t="s">
         <v>180</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>181</v>
       </c>
-      <c r="I10" t="s">
-        <v>182</v>
-      </c>
       <c r="J10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K10" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10" t="s">
+        <v>338</v>
+      </c>
+      <c r="M10" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>183</v>
+      </c>
+      <c r="R10" t="s">
+        <v>184</v>
+      </c>
+      <c r="V10" t="s">
+        <v>185</v>
+      </c>
+      <c r="W10" t="s">
+        <v>186</v>
+      </c>
+      <c r="X10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>197</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK10" t="s">
         <v>228</v>
       </c>
-      <c r="K10" t="s">
-        <v>334</v>
-      </c>
-      <c r="L10" t="s">
-        <v>141</v>
-      </c>
-      <c r="P10" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>185</v>
-      </c>
-      <c r="U10" t="s">
-        <v>186</v>
-      </c>
-      <c r="V10" t="s">
-        <v>187</v>
-      </c>
-      <c r="W10" t="s">
-        <v>188</v>
-      </c>
-      <c r="X10" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>195</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>196</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>197</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>199</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>201</v>
-      </c>
-      <c r="BI10" t="s">
+      <c r="BL10" t="s">
         <v>202</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BM10" t="s">
         <v>229</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BP10" t="s">
         <v>203</v>
       </c>
-      <c r="BL10" t="s">
-        <v>230</v>
-      </c>
-      <c r="BO10" t="s">
+      <c r="BQ10" t="s">
         <v>204</v>
       </c>
-      <c r="BP10" t="s">
+      <c r="BR10" t="s">
         <v>205</v>
       </c>
-      <c r="BQ10" t="s">
+      <c r="BV10" t="s">
         <v>206</v>
       </c>
-      <c r="BU10" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
@@ -2836,141 +2872,144 @@
         <v>106</v>
       </c>
       <c r="G11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" t="s">
         <v>180</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>181</v>
       </c>
-      <c r="I11" t="s">
-        <v>182</v>
-      </c>
       <c r="J11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
-      </c>
-      <c r="P11" t="s">
+        <v>338</v>
+      </c>
+      <c r="M11" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>183</v>
+      </c>
+      <c r="R11" t="s">
         <v>184</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="V11" t="s">
         <v>185</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>186</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>187</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>188</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>189</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>190</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>191</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN11" t="s">
         <v>192</v>
       </c>
-      <c r="AB11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM11" t="s">
+      <c r="AP11" t="s">
         <v>193</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AQ11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA11" t="s">
         <v>194</v>
       </c>
-      <c r="AP11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ11" t="s">
+      <c r="BB11" t="s">
         <v>195</v>
       </c>
-      <c r="BA11" t="s">
+      <c r="BC11" t="s">
         <v>196</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BD11" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE11" t="s">
         <v>197</v>
       </c>
-      <c r="BC11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD11" t="s">
+      <c r="BF11" t="s">
         <v>198</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BG11" t="s">
         <v>199</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BH11" t="s">
         <v>200</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BJ11" t="s">
         <v>201</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BK11" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL11" t="s">
         <v>202</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BM11" t="s">
         <v>229</v>
       </c>
-      <c r="BK11" t="s">
+      <c r="BP11" t="s">
         <v>203</v>
       </c>
-      <c r="BL11" t="s">
-        <v>230</v>
-      </c>
-      <c r="BO11" t="s">
+      <c r="BQ11" t="s">
         <v>204</v>
       </c>
-      <c r="BP11" t="s">
+      <c r="BR11" t="s">
         <v>205</v>
       </c>
-      <c r="BQ11" t="s">
+      <c r="BV11" t="s">
         <v>206</v>
       </c>
-      <c r="BU11" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -2979,141 +3018,144 @@
         <v>106</v>
       </c>
       <c r="G12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" t="s">
         <v>180</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>181</v>
       </c>
-      <c r="I12" t="s">
-        <v>182</v>
-      </c>
       <c r="J12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K12" t="s">
+        <v>333</v>
+      </c>
+      <c r="L12" t="s">
+        <v>338</v>
+      </c>
+      <c r="M12" t="s">
         <v>336</v>
       </c>
-      <c r="L12" t="s">
-        <v>141</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
+        <v>183</v>
+      </c>
+      <c r="R12" t="s">
         <v>184</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="V12" t="s">
         <v>185</v>
       </c>
-      <c r="U12" t="s">
+      <c r="W12" t="s">
         <v>186</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>187</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Y12" t="s">
         <v>188</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>189</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>190</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
         <v>191</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM12" t="s">
+      <c r="AP12" t="s">
         <v>193</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AQ12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA12" t="s">
         <v>194</v>
       </c>
-      <c r="AP12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ12" t="s">
+      <c r="BB12" t="s">
         <v>195</v>
       </c>
-      <c r="BA12" t="s">
+      <c r="BC12" t="s">
         <v>196</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BD12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE12" t="s">
         <v>197</v>
       </c>
-      <c r="BC12" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD12" t="s">
+      <c r="BF12" t="s">
         <v>198</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BG12" t="s">
         <v>199</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BH12" t="s">
         <v>200</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BJ12" t="s">
         <v>201</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BK12" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL12" t="s">
         <v>202</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BM12" t="s">
         <v>229</v>
       </c>
-      <c r="BK12" t="s">
+      <c r="BP12" t="s">
         <v>203</v>
       </c>
-      <c r="BL12" t="s">
-        <v>230</v>
-      </c>
-      <c r="BO12" t="s">
+      <c r="BQ12" t="s">
         <v>204</v>
       </c>
-      <c r="BP12" t="s">
+      <c r="BR12" t="s">
         <v>205</v>
       </c>
-      <c r="BQ12" t="s">
+      <c r="BV12" t="s">
         <v>206</v>
       </c>
-      <c r="BU12" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
         <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -3122,130 +3164,133 @@
         <v>106</v>
       </c>
       <c r="G13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" t="s">
         <v>180</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>181</v>
       </c>
-      <c r="I13" t="s">
-        <v>182</v>
-      </c>
       <c r="J13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
-      </c>
-      <c r="P13" t="s">
+        <v>338</v>
+      </c>
+      <c r="M13" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>183</v>
+      </c>
+      <c r="R13" t="s">
         <v>184</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="V13" t="s">
         <v>185</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>186</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>187</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Y13" t="s">
         <v>188</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Z13" t="s">
         <v>189</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AA13" t="s">
         <v>190</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN13" t="s">
         <v>192</v>
       </c>
-      <c r="AB13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM13" t="s">
+      <c r="AP13" t="s">
         <v>193</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AQ13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA13" t="s">
         <v>194</v>
       </c>
-      <c r="AP13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AZ13" t="s">
+      <c r="BB13" t="s">
         <v>195</v>
       </c>
-      <c r="BA13" t="s">
+      <c r="BC13" t="s">
         <v>196</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BD13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE13" t="s">
         <v>197</v>
       </c>
-      <c r="BC13" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD13" t="s">
+      <c r="BF13" t="s">
         <v>198</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BG13" t="s">
         <v>199</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BH13" t="s">
         <v>200</v>
       </c>
-      <c r="BG13" t="s">
+      <c r="BJ13" t="s">
         <v>201</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BK13" t="s">
+        <v>228</v>
+      </c>
+      <c r="BL13" t="s">
         <v>202</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BM13" t="s">
         <v>229</v>
       </c>
-      <c r="BK13" t="s">
+      <c r="BP13" t="s">
         <v>203</v>
       </c>
-      <c r="BL13" t="s">
-        <v>230</v>
-      </c>
-      <c r="BO13" t="s">
+      <c r="BQ13" t="s">
         <v>204</v>
       </c>
-      <c r="BP13" t="s">
+      <c r="BR13" t="s">
         <v>205</v>
       </c>
-      <c r="BQ13" t="s">
+      <c r="BV13" t="s">
         <v>206</v>
       </c>
-      <c r="BU13" t="s">
-        <v>207</v>
-      </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -3274,61 +3319,64 @@
         <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L14" t="s">
+        <v>339</v>
+      </c>
+      <c r="M14" t="s">
         <v>110</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-999</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>111</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>112</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>113</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>114</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>115</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>114</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>115</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>116</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>117</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>118</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>119</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>120</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>121</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>122</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -3357,61 +3405,64 @@
         <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L15" t="s">
+        <v>339</v>
+      </c>
+      <c r="M15" t="s">
         <v>110</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-999</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>111</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>112</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>113</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>114</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>115</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>114</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>115</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>116</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>117</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>118</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>119</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>120</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>121</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>122</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -3440,61 +3491,64 @@
         <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L16" t="s">
+        <v>339</v>
+      </c>
+      <c r="M16" t="s">
         <v>110</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-999</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>111</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>112</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>113</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>114</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>115</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>114</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>115</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>116</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>117</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>118</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>119</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>120</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>121</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>122</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -3523,61 +3577,64 @@
         <v>109</v>
       </c>
       <c r="K17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L17" t="s">
+        <v>339</v>
+      </c>
+      <c r="M17" t="s">
         <v>110</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-999</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>127</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>112</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>113</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>114</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>115</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>114</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>115</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>116</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>117</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>118</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>119</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>120</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>121</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>122</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -3606,61 +3663,64 @@
         <v>109</v>
       </c>
       <c r="K18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L18" t="s">
+        <v>339</v>
+      </c>
+      <c r="M18" t="s">
         <v>110</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-999</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>111</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>112</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>113</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>114</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>115</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>114</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>115</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>116</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>117</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>118</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>119</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>120</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>121</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>122</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -3689,61 +3749,64 @@
         <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L19" t="s">
+        <v>339</v>
+      </c>
+      <c r="M19" t="s">
         <v>110</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-999</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>111</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>112</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>113</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>114</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>115</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>114</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>115</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>116</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>117</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>118</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>119</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>121</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>122</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -3772,61 +3835,64 @@
         <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L20" t="s">
+        <v>339</v>
+      </c>
+      <c r="M20" t="s">
         <v>110</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-999</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>111</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>112</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>113</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>114</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>115</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>114</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>115</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>116</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>117</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>118</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>119</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>120</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>121</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>122</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -3855,61 +3921,64 @@
         <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L21" t="s">
+        <v>339</v>
+      </c>
+      <c r="M21" t="s">
         <v>110</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-999</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>111</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>112</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>113</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>114</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>115</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>114</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>115</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>116</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>117</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>118</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>119</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>120</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>121</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>122</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -3938,61 +4007,64 @@
         <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L22" t="s">
+        <v>339</v>
+      </c>
+      <c r="M22" t="s">
         <v>110</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>-999</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>111</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>112</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>113</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>114</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>115</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>114</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>115</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>116</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>117</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>118</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>119</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>120</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>121</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>122</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -4021,61 +4093,64 @@
         <v>109</v>
       </c>
       <c r="K23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L23" t="s">
+        <v>339</v>
+      </c>
+      <c r="M23" t="s">
         <v>110</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-999</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>111</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>112</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>113</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>114</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>115</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>114</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>115</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>116</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>117</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>118</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>119</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>120</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>121</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>122</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -4104,61 +4179,64 @@
         <v>109</v>
       </c>
       <c r="K24" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L24" t="s">
+        <v>339</v>
+      </c>
+      <c r="M24" t="s">
         <v>110</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-999</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>111</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>112</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>113</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>114</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>115</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>114</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>115</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>116</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>117</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>118</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>119</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>121</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>122</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -4187,61 +4265,64 @@
         <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L25" t="s">
+        <v>339</v>
+      </c>
+      <c r="M25" t="s">
         <v>110</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-999</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>111</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>112</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>113</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>115</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>115</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>116</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>117</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>118</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>119</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>120</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>121</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>122</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -4270,61 +4351,64 @@
         <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L26" t="s">
+        <v>339</v>
+      </c>
+      <c r="M26" t="s">
         <v>110</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-999</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>111</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>112</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>113</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>114</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>114</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>115</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>116</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>117</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>118</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>119</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>120</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>121</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>122</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -4353,126 +4437,129 @@
         <v>140</v>
       </c>
       <c r="K27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L27" t="s">
+        <v>338</v>
+      </c>
+      <c r="M27" t="s">
+        <v>336</v>
+      </c>
+      <c r="O27">
+        <v>-999</v>
+      </c>
+      <c r="Q27" t="s">
         <v>141</v>
       </c>
-      <c r="N27">
-        <v>-999</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
+        <v>112</v>
+      </c>
+      <c r="T27" t="s">
+        <v>113</v>
+      </c>
+      <c r="V27" t="s">
+        <v>114</v>
+      </c>
+      <c r="W27" t="s">
+        <v>115</v>
+      </c>
+      <c r="X27" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF27" t="s">
         <v>142</v>
       </c>
-      <c r="Q27" t="s">
-        <v>112</v>
-      </c>
-      <c r="S27" t="s">
-        <v>113</v>
-      </c>
-      <c r="U27" t="s">
-        <v>114</v>
-      </c>
-      <c r="V27" t="s">
-        <v>115</v>
-      </c>
-      <c r="W27" t="s">
-        <v>114</v>
-      </c>
-      <c r="X27" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AL27" t="s">
         <v>143</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AM27" t="s">
         <v>144</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AN27" t="s">
         <v>145</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AQ27" t="s">
         <v>146</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AW27" t="s">
         <v>147</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AY27" t="s">
         <v>148</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="BA27" t="s">
         <v>149</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BB27" t="s">
         <v>150</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BC27" t="s">
         <v>151</v>
       </c>
-      <c r="BB27" t="s">
+      <c r="BD27" t="s">
         <v>152</v>
       </c>
-      <c r="BC27" t="s">
+      <c r="BE27" t="s">
         <v>153</v>
       </c>
-      <c r="BD27" t="s">
+      <c r="BF27" t="s">
         <v>154</v>
       </c>
-      <c r="BE27" t="s">
+      <c r="BG27" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH27" t="s">
         <v>155</v>
       </c>
-      <c r="BF27" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG27" t="s">
+      <c r="BJ27" t="s">
         <v>156</v>
       </c>
-      <c r="BI27" t="s">
+      <c r="BK27" t="s">
         <v>157</v>
       </c>
-      <c r="BJ27" t="s">
+      <c r="BL27" t="s">
         <v>158</v>
       </c>
-      <c r="BK27" t="s">
+      <c r="BP27" t="s">
         <v>159</v>
       </c>
-      <c r="BO27" t="s">
+      <c r="BQ27" t="s">
         <v>160</v>
       </c>
-      <c r="BP27" t="s">
+      <c r="BR27" t="s">
         <v>161</v>
       </c>
-      <c r="BQ27" t="s">
+      <c r="BU27" t="s">
         <v>162</v>
       </c>
-      <c r="BT27" t="s">
+      <c r="BV27" t="s">
         <v>163</v>
       </c>
-      <c r="BU27" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" t="s">
         <v>104</v>
@@ -4496,126 +4583,129 @@
         <v>140</v>
       </c>
       <c r="K28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L28" t="s">
+        <v>338</v>
+      </c>
+      <c r="M28" t="s">
+        <v>336</v>
+      </c>
+      <c r="O28">
+        <v>-999</v>
+      </c>
+      <c r="Q28" t="s">
         <v>141</v>
       </c>
-      <c r="N28">
-        <v>-999</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
+        <v>112</v>
+      </c>
+      <c r="T28" t="s">
+        <v>113</v>
+      </c>
+      <c r="V28" t="s">
+        <v>114</v>
+      </c>
+      <c r="W28" t="s">
+        <v>115</v>
+      </c>
+      <c r="X28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF28" t="s">
         <v>142</v>
       </c>
-      <c r="Q28" t="s">
-        <v>112</v>
-      </c>
-      <c r="S28" t="s">
-        <v>113</v>
-      </c>
-      <c r="U28" t="s">
-        <v>114</v>
-      </c>
-      <c r="V28" t="s">
-        <v>115</v>
-      </c>
-      <c r="W28" t="s">
-        <v>114</v>
-      </c>
-      <c r="X28" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AL28" t="s">
         <v>143</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AM28" t="s">
         <v>144</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AN28" t="s">
         <v>145</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AQ28" t="s">
         <v>146</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AW28" t="s">
         <v>147</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AY28" t="s">
         <v>148</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="BA28" t="s">
         <v>149</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BB28" t="s">
         <v>150</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BC28" t="s">
         <v>151</v>
       </c>
-      <c r="BB28" t="s">
+      <c r="BD28" t="s">
         <v>152</v>
       </c>
-      <c r="BC28" t="s">
+      <c r="BE28" t="s">
         <v>153</v>
       </c>
-      <c r="BD28" t="s">
+      <c r="BF28" t="s">
         <v>154</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BG28" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH28" t="s">
         <v>155</v>
       </c>
-      <c r="BF28" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG28" t="s">
+      <c r="BJ28" t="s">
         <v>156</v>
       </c>
-      <c r="BI28" t="s">
+      <c r="BK28" t="s">
         <v>157</v>
       </c>
-      <c r="BJ28" t="s">
+      <c r="BL28" t="s">
         <v>158</v>
       </c>
-      <c r="BK28" t="s">
+      <c r="BP28" t="s">
         <v>159</v>
       </c>
-      <c r="BO28" t="s">
+      <c r="BQ28" t="s">
         <v>160</v>
       </c>
-      <c r="BP28" t="s">
+      <c r="BR28" t="s">
         <v>161</v>
       </c>
-      <c r="BQ28" t="s">
+      <c r="BU28" t="s">
         <v>162</v>
       </c>
-      <c r="BT28" t="s">
+      <c r="BV28" t="s">
         <v>163</v>
       </c>
-      <c r="BU28" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
         <v>104</v>
@@ -4639,126 +4729,129 @@
         <v>140</v>
       </c>
       <c r="K29" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L29" t="s">
+        <v>338</v>
+      </c>
+      <c r="M29" t="s">
+        <v>336</v>
+      </c>
+      <c r="O29">
+        <v>-999</v>
+      </c>
+      <c r="Q29" t="s">
         <v>141</v>
       </c>
-      <c r="N29">
-        <v>-999</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
+        <v>112</v>
+      </c>
+      <c r="T29" t="s">
+        <v>113</v>
+      </c>
+      <c r="V29" t="s">
+        <v>114</v>
+      </c>
+      <c r="W29" t="s">
+        <v>115</v>
+      </c>
+      <c r="X29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF29" t="s">
         <v>142</v>
       </c>
-      <c r="Q29" t="s">
-        <v>112</v>
-      </c>
-      <c r="S29" t="s">
-        <v>113</v>
-      </c>
-      <c r="U29" t="s">
-        <v>114</v>
-      </c>
-      <c r="V29" t="s">
-        <v>115</v>
-      </c>
-      <c r="W29" t="s">
-        <v>114</v>
-      </c>
-      <c r="X29" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE29" t="s">
+      <c r="AL29" t="s">
         <v>143</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AM29" t="s">
         <v>144</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AN29" t="s">
         <v>145</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AQ29" t="s">
         <v>146</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AW29" t="s">
         <v>147</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AY29" t="s">
         <v>148</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="BA29" t="s">
         <v>149</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BB29" t="s">
         <v>150</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BC29" t="s">
         <v>151</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BD29" t="s">
         <v>152</v>
       </c>
-      <c r="BC29" t="s">
+      <c r="BE29" t="s">
         <v>153</v>
       </c>
-      <c r="BD29" t="s">
+      <c r="BF29" t="s">
         <v>154</v>
       </c>
-      <c r="BE29" t="s">
+      <c r="BG29" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH29" t="s">
         <v>155</v>
       </c>
-      <c r="BF29" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG29" t="s">
+      <c r="BJ29" t="s">
         <v>156</v>
       </c>
-      <c r="BI29" t="s">
+      <c r="BK29" t="s">
         <v>157</v>
       </c>
-      <c r="BJ29" t="s">
+      <c r="BL29" t="s">
         <v>158</v>
       </c>
-      <c r="BK29" t="s">
+      <c r="BP29" t="s">
         <v>159</v>
       </c>
-      <c r="BO29" t="s">
+      <c r="BQ29" t="s">
         <v>160</v>
       </c>
-      <c r="BP29" t="s">
+      <c r="BR29" t="s">
         <v>161</v>
       </c>
-      <c r="BQ29" t="s">
+      <c r="BU29" t="s">
         <v>162</v>
       </c>
-      <c r="BT29" t="s">
+      <c r="BV29" t="s">
         <v>163</v>
       </c>
-      <c r="BU29" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
         <v>104</v>
@@ -4782,126 +4875,129 @@
         <v>140</v>
       </c>
       <c r="K30" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s">
+        <v>338</v>
+      </c>
+      <c r="M30" t="s">
+        <v>336</v>
+      </c>
+      <c r="O30">
+        <v>-999</v>
+      </c>
+      <c r="Q30" t="s">
         <v>141</v>
       </c>
-      <c r="N30">
-        <v>-999</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
+        <v>112</v>
+      </c>
+      <c r="T30" t="s">
+        <v>113</v>
+      </c>
+      <c r="V30" t="s">
+        <v>114</v>
+      </c>
+      <c r="W30" t="s">
+        <v>115</v>
+      </c>
+      <c r="X30" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF30" t="s">
         <v>142</v>
       </c>
-      <c r="Q30" t="s">
-        <v>112</v>
-      </c>
-      <c r="S30" t="s">
-        <v>113</v>
-      </c>
-      <c r="U30" t="s">
-        <v>114</v>
-      </c>
-      <c r="V30" t="s">
-        <v>115</v>
-      </c>
-      <c r="W30" t="s">
-        <v>114</v>
-      </c>
-      <c r="X30" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE30" t="s">
+      <c r="AL30" t="s">
         <v>143</v>
       </c>
-      <c r="AK30" t="s">
+      <c r="AM30" t="s">
         <v>144</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AN30" t="s">
         <v>145</v>
       </c>
-      <c r="AM30" t="s">
+      <c r="AQ30" t="s">
         <v>146</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AW30" t="s">
         <v>147</v>
       </c>
-      <c r="AV30" t="s">
+      <c r="AY30" t="s">
         <v>148</v>
       </c>
-      <c r="AX30" t="s">
+      <c r="BA30" t="s">
         <v>149</v>
       </c>
-      <c r="AZ30" t="s">
+      <c r="BB30" t="s">
         <v>150</v>
       </c>
-      <c r="BA30" t="s">
+      <c r="BC30" t="s">
         <v>151</v>
       </c>
-      <c r="BB30" t="s">
+      <c r="BD30" t="s">
         <v>152</v>
       </c>
-      <c r="BC30" t="s">
+      <c r="BE30" t="s">
         <v>153</v>
       </c>
-      <c r="BD30" t="s">
+      <c r="BF30" t="s">
         <v>154</v>
       </c>
-      <c r="BE30" t="s">
+      <c r="BG30" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH30" t="s">
         <v>155</v>
       </c>
-      <c r="BF30" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG30" t="s">
+      <c r="BJ30" t="s">
         <v>156</v>
       </c>
-      <c r="BI30" t="s">
+      <c r="BK30" t="s">
         <v>157</v>
       </c>
-      <c r="BJ30" t="s">
+      <c r="BL30" t="s">
         <v>158</v>
       </c>
-      <c r="BK30" t="s">
+      <c r="BP30" t="s">
         <v>159</v>
       </c>
-      <c r="BO30" t="s">
+      <c r="BQ30" t="s">
         <v>160</v>
       </c>
-      <c r="BP30" t="s">
+      <c r="BR30" t="s">
         <v>161</v>
       </c>
-      <c r="BQ30" t="s">
+      <c r="BU30" t="s">
         <v>162</v>
       </c>
-      <c r="BT30" t="s">
+      <c r="BV30" t="s">
         <v>163</v>
       </c>
-      <c r="BU30" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
         <v>104</v>
@@ -4925,126 +5021,129 @@
         <v>140</v>
       </c>
       <c r="K31" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L31" t="s">
+        <v>338</v>
+      </c>
+      <c r="M31" t="s">
+        <v>336</v>
+      </c>
+      <c r="O31">
+        <v>-999</v>
+      </c>
+      <c r="Q31" t="s">
         <v>141</v>
       </c>
-      <c r="N31">
-        <v>-999</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
+        <v>112</v>
+      </c>
+      <c r="T31" t="s">
+        <v>113</v>
+      </c>
+      <c r="V31" t="s">
+        <v>114</v>
+      </c>
+      <c r="W31" t="s">
+        <v>115</v>
+      </c>
+      <c r="X31" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF31" t="s">
         <v>142</v>
       </c>
-      <c r="Q31" t="s">
-        <v>112</v>
-      </c>
-      <c r="S31" t="s">
-        <v>113</v>
-      </c>
-      <c r="U31" t="s">
-        <v>114</v>
-      </c>
-      <c r="V31" t="s">
-        <v>115</v>
-      </c>
-      <c r="W31" t="s">
-        <v>114</v>
-      </c>
-      <c r="X31" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE31" t="s">
+      <c r="AL31" t="s">
         <v>143</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AM31" t="s">
         <v>144</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AN31" t="s">
         <v>145</v>
       </c>
-      <c r="AM31" t="s">
+      <c r="AQ31" t="s">
         <v>146</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AW31" t="s">
         <v>147</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AY31" t="s">
         <v>148</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="BA31" t="s">
         <v>149</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="BB31" t="s">
         <v>150</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BC31" t="s">
         <v>151</v>
       </c>
-      <c r="BB31" t="s">
+      <c r="BD31" t="s">
         <v>152</v>
       </c>
-      <c r="BC31" t="s">
+      <c r="BE31" t="s">
         <v>153</v>
       </c>
-      <c r="BD31" t="s">
+      <c r="BF31" t="s">
         <v>154</v>
       </c>
-      <c r="BE31" t="s">
+      <c r="BG31" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH31" t="s">
         <v>155</v>
       </c>
-      <c r="BF31" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG31" t="s">
+      <c r="BJ31" t="s">
         <v>156</v>
       </c>
-      <c r="BI31" t="s">
+      <c r="BK31" t="s">
         <v>157</v>
       </c>
-      <c r="BJ31" t="s">
+      <c r="BL31" t="s">
         <v>158</v>
       </c>
-      <c r="BK31" t="s">
+      <c r="BP31" t="s">
         <v>159</v>
       </c>
-      <c r="BO31" t="s">
+      <c r="BQ31" t="s">
         <v>160</v>
       </c>
-      <c r="BP31" t="s">
+      <c r="BR31" t="s">
         <v>161</v>
       </c>
-      <c r="BQ31" t="s">
+      <c r="BU31" t="s">
         <v>162</v>
       </c>
-      <c r="BT31" t="s">
+      <c r="BV31" t="s">
         <v>163</v>
       </c>
-      <c r="BU31" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C32" t="s">
         <v>104</v>
@@ -5068,126 +5167,129 @@
         <v>140</v>
       </c>
       <c r="K32" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s">
+        <v>338</v>
+      </c>
+      <c r="M32" t="s">
+        <v>336</v>
+      </c>
+      <c r="O32">
+        <v>-999</v>
+      </c>
+      <c r="Q32" t="s">
         <v>141</v>
       </c>
-      <c r="N32">
-        <v>-999</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
+        <v>112</v>
+      </c>
+      <c r="T32" t="s">
+        <v>113</v>
+      </c>
+      <c r="V32" t="s">
+        <v>114</v>
+      </c>
+      <c r="W32" t="s">
+        <v>115</v>
+      </c>
+      <c r="X32" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF32" t="s">
         <v>142</v>
       </c>
-      <c r="Q32" t="s">
-        <v>112</v>
-      </c>
-      <c r="S32" t="s">
-        <v>113</v>
-      </c>
-      <c r="U32" t="s">
-        <v>114</v>
-      </c>
-      <c r="V32" t="s">
-        <v>115</v>
-      </c>
-      <c r="W32" t="s">
-        <v>114</v>
-      </c>
-      <c r="X32" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE32" t="s">
+      <c r="AL32" t="s">
         <v>143</v>
       </c>
-      <c r="AK32" t="s">
+      <c r="AM32" t="s">
         <v>144</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AN32" t="s">
         <v>145</v>
       </c>
-      <c r="AM32" t="s">
+      <c r="AQ32" t="s">
         <v>146</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AW32" t="s">
         <v>147</v>
       </c>
-      <c r="AV32" t="s">
+      <c r="AY32" t="s">
         <v>148</v>
       </c>
-      <c r="AX32" t="s">
+      <c r="BA32" t="s">
         <v>149</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="BB32" t="s">
         <v>150</v>
       </c>
-      <c r="BA32" t="s">
+      <c r="BC32" t="s">
         <v>151</v>
       </c>
-      <c r="BB32" t="s">
+      <c r="BD32" t="s">
         <v>152</v>
       </c>
-      <c r="BC32" t="s">
+      <c r="BE32" t="s">
         <v>153</v>
       </c>
-      <c r="BD32" t="s">
+      <c r="BF32" t="s">
         <v>154</v>
       </c>
-      <c r="BE32" t="s">
+      <c r="BG32" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH32" t="s">
         <v>155</v>
       </c>
-      <c r="BF32" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG32" t="s">
+      <c r="BJ32" t="s">
         <v>156</v>
       </c>
-      <c r="BI32" t="s">
+      <c r="BK32" t="s">
         <v>157</v>
       </c>
-      <c r="BJ32" t="s">
+      <c r="BL32" t="s">
         <v>158</v>
       </c>
-      <c r="BK32" t="s">
+      <c r="BP32" t="s">
         <v>159</v>
       </c>
-      <c r="BO32" t="s">
+      <c r="BQ32" t="s">
         <v>160</v>
       </c>
-      <c r="BP32" t="s">
+      <c r="BR32" t="s">
         <v>161</v>
       </c>
-      <c r="BQ32" t="s">
+      <c r="BU32" t="s">
         <v>162</v>
       </c>
-      <c r="BT32" t="s">
+      <c r="BV32" t="s">
         <v>163</v>
       </c>
-      <c r="BU32" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
         <v>104</v>
@@ -5211,126 +5313,129 @@
         <v>140</v>
       </c>
       <c r="K33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L33" t="s">
+        <v>338</v>
+      </c>
+      <c r="M33" t="s">
+        <v>336</v>
+      </c>
+      <c r="O33">
+        <v>-999</v>
+      </c>
+      <c r="Q33" t="s">
         <v>141</v>
       </c>
-      <c r="N33">
-        <v>-999</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
+        <v>112</v>
+      </c>
+      <c r="T33" t="s">
+        <v>113</v>
+      </c>
+      <c r="V33" t="s">
+        <v>114</v>
+      </c>
+      <c r="W33" t="s">
+        <v>115</v>
+      </c>
+      <c r="X33" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF33" t="s">
         <v>142</v>
       </c>
-      <c r="Q33" t="s">
-        <v>112</v>
-      </c>
-      <c r="S33" t="s">
-        <v>113</v>
-      </c>
-      <c r="U33" t="s">
-        <v>114</v>
-      </c>
-      <c r="V33" t="s">
-        <v>115</v>
-      </c>
-      <c r="W33" t="s">
-        <v>114</v>
-      </c>
-      <c r="X33" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE33" t="s">
+      <c r="AL33" t="s">
         <v>143</v>
       </c>
-      <c r="AK33" t="s">
+      <c r="AM33" t="s">
         <v>144</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AN33" t="s">
         <v>145</v>
       </c>
-      <c r="AM33" t="s">
+      <c r="AQ33" t="s">
         <v>146</v>
       </c>
-      <c r="AP33" t="s">
+      <c r="AW33" t="s">
         <v>147</v>
       </c>
-      <c r="AV33" t="s">
+      <c r="AY33" t="s">
         <v>148</v>
       </c>
-      <c r="AX33" t="s">
+      <c r="BA33" t="s">
         <v>149</v>
       </c>
-      <c r="AZ33" t="s">
+      <c r="BB33" t="s">
         <v>150</v>
       </c>
-      <c r="BA33" t="s">
+      <c r="BC33" t="s">
         <v>151</v>
       </c>
-      <c r="BB33" t="s">
+      <c r="BD33" t="s">
         <v>152</v>
       </c>
-      <c r="BC33" t="s">
+      <c r="BE33" t="s">
         <v>153</v>
       </c>
-      <c r="BD33" t="s">
+      <c r="BF33" t="s">
         <v>154</v>
       </c>
-      <c r="BE33" t="s">
+      <c r="BG33" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH33" t="s">
         <v>155</v>
       </c>
-      <c r="BF33" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG33" t="s">
+      <c r="BJ33" t="s">
         <v>156</v>
       </c>
-      <c r="BI33" t="s">
+      <c r="BK33" t="s">
         <v>157</v>
       </c>
-      <c r="BJ33" t="s">
+      <c r="BL33" t="s">
         <v>158</v>
       </c>
-      <c r="BK33" t="s">
+      <c r="BP33" t="s">
         <v>159</v>
       </c>
-      <c r="BO33" t="s">
+      <c r="BQ33" t="s">
         <v>160</v>
       </c>
-      <c r="BP33" t="s">
+      <c r="BR33" t="s">
         <v>161</v>
       </c>
-      <c r="BQ33" t="s">
+      <c r="BU33" t="s">
         <v>162</v>
       </c>
-      <c r="BT33" t="s">
+      <c r="BV33" t="s">
         <v>163</v>
       </c>
-      <c r="BU33" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
         <v>104</v>
@@ -5354,126 +5459,129 @@
         <v>140</v>
       </c>
       <c r="K34" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s">
+        <v>338</v>
+      </c>
+      <c r="M34" t="s">
+        <v>336</v>
+      </c>
+      <c r="O34">
+        <v>-999</v>
+      </c>
+      <c r="Q34" t="s">
         <v>141</v>
       </c>
-      <c r="N34">
-        <v>-999</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
+        <v>112</v>
+      </c>
+      <c r="T34" t="s">
+        <v>113</v>
+      </c>
+      <c r="V34" t="s">
+        <v>114</v>
+      </c>
+      <c r="W34" t="s">
+        <v>115</v>
+      </c>
+      <c r="X34" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF34" t="s">
         <v>142</v>
       </c>
-      <c r="Q34" t="s">
-        <v>112</v>
-      </c>
-      <c r="S34" t="s">
-        <v>113</v>
-      </c>
-      <c r="U34" t="s">
-        <v>114</v>
-      </c>
-      <c r="V34" t="s">
-        <v>115</v>
-      </c>
-      <c r="W34" t="s">
-        <v>114</v>
-      </c>
-      <c r="X34" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE34" t="s">
+      <c r="AL34" t="s">
         <v>143</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AM34" t="s">
         <v>144</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AN34" t="s">
         <v>145</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AQ34" t="s">
         <v>146</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AW34" t="s">
         <v>147</v>
       </c>
-      <c r="AV34" t="s">
+      <c r="AY34" t="s">
         <v>148</v>
       </c>
-      <c r="AX34" t="s">
+      <c r="BA34" t="s">
         <v>149</v>
       </c>
-      <c r="AZ34" t="s">
+      <c r="BB34" t="s">
         <v>150</v>
       </c>
-      <c r="BA34" t="s">
+      <c r="BC34" t="s">
         <v>151</v>
       </c>
-      <c r="BB34" t="s">
+      <c r="BD34" t="s">
         <v>152</v>
       </c>
-      <c r="BC34" t="s">
+      <c r="BE34" t="s">
         <v>153</v>
       </c>
-      <c r="BD34" t="s">
+      <c r="BF34" t="s">
         <v>154</v>
       </c>
-      <c r="BE34" t="s">
+      <c r="BG34" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH34" t="s">
         <v>155</v>
       </c>
-      <c r="BF34" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG34" t="s">
+      <c r="BJ34" t="s">
         <v>156</v>
       </c>
-      <c r="BI34" t="s">
+      <c r="BK34" t="s">
         <v>157</v>
       </c>
-      <c r="BJ34" t="s">
+      <c r="BL34" t="s">
         <v>158</v>
       </c>
-      <c r="BK34" t="s">
+      <c r="BP34" t="s">
         <v>159</v>
       </c>
-      <c r="BO34" t="s">
+      <c r="BQ34" t="s">
         <v>160</v>
       </c>
-      <c r="BP34" t="s">
+      <c r="BR34" t="s">
         <v>161</v>
       </c>
-      <c r="BQ34" t="s">
+      <c r="BU34" t="s">
         <v>162</v>
       </c>
-      <c r="BT34" t="s">
+      <c r="BV34" t="s">
         <v>163</v>
       </c>
-      <c r="BU34" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
         <v>104</v>
@@ -5497,126 +5605,129 @@
         <v>140</v>
       </c>
       <c r="K35" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s">
+        <v>338</v>
+      </c>
+      <c r="M35" t="s">
+        <v>336</v>
+      </c>
+      <c r="O35">
+        <v>-999</v>
+      </c>
+      <c r="Q35" t="s">
         <v>141</v>
       </c>
-      <c r="N35">
-        <v>-999</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
+        <v>112</v>
+      </c>
+      <c r="T35" t="s">
+        <v>113</v>
+      </c>
+      <c r="V35" t="s">
+        <v>114</v>
+      </c>
+      <c r="W35" t="s">
+        <v>115</v>
+      </c>
+      <c r="X35" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF35" t="s">
         <v>142</v>
       </c>
-      <c r="Q35" t="s">
-        <v>112</v>
-      </c>
-      <c r="S35" t="s">
-        <v>113</v>
-      </c>
-      <c r="U35" t="s">
-        <v>114</v>
-      </c>
-      <c r="V35" t="s">
-        <v>115</v>
-      </c>
-      <c r="W35" t="s">
-        <v>114</v>
-      </c>
-      <c r="X35" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE35" t="s">
+      <c r="AL35" t="s">
         <v>143</v>
       </c>
-      <c r="AK35" t="s">
+      <c r="AM35" t="s">
         <v>144</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AN35" t="s">
         <v>145</v>
       </c>
-      <c r="AM35" t="s">
+      <c r="AQ35" t="s">
         <v>146</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AW35" t="s">
         <v>147</v>
       </c>
-      <c r="AV35" t="s">
+      <c r="AY35" t="s">
         <v>148</v>
       </c>
-      <c r="AX35" t="s">
+      <c r="BA35" t="s">
         <v>149</v>
       </c>
-      <c r="AZ35" t="s">
+      <c r="BB35" t="s">
         <v>150</v>
       </c>
-      <c r="BA35" t="s">
+      <c r="BC35" t="s">
         <v>151</v>
       </c>
-      <c r="BB35" t="s">
+      <c r="BD35" t="s">
         <v>152</v>
       </c>
-      <c r="BC35" t="s">
+      <c r="BE35" t="s">
         <v>153</v>
       </c>
-      <c r="BD35" t="s">
+      <c r="BF35" t="s">
         <v>154</v>
       </c>
-      <c r="BE35" t="s">
+      <c r="BG35" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH35" t="s">
         <v>155</v>
       </c>
-      <c r="BF35" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG35" t="s">
+      <c r="BJ35" t="s">
         <v>156</v>
       </c>
-      <c r="BI35" t="s">
+      <c r="BK35" t="s">
         <v>157</v>
       </c>
-      <c r="BJ35" t="s">
+      <c r="BL35" t="s">
         <v>158</v>
       </c>
-      <c r="BK35" t="s">
+      <c r="BP35" t="s">
         <v>159</v>
       </c>
-      <c r="BO35" t="s">
+      <c r="BQ35" t="s">
         <v>160</v>
       </c>
-      <c r="BP35" t="s">
+      <c r="BR35" t="s">
         <v>161</v>
       </c>
-      <c r="BQ35" t="s">
+      <c r="BU35" t="s">
         <v>162</v>
       </c>
-      <c r="BT35" t="s">
+      <c r="BV35" t="s">
         <v>163</v>
       </c>
-      <c r="BU35" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
         <v>104</v>
@@ -5640,126 +5751,129 @@
         <v>140</v>
       </c>
       <c r="K36" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>141</v>
-      </c>
-      <c r="N36">
+        <v>338</v>
+      </c>
+      <c r="M36" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36">
         <v>-999</v>
       </c>
-      <c r="P36" t="s">
-        <v>174</v>
-      </c>
       <c r="Q36" t="s">
+        <v>173</v>
+      </c>
+      <c r="R36" t="s">
         <v>112</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>113</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>114</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>115</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>114</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>115</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>116</v>
       </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
         <v>117</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
         <v>118</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>119</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>120</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL36" t="s">
         <v>143</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AM36" t="s">
         <v>144</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AN36" t="s">
         <v>145</v>
       </c>
-      <c r="AM36" t="s">
+      <c r="AQ36" t="s">
         <v>146</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="AW36" t="s">
         <v>147</v>
       </c>
-      <c r="AV36" t="s">
+      <c r="AY36" t="s">
         <v>148</v>
       </c>
-      <c r="AX36" t="s">
+      <c r="BA36" t="s">
         <v>149</v>
       </c>
-      <c r="AZ36" t="s">
+      <c r="BB36" t="s">
         <v>150</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BC36" t="s">
         <v>151</v>
       </c>
-      <c r="BB36" t="s">
+      <c r="BD36" t="s">
         <v>152</v>
       </c>
-      <c r="BC36" t="s">
+      <c r="BE36" t="s">
         <v>153</v>
       </c>
-      <c r="BD36" t="s">
+      <c r="BF36" t="s">
         <v>154</v>
       </c>
-      <c r="BE36" t="s">
+      <c r="BG36" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH36" t="s">
         <v>155</v>
       </c>
-      <c r="BF36" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG36" t="s">
+      <c r="BJ36" t="s">
         <v>156</v>
       </c>
-      <c r="BI36" t="s">
+      <c r="BK36" t="s">
         <v>157</v>
       </c>
-      <c r="BJ36" t="s">
+      <c r="BL36" t="s">
         <v>158</v>
       </c>
-      <c r="BK36" t="s">
+      <c r="BP36" t="s">
         <v>159</v>
       </c>
-      <c r="BO36" t="s">
+      <c r="BQ36" t="s">
         <v>160</v>
       </c>
-      <c r="BP36" t="s">
+      <c r="BR36" t="s">
         <v>161</v>
       </c>
-      <c r="BQ36" t="s">
+      <c r="BU36" t="s">
         <v>162</v>
       </c>
-      <c r="BT36" t="s">
+      <c r="BV36" t="s">
         <v>163</v>
       </c>
-      <c r="BU36" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" t="s">
         <v>104</v>
@@ -5783,126 +5897,129 @@
         <v>140</v>
       </c>
       <c r="K37" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L37" t="s">
-        <v>141</v>
-      </c>
-      <c r="N37">
+        <v>338</v>
+      </c>
+      <c r="M37" t="s">
+        <v>336</v>
+      </c>
+      <c r="O37">
         <v>-999</v>
       </c>
-      <c r="P37" t="s">
-        <v>176</v>
-      </c>
       <c r="Q37" t="s">
+        <v>175</v>
+      </c>
+      <c r="R37" t="s">
         <v>112</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>113</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>114</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>115</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>114</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>115</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>116</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>117</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>118</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>119</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>120</v>
       </c>
-      <c r="AE37" t="s">
+      <c r="AF37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL37" t="s">
         <v>143</v>
       </c>
-      <c r="AK37" t="s">
+      <c r="AM37" t="s">
         <v>144</v>
       </c>
-      <c r="AL37" t="s">
+      <c r="AN37" t="s">
         <v>145</v>
       </c>
-      <c r="AM37" t="s">
+      <c r="AQ37" t="s">
         <v>146</v>
       </c>
-      <c r="AP37" t="s">
+      <c r="AW37" t="s">
         <v>147</v>
       </c>
-      <c r="AV37" t="s">
+      <c r="AY37" t="s">
         <v>148</v>
       </c>
-      <c r="AX37" t="s">
+      <c r="BA37" t="s">
         <v>149</v>
       </c>
-      <c r="AZ37" t="s">
+      <c r="BB37" t="s">
         <v>150</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="BC37" t="s">
         <v>151</v>
       </c>
-      <c r="BB37" t="s">
+      <c r="BD37" t="s">
         <v>152</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BE37" t="s">
         <v>153</v>
       </c>
-      <c r="BD37" t="s">
+      <c r="BF37" t="s">
         <v>154</v>
       </c>
-      <c r="BE37" t="s">
+      <c r="BG37" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH37" t="s">
         <v>155</v>
       </c>
-      <c r="BF37" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG37" t="s">
+      <c r="BJ37" t="s">
         <v>156</v>
       </c>
-      <c r="BI37" t="s">
+      <c r="BK37" t="s">
         <v>157</v>
       </c>
-      <c r="BJ37" t="s">
+      <c r="BL37" t="s">
         <v>158</v>
       </c>
-      <c r="BK37" t="s">
+      <c r="BP37" t="s">
         <v>159</v>
       </c>
-      <c r="BO37" t="s">
+      <c r="BQ37" t="s">
         <v>160</v>
       </c>
-      <c r="BP37" t="s">
+      <c r="BR37" t="s">
         <v>161</v>
       </c>
-      <c r="BQ37" t="s">
+      <c r="BU37" t="s">
         <v>162</v>
       </c>
-      <c r="BT37" t="s">
+      <c r="BV37" t="s">
         <v>163</v>
       </c>
-      <c r="BU37" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
         <v>104</v>
@@ -5926,132 +6043,135 @@
         <v>140</v>
       </c>
       <c r="K38" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s">
-        <v>141</v>
-      </c>
-      <c r="N38">
+        <v>338</v>
+      </c>
+      <c r="M38" t="s">
+        <v>336</v>
+      </c>
+      <c r="O38">
         <v>-999</v>
       </c>
-      <c r="P38" t="s">
-        <v>174</v>
-      </c>
       <c r="Q38" t="s">
+        <v>173</v>
+      </c>
+      <c r="R38" t="s">
         <v>112</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>113</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>114</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>115</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>114</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>115</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>116</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>117</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>118</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>119</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>120</v>
       </c>
-      <c r="AE38" t="s">
+      <c r="AF38" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL38" t="s">
         <v>143</v>
       </c>
-      <c r="AK38" t="s">
+      <c r="AM38" t="s">
         <v>144</v>
       </c>
-      <c r="AL38" t="s">
+      <c r="AN38" t="s">
         <v>145</v>
       </c>
-      <c r="AM38" t="s">
+      <c r="AQ38" t="s">
         <v>146</v>
       </c>
-      <c r="AP38" t="s">
+      <c r="AW38" t="s">
         <v>147</v>
       </c>
-      <c r="AV38" t="s">
+      <c r="AY38" t="s">
         <v>148</v>
       </c>
-      <c r="AX38" t="s">
+      <c r="BA38" t="s">
         <v>149</v>
       </c>
-      <c r="AZ38" t="s">
+      <c r="BB38" t="s">
         <v>150</v>
       </c>
-      <c r="BA38" t="s">
+      <c r="BC38" t="s">
         <v>151</v>
       </c>
-      <c r="BB38" t="s">
+      <c r="BD38" t="s">
         <v>152</v>
       </c>
-      <c r="BC38" t="s">
+      <c r="BE38" t="s">
         <v>153</v>
       </c>
-      <c r="BD38" t="s">
+      <c r="BF38" t="s">
         <v>154</v>
       </c>
-      <c r="BE38" t="s">
+      <c r="BG38" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH38" t="s">
         <v>155</v>
       </c>
-      <c r="BF38" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG38" t="s">
+      <c r="BJ38" t="s">
         <v>156</v>
       </c>
-      <c r="BI38" t="s">
+      <c r="BK38" t="s">
         <v>157</v>
       </c>
-      <c r="BJ38" t="s">
+      <c r="BL38" t="s">
         <v>158</v>
       </c>
-      <c r="BK38" t="s">
+      <c r="BP38" t="s">
         <v>159</v>
       </c>
-      <c r="BO38" t="s">
+      <c r="BQ38" t="s">
         <v>160</v>
       </c>
-      <c r="BP38" t="s">
+      <c r="BR38" t="s">
         <v>161</v>
       </c>
-      <c r="BQ38" t="s">
+      <c r="BU38" t="s">
         <v>162</v>
       </c>
-      <c r="BT38" t="s">
+      <c r="BV38" t="s">
         <v>163</v>
       </c>
-      <c r="BU38" t="s">
-        <v>164</v>
-      </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
         <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -6060,111 +6180,114 @@
         <v>106</v>
       </c>
       <c r="G39" t="s">
+        <v>238</v>
+      </c>
+      <c r="I39" t="s">
         <v>239</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
+        <v>317</v>
+      </c>
+      <c r="L39" t="s">
+        <v>338</v>
+      </c>
+      <c r="M39" t="s">
+        <v>237</v>
+      </c>
+      <c r="O39" t="s">
         <v>240</v>
       </c>
-      <c r="K39" t="s">
-        <v>320</v>
-      </c>
-      <c r="L39" t="s">
-        <v>238</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="R39" t="s">
+        <v>184</v>
+      </c>
+      <c r="T39" t="s">
+        <v>287</v>
+      </c>
+      <c r="U39" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD39" t="s">
         <v>241</v>
       </c>
-      <c r="Q39" t="s">
-        <v>185</v>
-      </c>
-      <c r="S39" t="s">
-        <v>289</v>
-      </c>
-      <c r="T39" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC39" t="s">
+      <c r="AE39" t="s">
         <v>242</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AF39" t="s">
         <v>243</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AJ39" t="s">
         <v>244</v>
       </c>
-      <c r="AI39" t="s">
+      <c r="AM39" t="s">
         <v>245</v>
       </c>
-      <c r="AL39" t="s">
+      <c r="AN39" t="s">
         <v>246</v>
       </c>
-      <c r="AM39" t="s">
+      <c r="AP39" t="s">
         <v>247</v>
       </c>
-      <c r="AO39" t="s">
+      <c r="AQ39" t="s">
         <v>248</v>
       </c>
-      <c r="AP39" t="s">
+      <c r="AX39" t="s">
         <v>249</v>
       </c>
-      <c r="AW39" t="s">
+      <c r="AY39" t="s">
         <v>250</v>
       </c>
-      <c r="AX39" t="s">
+      <c r="BA39" t="s">
         <v>251</v>
       </c>
-      <c r="AZ39" t="s">
+      <c r="BB39" t="s">
         <v>252</v>
       </c>
-      <c r="BA39" t="s">
+      <c r="BC39" t="s">
         <v>253</v>
       </c>
-      <c r="BB39" t="s">
+      <c r="BD39" t="s">
         <v>254</v>
       </c>
-      <c r="BC39" t="s">
+      <c r="BF39" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG39" t="s">
         <v>255</v>
       </c>
-      <c r="BE39" t="s">
-        <v>199</v>
-      </c>
-      <c r="BF39" t="s">
+      <c r="BH39" t="s">
         <v>256</v>
       </c>
-      <c r="BG39" t="s">
+      <c r="BJ39" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK39" t="s">
         <v>257</v>
       </c>
-      <c r="BI39" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ39" t="s">
+      <c r="BL39" t="s">
         <v>258</v>
       </c>
-      <c r="BK39" t="s">
+      <c r="BM39" t="s">
         <v>259</v>
       </c>
-      <c r="BL39" t="s">
+      <c r="BQ39" t="s">
         <v>260</v>
       </c>
-      <c r="BP39" t="s">
+      <c r="BR39" t="s">
         <v>261</v>
       </c>
-      <c r="BQ39" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C40" t="s">
         <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -6173,54 +6296,57 @@
         <v>106</v>
       </c>
       <c r="G40" t="s">
+        <v>263</v>
+      </c>
+      <c r="I40" t="s">
+        <v>239</v>
+      </c>
+      <c r="K40" t="s">
+        <v>318</v>
+      </c>
+      <c r="L40" t="s">
+        <v>339</v>
+      </c>
+      <c r="M40" t="s">
+        <v>237</v>
+      </c>
+      <c r="O40" t="s">
+        <v>240</v>
+      </c>
+      <c r="R40" t="s">
+        <v>184</v>
+      </c>
+      <c r="T40" t="s">
+        <v>287</v>
+      </c>
+      <c r="U40" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG40" t="s">
         <v>264</v>
       </c>
-      <c r="I40" t="s">
-        <v>240</v>
-      </c>
-      <c r="K40" t="s">
-        <v>321</v>
-      </c>
-      <c r="L40" t="s">
-        <v>265</v>
-      </c>
-      <c r="N40" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>185</v>
-      </c>
-      <c r="S40" t="s">
-        <v>289</v>
-      </c>
-      <c r="T40" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>266</v>
-      </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C41" t="s">
         <v>104</v>
       </c>
       <c r="D41" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -6229,111 +6355,114 @@
         <v>106</v>
       </c>
       <c r="G41" t="s">
+        <v>238</v>
+      </c>
+      <c r="I41" t="s">
         <v>239</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
+        <v>319</v>
+      </c>
+      <c r="L41" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" t="s">
+        <v>237</v>
+      </c>
+      <c r="O41" t="s">
         <v>240</v>
       </c>
-      <c r="K41" t="s">
-        <v>322</v>
-      </c>
-      <c r="L41" t="s">
-        <v>238</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="R41" t="s">
+        <v>184</v>
+      </c>
+      <c r="T41" t="s">
+        <v>287</v>
+      </c>
+      <c r="U41" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD41" t="s">
         <v>241</v>
       </c>
-      <c r="Q41" t="s">
-        <v>185</v>
-      </c>
-      <c r="S41" t="s">
-        <v>289</v>
-      </c>
-      <c r="T41" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC41" t="s">
+      <c r="AE41" t="s">
         <v>242</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AF41" t="s">
         <v>243</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AJ41" t="s">
         <v>244</v>
       </c>
-      <c r="AI41" t="s">
+      <c r="AM41" t="s">
         <v>245</v>
       </c>
-      <c r="AL41" t="s">
+      <c r="AN41" t="s">
         <v>246</v>
       </c>
-      <c r="AM41" t="s">
+      <c r="AP41" t="s">
         <v>247</v>
       </c>
-      <c r="AO41" t="s">
+      <c r="AQ41" t="s">
         <v>248</v>
       </c>
-      <c r="AP41" t="s">
+      <c r="AX41" t="s">
         <v>249</v>
       </c>
-      <c r="AW41" t="s">
+      <c r="AY41" t="s">
         <v>250</v>
       </c>
-      <c r="AX41" t="s">
+      <c r="BA41" t="s">
         <v>251</v>
       </c>
-      <c r="AZ41" t="s">
+      <c r="BB41" t="s">
         <v>252</v>
       </c>
-      <c r="BA41" t="s">
+      <c r="BC41" t="s">
         <v>253</v>
       </c>
-      <c r="BB41" t="s">
+      <c r="BD41" t="s">
         <v>254</v>
       </c>
-      <c r="BC41" t="s">
+      <c r="BF41" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG41" t="s">
         <v>255</v>
       </c>
-      <c r="BE41" t="s">
-        <v>199</v>
-      </c>
-      <c r="BF41" t="s">
+      <c r="BH41" t="s">
         <v>256</v>
       </c>
-      <c r="BG41" t="s">
+      <c r="BJ41" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK41" t="s">
         <v>257</v>
       </c>
-      <c r="BI41" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ41" t="s">
+      <c r="BL41" t="s">
         <v>258</v>
       </c>
-      <c r="BK41" t="s">
+      <c r="BM41" t="s">
         <v>259</v>
       </c>
-      <c r="BL41" t="s">
+      <c r="BQ41" t="s">
         <v>260</v>
       </c>
-      <c r="BP41" t="s">
+      <c r="BR41" t="s">
         <v>261</v>
       </c>
-      <c r="BQ41" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C42" t="s">
         <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -6342,54 +6471,57 @@
         <v>106</v>
       </c>
       <c r="G42" t="s">
+        <v>263</v>
+      </c>
+      <c r="I42" t="s">
+        <v>239</v>
+      </c>
+      <c r="K42" t="s">
+        <v>322</v>
+      </c>
+      <c r="L42" t="s">
+        <v>339</v>
+      </c>
+      <c r="M42" t="s">
+        <v>237</v>
+      </c>
+      <c r="O42" t="s">
+        <v>240</v>
+      </c>
+      <c r="R42" t="s">
+        <v>184</v>
+      </c>
+      <c r="T42" t="s">
+        <v>287</v>
+      </c>
+      <c r="U42" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG42" t="s">
         <v>264</v>
       </c>
-      <c r="I42" t="s">
-        <v>240</v>
-      </c>
-      <c r="K42" t="s">
-        <v>325</v>
-      </c>
-      <c r="L42" t="s">
-        <v>265</v>
-      </c>
-      <c r="N42" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>185</v>
-      </c>
-      <c r="S42" t="s">
-        <v>289</v>
-      </c>
-      <c r="T42" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>266</v>
-      </c>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s">
         <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
@@ -6398,111 +6530,114 @@
         <v>106</v>
       </c>
       <c r="G43" t="s">
+        <v>238</v>
+      </c>
+      <c r="I43" t="s">
         <v>239</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
+        <v>320</v>
+      </c>
+      <c r="L43" t="s">
+        <v>338</v>
+      </c>
+      <c r="M43" t="s">
+        <v>237</v>
+      </c>
+      <c r="O43" t="s">
         <v>240</v>
       </c>
-      <c r="K43" t="s">
-        <v>323</v>
-      </c>
-      <c r="L43" t="s">
-        <v>238</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="R43" t="s">
+        <v>184</v>
+      </c>
+      <c r="T43" t="s">
+        <v>287</v>
+      </c>
+      <c r="U43" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD43" t="s">
         <v>241</v>
       </c>
-      <c r="Q43" t="s">
-        <v>185</v>
-      </c>
-      <c r="S43" t="s">
-        <v>289</v>
-      </c>
-      <c r="T43" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC43" t="s">
+      <c r="AE43" t="s">
         <v>242</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AF43" t="s">
         <v>243</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AJ43" t="s">
         <v>244</v>
       </c>
-      <c r="AI43" t="s">
+      <c r="AM43" t="s">
         <v>245</v>
       </c>
-      <c r="AL43" t="s">
+      <c r="AN43" t="s">
         <v>246</v>
       </c>
-      <c r="AM43" t="s">
+      <c r="AP43" t="s">
         <v>247</v>
       </c>
-      <c r="AO43" t="s">
+      <c r="AQ43" t="s">
         <v>248</v>
       </c>
-      <c r="AP43" t="s">
+      <c r="AX43" t="s">
         <v>249</v>
       </c>
-      <c r="AW43" t="s">
+      <c r="AY43" t="s">
         <v>250</v>
       </c>
-      <c r="AX43" t="s">
+      <c r="BA43" t="s">
         <v>251</v>
       </c>
-      <c r="AZ43" t="s">
+      <c r="BB43" t="s">
         <v>252</v>
       </c>
-      <c r="BA43" t="s">
+      <c r="BC43" t="s">
         <v>253</v>
       </c>
-      <c r="BB43" t="s">
+      <c r="BD43" t="s">
         <v>254</v>
       </c>
-      <c r="BC43" t="s">
+      <c r="BF43" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG43" t="s">
         <v>255</v>
       </c>
-      <c r="BE43" t="s">
-        <v>199</v>
-      </c>
-      <c r="BF43" t="s">
+      <c r="BH43" t="s">
         <v>256</v>
       </c>
-      <c r="BG43" t="s">
+      <c r="BJ43" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK43" t="s">
         <v>257</v>
       </c>
-      <c r="BI43" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ43" t="s">
+      <c r="BL43" t="s">
         <v>258</v>
       </c>
-      <c r="BK43" t="s">
+      <c r="BM43" t="s">
         <v>259</v>
       </c>
-      <c r="BL43" t="s">
+      <c r="BQ43" t="s">
         <v>260</v>
       </c>
-      <c r="BP43" t="s">
+      <c r="BR43" t="s">
         <v>261</v>
       </c>
-      <c r="BQ43" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C44" t="s">
         <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
@@ -6511,54 +6646,57 @@
         <v>106</v>
       </c>
       <c r="G44" t="s">
+        <v>263</v>
+      </c>
+      <c r="I44" t="s">
+        <v>239</v>
+      </c>
+      <c r="K44" t="s">
+        <v>321</v>
+      </c>
+      <c r="L44" t="s">
+        <v>339</v>
+      </c>
+      <c r="M44" t="s">
+        <v>237</v>
+      </c>
+      <c r="O44" t="s">
+        <v>240</v>
+      </c>
+      <c r="R44" t="s">
+        <v>184</v>
+      </c>
+      <c r="T44" t="s">
+        <v>287</v>
+      </c>
+      <c r="U44" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG44" t="s">
         <v>264</v>
       </c>
-      <c r="I44" t="s">
-        <v>240</v>
-      </c>
-      <c r="K44" t="s">
-        <v>324</v>
-      </c>
-      <c r="L44" t="s">
-        <v>265</v>
-      </c>
-      <c r="N44" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>185</v>
-      </c>
-      <c r="S44" t="s">
-        <v>289</v>
-      </c>
-      <c r="T44" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>266</v>
-      </c>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>102</v>
       </c>
       <c r="B45" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" t="s">
+        <v>270</v>
+      </c>
+      <c r="D45" t="s">
         <v>271</v>
-      </c>
-      <c r="C45" t="s">
-        <v>272</v>
-      </c>
-      <c r="D45" t="s">
-        <v>273</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -6567,301 +6705,310 @@
         <v>106</v>
       </c>
       <c r="G45" t="s">
+        <v>272</v>
+      </c>
+      <c r="H45" t="s">
+        <v>273</v>
+      </c>
+      <c r="I45" t="s">
         <v>274</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>275</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" t="s">
+        <v>339</v>
+      </c>
+      <c r="M45" t="s">
+        <v>311</v>
+      </c>
+      <c r="N45" t="s">
         <v>276</v>
       </c>
-      <c r="J45" t="s">
+      <c r="O45">
+        <v>-999</v>
+      </c>
+      <c r="R45" t="s">
+        <v>112</v>
+      </c>
+      <c r="T45" t="s">
         <v>277</v>
       </c>
-      <c r="K45" t="s">
-        <v>319</v>
-      </c>
-      <c r="L45" t="s">
-        <v>313</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="U45" t="s">
+        <v>277</v>
+      </c>
+      <c r="V45" t="s">
         <v>278</v>
       </c>
-      <c r="N45">
-        <v>-999</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>112</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="W45" t="s">
         <v>279</v>
       </c>
-      <c r="T45" t="s">
-        <v>279</v>
-      </c>
-      <c r="U45" t="s">
+      <c r="X45" t="s">
         <v>280</v>
       </c>
-      <c r="V45" t="s">
+      <c r="Y45" t="s">
         <v>281</v>
       </c>
-      <c r="W45" t="s">
+      <c r="AA45" t="s">
         <v>282</v>
       </c>
-      <c r="X45" t="s">
+      <c r="AB45" t="s">
         <v>283</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AC45" t="s">
         <v>284</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AE45" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG45" t="s">
         <v>285</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AH45" t="s">
         <v>286</v>
       </c>
-      <c r="AD45" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>288</v>
-      </c>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F46" t="s">
         <v>106</v>
       </c>
       <c r="G46" t="s">
+        <v>272</v>
+      </c>
+      <c r="H46" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" t="s">
         <v>274</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>275</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" t="s">
+        <v>339</v>
+      </c>
+      <c r="M46" t="s">
+        <v>311</v>
+      </c>
+      <c r="N46" t="s">
         <v>276</v>
       </c>
-      <c r="J46" t="s">
+      <c r="O46">
+        <v>-999</v>
+      </c>
+      <c r="R46" t="s">
+        <v>112</v>
+      </c>
+      <c r="T46" t="s">
         <v>277</v>
       </c>
-      <c r="K46" t="s">
-        <v>319</v>
-      </c>
-      <c r="L46" t="s">
-        <v>313</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="U46" t="s">
+        <v>277</v>
+      </c>
+      <c r="V46" t="s">
         <v>278</v>
       </c>
-      <c r="N46">
-        <v>-999</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>112</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="W46" t="s">
         <v>279</v>
       </c>
-      <c r="T46" t="s">
-        <v>279</v>
-      </c>
-      <c r="U46" t="s">
+      <c r="X46" t="s">
         <v>280</v>
       </c>
-      <c r="V46" t="s">
+      <c r="Y46" t="s">
         <v>281</v>
       </c>
-      <c r="W46" t="s">
+      <c r="AA46" t="s">
         <v>282</v>
       </c>
-      <c r="X46" t="s">
+      <c r="AB46" t="s">
         <v>283</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AC46" t="s">
         <v>284</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AE46" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG46" t="s">
         <v>285</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AH46" t="s">
         <v>286</v>
       </c>
-      <c r="AD46" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>288</v>
-      </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C47" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F47" t="s">
         <v>106</v>
       </c>
       <c r="G47" t="s">
+        <v>272</v>
+      </c>
+      <c r="H47" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" t="s">
         <v>274</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>275</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
+        <v>316</v>
+      </c>
+      <c r="L47" t="s">
+        <v>338</v>
+      </c>
+      <c r="M47" t="s">
+        <v>340</v>
+      </c>
+      <c r="N47" t="s">
         <v>276</v>
       </c>
-      <c r="J47" t="s">
+      <c r="O47">
+        <v>-999</v>
+      </c>
+      <c r="P47">
+        <v>1E-4</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>183</v>
+      </c>
+      <c r="R47" t="s">
+        <v>112</v>
+      </c>
+      <c r="T47" t="s">
         <v>277</v>
       </c>
-      <c r="K47" t="s">
-        <v>319</v>
-      </c>
-      <c r="L47" t="s">
-        <v>314</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="U47" t="s">
+        <v>277</v>
+      </c>
+      <c r="V47" t="s">
         <v>278</v>
       </c>
-      <c r="N47">
-        <v>-999</v>
-      </c>
-      <c r="O47">
-        <v>1E-4</v>
-      </c>
-      <c r="P47" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>112</v>
-      </c>
-      <c r="S47" t="s">
+      <c r="W47" t="s">
         <v>279</v>
       </c>
-      <c r="T47" t="s">
-        <v>279</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="X47" t="s">
         <v>280</v>
       </c>
-      <c r="V47" t="s">
+      <c r="Y47" t="s">
         <v>281</v>
       </c>
-      <c r="W47" t="s">
+      <c r="AA47" t="s">
         <v>282</v>
       </c>
-      <c r="X47" t="s">
+      <c r="AB47" t="s">
         <v>283</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AC47" t="s">
         <v>284</v>
       </c>
-      <c r="AA47" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>286</v>
-      </c>
-      <c r="AI47" t="s">
+      <c r="AJ47" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM47" t="s">
         <v>294</v>
       </c>
-      <c r="AK47" t="s">
+      <c r="AN47" t="s">
         <v>295</v>
       </c>
-      <c r="AL47" t="s">
+      <c r="AQ47" t="s">
         <v>296</v>
       </c>
-      <c r="AM47" t="s">
+      <c r="AR47" t="s">
         <v>297</v>
       </c>
-      <c r="AP47" t="s">
+      <c r="AU47" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY47" t="s">
         <v>298</v>
       </c>
-      <c r="AQ47" t="s">
+      <c r="BA47" t="s">
         <v>299</v>
       </c>
-      <c r="AT47" t="s">
-        <v>312</v>
-      </c>
-      <c r="AV47" t="s">
-        <v>311</v>
-      </c>
-      <c r="AX47" t="s">
+      <c r="BB47" t="s">
         <v>300</v>
       </c>
-      <c r="AZ47" t="s">
+      <c r="BC47" t="s">
         <v>301</v>
       </c>
-      <c r="BA47" t="s">
+      <c r="BD47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BE47" t="s">
         <v>302</v>
       </c>
-      <c r="BB47" t="s">
+      <c r="BF47" t="s">
         <v>303</v>
       </c>
-      <c r="BC47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD47" t="s">
+      <c r="BG47" t="s">
+        <v>199</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ47" t="s">
         <v>304</v>
       </c>
-      <c r="BE47" t="s">
+      <c r="BO47" t="s">
         <v>305</v>
       </c>
-      <c r="BF47" t="s">
-        <v>200</v>
-      </c>
-      <c r="BG47" t="s">
-        <v>201</v>
-      </c>
-      <c r="BI47" t="s">
+      <c r="BP47" t="s">
         <v>306</v>
       </c>
-      <c r="BN47" t="s">
+      <c r="BQ47" t="s">
         <v>307</v>
       </c>
-      <c r="BO47" t="s">
+      <c r="BR47" t="s">
         <v>308</v>
       </c>
-      <c r="BP47" t="s">
-        <v>309</v>
-      </c>
-      <c r="BQ47" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT47" t="s">
+      <c r="BU47" t="s">
         <v>99</v>
       </c>
-      <c r="BU47" t="s">
+      <c r="BV47" t="s">
         <v>100</v>
       </c>
     </row>

--- a/product_data/processing_metadata/C4/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C4/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{44D4C86A-6D31-46FF-96E9-7CB5DA15733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDB21EA1-FD79-4285-8344-A359DE7E5780}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="8_{44D4C86A-6D31-46FF-96E9-7CB5DA15733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D77137-B84F-413F-9D2E-98CA977B2E5B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69322DFE-E2CA-486C-AA5E-7CF334D8D225}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69322DFE-E2CA-486C-AA5E-7CF334D8D225}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="347">
   <si>
     <t>33LG20110101</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Chla_ide</t>
   </si>
   <si>
-    <t>Chla_ allom</t>
-  </si>
-  <si>
     <t>Chla_prime</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t>E:/Data_downloads/PAL-LTER/pigments/HPLC/33LG20121230</t>
   </si>
   <si>
-    <t>E:/Data_downloads/PAL-LTER/pigments/HPLC/33LG20131229</t>
-  </si>
-  <si>
     <t>Cast-underway</t>
   </si>
   <si>
@@ -600,9 +594,6 @@
     <t>TimeUTC</t>
   </si>
   <si>
-    <t>%H:%M:%S %p</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -705,9 +696,6 @@
     <t>Time(UTC)</t>
   </si>
   <si>
-    <t>%H:%M %p</t>
-  </si>
-  <si>
     <t>LongDec</t>
   </si>
   <si>
@@ -1057,6 +1045,36 @@
   </si>
   <si>
     <t>VanHeukelem_Thomas_2001</t>
+  </si>
+  <si>
+    <t>Depth-surface</t>
+  </si>
+  <si>
+    <t>Chla_allom</t>
+  </si>
+  <si>
+    <t>Notes-underway</t>
+  </si>
+  <si>
+    <t>Sampling.Device-SWI</t>
+  </si>
+  <si>
+    <t>Depth-Underway</t>
+  </si>
+  <si>
+    <t>33LG20171209</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PAL-LTER/pigments/CHL/33LG20171209</t>
+  </si>
+  <si>
+    <t>%I:%M:%S %p</t>
+  </si>
+  <si>
+    <t>%I:%M %p</t>
+  </si>
+  <si>
+    <t>E:/Data_downloads/PAL-LTER/pigments/HPLC/33LG20131229/adjusted</t>
   </si>
 </sst>
 </file>
@@ -1414,13 +1432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3EC7E7-D61A-4686-AF29-9DAA74ADE754}">
-  <dimension ref="A1:BW47"/>
+  <dimension ref="A1:BW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1454,10 +1475,10 @@
         <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M1" t="s">
         <v>39</v>
@@ -1544,4512 +1565,4452 @@
         <v>66</v>
       </c>
       <c r="AO1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AP1" t="s">
         <v>67</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>68</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>69</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>70</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>71</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>72</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>73</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>74</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>75</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>76</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>77</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>78</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>79</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>80</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>81</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>82</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>83</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>84</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>85</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>86</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>87</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>88</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>89</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>90</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>91</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>92</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>93</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>94</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>95</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>96</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>97</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>98</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>99</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>100</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I2" t="s">
         <v>179</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>180</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>319</v>
+      </c>
+      <c r="L2" t="s">
+        <v>334</v>
+      </c>
+      <c r="M2" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q2" t="s">
         <v>181</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>182</v>
       </c>
-      <c r="K2" t="s">
-        <v>323</v>
-      </c>
-      <c r="L2" t="s">
-        <v>338</v>
-      </c>
-      <c r="M2" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>183</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>184</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>185</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z2" t="s">
         <v>186</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>187</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>191</v>
-      </c>
       <c r="AC2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM2" t="s">
         <v>65</v>
       </c>
       <c r="AN2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB2" t="s">
         <v>192</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="BC2" t="s">
         <v>193</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="BD2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE2" t="s">
         <v>194</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>195</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
         <v>196</v>
       </c>
-      <c r="BD2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BH2" t="s">
         <v>197</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>198</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BL2" t="s">
         <v>199</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BP2" t="s">
         <v>200</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BQ2" t="s">
         <v>201</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BR2" t="s">
         <v>202</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BV2" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" t="s">
         <v>179</v>
       </c>
-      <c r="H3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" t="s">
+        <v>320</v>
+      </c>
+      <c r="L3" t="s">
+        <v>334</v>
+      </c>
+      <c r="M3" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q3" t="s">
         <v>181</v>
       </c>
-      <c r="J3" t="s">
-        <v>208</v>
-      </c>
-      <c r="K3" t="s">
-        <v>324</v>
-      </c>
-      <c r="L3" t="s">
-        <v>338</v>
-      </c>
-      <c r="M3" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V3" t="s">
         <v>183</v>
       </c>
-      <c r="R3" t="s">
+      <c r="W3" t="s">
         <v>184</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>185</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z3" t="s">
         <v>186</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>187</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>188</v>
       </c>
-      <c r="Z3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>191</v>
-      </c>
       <c r="AC3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM3" t="s">
         <v>65</v>
       </c>
       <c r="AN3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB3" t="s">
         <v>192</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="BC3" t="s">
         <v>193</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA3" t="s">
+      <c r="BD3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE3" t="s">
         <v>194</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BF3" t="s">
         <v>195</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BG3" t="s">
         <v>196</v>
       </c>
-      <c r="BD3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE3" t="s">
+      <c r="BH3" t="s">
         <v>197</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BJ3" t="s">
         <v>198</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BL3" t="s">
         <v>199</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BP3" t="s">
         <v>200</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BQ3" t="s">
         <v>201</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="BR3" t="s">
         <v>202</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BV3" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" t="s">
         <v>179</v>
       </c>
-      <c r="H4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" t="s">
+        <v>321</v>
+      </c>
+      <c r="L4" t="s">
+        <v>334</v>
+      </c>
+      <c r="M4" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q4" t="s">
         <v>181</v>
       </c>
-      <c r="J4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K4" t="s">
-        <v>325</v>
-      </c>
-      <c r="L4" t="s">
-        <v>338</v>
-      </c>
-      <c r="M4" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>182</v>
+      </c>
+      <c r="V4" t="s">
         <v>183</v>
       </c>
-      <c r="R4" t="s">
+      <c r="W4" t="s">
         <v>184</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>185</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z4" t="s">
         <v>186</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>187</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>188</v>
       </c>
-      <c r="Z4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>191</v>
-      </c>
       <c r="AC4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM4" t="s">
         <v>65</v>
       </c>
       <c r="AN4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB4" t="s">
         <v>192</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="BC4" t="s">
         <v>193</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA4" t="s">
+      <c r="BD4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE4" t="s">
         <v>194</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BF4" t="s">
         <v>195</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BG4" t="s">
         <v>196</v>
       </c>
-      <c r="BD4" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE4" t="s">
+      <c r="BH4" t="s">
         <v>197</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BJ4" t="s">
         <v>198</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BL4" t="s">
         <v>199</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BP4" t="s">
         <v>200</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BQ4" t="s">
         <v>201</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BR4" t="s">
         <v>202</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BV4" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" t="s">
         <v>179</v>
       </c>
-      <c r="H5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" t="s">
+        <v>322</v>
+      </c>
+      <c r="L5" t="s">
+        <v>334</v>
+      </c>
+      <c r="M5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q5" t="s">
         <v>181</v>
       </c>
-      <c r="J5" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" t="s">
-        <v>326</v>
-      </c>
-      <c r="L5" t="s">
-        <v>338</v>
-      </c>
-      <c r="M5" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>182</v>
+      </c>
+      <c r="V5" t="s">
         <v>183</v>
       </c>
-      <c r="R5" t="s">
+      <c r="W5" t="s">
         <v>184</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>185</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>187</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AB5" t="s">
         <v>188</v>
       </c>
-      <c r="Z5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>191</v>
-      </c>
       <c r="AC5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM5" t="s">
         <v>65</v>
       </c>
       <c r="AN5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB5" t="s">
         <v>192</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="BC5" t="s">
         <v>193</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA5" t="s">
+      <c r="BD5" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE5" t="s">
         <v>194</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BF5" t="s">
         <v>195</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BG5" t="s">
         <v>196</v>
       </c>
-      <c r="BD5" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE5" t="s">
+      <c r="BH5" t="s">
         <v>197</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BJ5" t="s">
         <v>198</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BL5" t="s">
         <v>199</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BP5" t="s">
         <v>200</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BQ5" t="s">
         <v>201</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BR5" t="s">
         <v>202</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BV5" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" t="s">
         <v>179</v>
       </c>
-      <c r="H6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" t="s">
+        <v>323</v>
+      </c>
+      <c r="L6" t="s">
+        <v>334</v>
+      </c>
+      <c r="M6" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q6" t="s">
         <v>181</v>
       </c>
-      <c r="J6" t="s">
-        <v>214</v>
-      </c>
-      <c r="K6" t="s">
-        <v>327</v>
-      </c>
-      <c r="L6" t="s">
-        <v>338</v>
-      </c>
-      <c r="M6" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>182</v>
+      </c>
+      <c r="V6" t="s">
         <v>183</v>
       </c>
-      <c r="R6" t="s">
+      <c r="W6" t="s">
         <v>184</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>185</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z6" t="s">
         <v>186</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AB6" t="s">
         <v>188</v>
       </c>
-      <c r="Z6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>191</v>
-      </c>
       <c r="AC6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM6" t="s">
         <v>65</v>
       </c>
       <c r="AN6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB6" t="s">
         <v>192</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="BC6" t="s">
         <v>193</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA6" t="s">
+      <c r="BD6" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE6" t="s">
         <v>194</v>
       </c>
-      <c r="BB6" t="s">
+      <c r="BF6" t="s">
         <v>195</v>
       </c>
-      <c r="BC6" t="s">
+      <c r="BG6" t="s">
         <v>196</v>
       </c>
-      <c r="BD6" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE6" t="s">
+      <c r="BH6" t="s">
         <v>197</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BJ6" t="s">
         <v>198</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BL6" t="s">
         <v>199</v>
       </c>
-      <c r="BH6" t="s">
+      <c r="BP6" t="s">
         <v>200</v>
       </c>
-      <c r="BJ6" t="s">
+      <c r="BQ6" t="s">
         <v>201</v>
       </c>
-      <c r="BL6" t="s">
+      <c r="BR6" t="s">
         <v>202</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BV6" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" t="s">
         <v>179</v>
       </c>
-      <c r="H7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L7" t="s">
+        <v>334</v>
+      </c>
+      <c r="M7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q7" t="s">
         <v>181</v>
       </c>
-      <c r="J7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L7" t="s">
-        <v>338</v>
-      </c>
-      <c r="M7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
+        <v>182</v>
+      </c>
+      <c r="V7" t="s">
         <v>183</v>
       </c>
-      <c r="R7" t="s">
+      <c r="W7" t="s">
         <v>184</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>185</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z7" t="s">
         <v>186</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>187</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>191</v>
-      </c>
       <c r="AC7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM7" t="s">
         <v>65</v>
       </c>
       <c r="AN7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB7" t="s">
         <v>192</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="BC7" t="s">
         <v>193</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA7" t="s">
+      <c r="BD7" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE7" t="s">
         <v>194</v>
       </c>
-      <c r="BB7" t="s">
+      <c r="BF7" t="s">
         <v>195</v>
       </c>
-      <c r="BC7" t="s">
+      <c r="BG7" t="s">
         <v>196</v>
       </c>
-      <c r="BD7" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE7" t="s">
+      <c r="BH7" t="s">
         <v>197</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BJ7" t="s">
         <v>198</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BL7" t="s">
         <v>199</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BP7" t="s">
         <v>200</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BQ7" t="s">
         <v>201</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BR7" t="s">
         <v>202</v>
       </c>
-      <c r="BP7" t="s">
+      <c r="BV7" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" t="s">
         <v>179</v>
       </c>
-      <c r="H8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" t="s">
+        <v>325</v>
+      </c>
+      <c r="L8" t="s">
+        <v>334</v>
+      </c>
+      <c r="M8" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q8" t="s">
         <v>181</v>
       </c>
-      <c r="J8" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" t="s">
-        <v>329</v>
-      </c>
-      <c r="L8" t="s">
-        <v>338</v>
-      </c>
-      <c r="M8" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>182</v>
+      </c>
+      <c r="V8" t="s">
         <v>183</v>
       </c>
-      <c r="R8" t="s">
+      <c r="W8" t="s">
         <v>184</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>185</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z8" t="s">
         <v>186</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>187</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AB8" t="s">
         <v>188</v>
       </c>
-      <c r="Z8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>191</v>
-      </c>
       <c r="AC8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM8" t="s">
         <v>65</v>
       </c>
       <c r="AN8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB8" t="s">
         <v>192</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="BC8" t="s">
         <v>193</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA8" t="s">
+      <c r="BD8" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE8" t="s">
         <v>194</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BF8" t="s">
         <v>195</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BG8" t="s">
         <v>196</v>
       </c>
-      <c r="BD8" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE8" t="s">
+      <c r="BH8" t="s">
         <v>197</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BJ8" t="s">
         <v>198</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BL8" t="s">
         <v>199</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BP8" t="s">
         <v>200</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BQ8" t="s">
         <v>201</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BR8" t="s">
         <v>202</v>
       </c>
-      <c r="BP8" t="s">
+      <c r="BV8" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" t="s">
         <v>179</v>
       </c>
-      <c r="H9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K9" t="s">
+        <v>326</v>
+      </c>
+      <c r="L9" t="s">
+        <v>334</v>
+      </c>
+      <c r="M9" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q9" t="s">
         <v>181</v>
       </c>
-      <c r="J9" t="s">
+      <c r="R9" t="s">
+        <v>182</v>
+      </c>
+      <c r="V9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W9" t="s">
+        <v>184</v>
+      </c>
+      <c r="X9" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB9" t="s">
         <v>220</v>
       </c>
-      <c r="K9" t="s">
-        <v>330</v>
-      </c>
-      <c r="L9" t="s">
-        <v>338</v>
-      </c>
-      <c r="M9" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>183</v>
-      </c>
-      <c r="R9" t="s">
-        <v>184</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="AC9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM9" t="s">
         <v>221</v>
-      </c>
-      <c r="W9" t="s">
-        <v>186</v>
-      </c>
-      <c r="X9" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" t="s">
         <v>179</v>
       </c>
-      <c r="H10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K10" t="s">
+        <v>327</v>
+      </c>
+      <c r="L10" t="s">
+        <v>334</v>
+      </c>
+      <c r="M10" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q10" t="s">
         <v>181</v>
       </c>
-      <c r="J10" t="s">
-        <v>227</v>
-      </c>
-      <c r="K10" t="s">
-        <v>331</v>
-      </c>
-      <c r="L10" t="s">
-        <v>338</v>
-      </c>
-      <c r="M10" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V10" t="s">
         <v>183</v>
       </c>
-      <c r="R10" t="s">
+      <c r="W10" t="s">
         <v>184</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>185</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Y10" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z10" t="s">
         <v>186</v>
       </c>
-      <c r="X10" t="s">
+      <c r="AA10" t="s">
         <v>187</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AB10" t="s">
         <v>188</v>
       </c>
-      <c r="Z10" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>191</v>
-      </c>
       <c r="AC10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM10" t="s">
         <v>65</v>
       </c>
       <c r="AN10" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB10" t="s">
         <v>192</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="BC10" t="s">
         <v>193</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA10" t="s">
+      <c r="BD10" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE10" t="s">
         <v>194</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BF10" t="s">
         <v>195</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BG10" t="s">
         <v>196</v>
       </c>
-      <c r="BD10" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE10" t="s">
+      <c r="BH10" t="s">
         <v>197</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BJ10" t="s">
         <v>198</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BK10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL10" t="s">
         <v>199</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BM10" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP10" t="s">
         <v>200</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BQ10" t="s">
         <v>201</v>
       </c>
-      <c r="BK10" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL10" t="s">
+      <c r="BR10" t="s">
         <v>202</v>
       </c>
-      <c r="BM10" t="s">
-        <v>229</v>
-      </c>
-      <c r="BP10" t="s">
+      <c r="BV10" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" t="s">
         <v>179</v>
       </c>
-      <c r="H11" t="s">
-        <v>180</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" t="s">
+        <v>328</v>
+      </c>
+      <c r="L11" t="s">
+        <v>334</v>
+      </c>
+      <c r="M11" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q11" t="s">
         <v>181</v>
       </c>
-      <c r="J11" t="s">
-        <v>231</v>
-      </c>
-      <c r="K11" t="s">
-        <v>332</v>
-      </c>
-      <c r="L11" t="s">
-        <v>338</v>
-      </c>
-      <c r="M11" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
+        <v>182</v>
+      </c>
+      <c r="V11" t="s">
         <v>183</v>
       </c>
-      <c r="R11" t="s">
+      <c r="W11" t="s">
         <v>184</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>185</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z11" t="s">
         <v>186</v>
       </c>
-      <c r="X11" t="s">
+      <c r="AA11" t="s">
         <v>187</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AB11" t="s">
         <v>188</v>
       </c>
-      <c r="Z11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>191</v>
-      </c>
       <c r="AC11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM11" t="s">
         <v>65</v>
       </c>
       <c r="AN11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB11" t="s">
         <v>192</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="BC11" t="s">
         <v>193</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA11" t="s">
+      <c r="BD11" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE11" t="s">
         <v>194</v>
       </c>
-      <c r="BB11" t="s">
+      <c r="BF11" t="s">
         <v>195</v>
       </c>
-      <c r="BC11" t="s">
+      <c r="BG11" t="s">
         <v>196</v>
       </c>
-      <c r="BD11" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE11" t="s">
+      <c r="BH11" t="s">
         <v>197</v>
       </c>
-      <c r="BF11" t="s">
+      <c r="BJ11" t="s">
         <v>198</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BK11" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL11" t="s">
         <v>199</v>
       </c>
-      <c r="BH11" t="s">
+      <c r="BM11" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP11" t="s">
         <v>200</v>
       </c>
-      <c r="BJ11" t="s">
+      <c r="BQ11" t="s">
         <v>201</v>
       </c>
-      <c r="BK11" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL11" t="s">
+      <c r="BR11" t="s">
         <v>202</v>
       </c>
-      <c r="BM11" t="s">
-        <v>229</v>
-      </c>
-      <c r="BP11" t="s">
+      <c r="BV11" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I12" t="s">
         <v>179</v>
       </c>
-      <c r="H12" t="s">
-        <v>180</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>229</v>
+      </c>
+      <c r="K12" t="s">
+        <v>329</v>
+      </c>
+      <c r="L12" t="s">
+        <v>334</v>
+      </c>
+      <c r="M12" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q12" t="s">
         <v>181</v>
       </c>
-      <c r="J12" t="s">
-        <v>233</v>
-      </c>
-      <c r="K12" t="s">
-        <v>333</v>
-      </c>
-      <c r="L12" t="s">
-        <v>338</v>
-      </c>
-      <c r="M12" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V12" t="s">
         <v>183</v>
       </c>
-      <c r="R12" t="s">
+      <c r="W12" t="s">
         <v>184</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>185</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Y12" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z12" t="s">
         <v>186</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AA12" t="s">
         <v>187</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AB12" t="s">
         <v>188</v>
       </c>
-      <c r="Z12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>191</v>
-      </c>
       <c r="AC12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM12" t="s">
         <v>65</v>
       </c>
       <c r="AN12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB12" t="s">
         <v>192</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="BC12" t="s">
         <v>193</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA12" t="s">
+      <c r="BD12" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE12" t="s">
         <v>194</v>
       </c>
-      <c r="BB12" t="s">
+      <c r="BF12" t="s">
         <v>195</v>
       </c>
-      <c r="BC12" t="s">
+      <c r="BG12" t="s">
         <v>196</v>
       </c>
-      <c r="BD12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE12" t="s">
+      <c r="BH12" t="s">
         <v>197</v>
       </c>
-      <c r="BF12" t="s">
+      <c r="BJ12" t="s">
         <v>198</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BK12" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL12" t="s">
         <v>199</v>
       </c>
-      <c r="BH12" t="s">
+      <c r="BM12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP12" t="s">
         <v>200</v>
       </c>
-      <c r="BJ12" t="s">
+      <c r="BQ12" t="s">
         <v>201</v>
       </c>
-      <c r="BK12" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL12" t="s">
+      <c r="BR12" t="s">
         <v>202</v>
       </c>
-      <c r="BM12" t="s">
-        <v>229</v>
-      </c>
-      <c r="BP12" t="s">
+      <c r="BV12" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" t="s">
         <v>179</v>
       </c>
-      <c r="H13" t="s">
-        <v>180</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" t="s">
+        <v>330</v>
+      </c>
+      <c r="L13" t="s">
+        <v>334</v>
+      </c>
+      <c r="M13" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q13" t="s">
         <v>181</v>
       </c>
-      <c r="J13" t="s">
-        <v>235</v>
-      </c>
-      <c r="K13" t="s">
-        <v>334</v>
-      </c>
-      <c r="L13" t="s">
-        <v>338</v>
-      </c>
-      <c r="M13" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
+        <v>182</v>
+      </c>
+      <c r="V13" t="s">
         <v>183</v>
       </c>
-      <c r="R13" t="s">
+      <c r="W13" t="s">
         <v>184</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>185</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Y13" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z13" t="s">
         <v>186</v>
       </c>
-      <c r="X13" t="s">
+      <c r="AA13" t="s">
         <v>187</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="Z13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>191</v>
-      </c>
       <c r="AC13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AM13" t="s">
         <v>65</v>
       </c>
       <c r="AN13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB13" t="s">
         <v>192</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="BC13" t="s">
         <v>193</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA13" t="s">
+      <c r="BD13" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE13" t="s">
         <v>194</v>
       </c>
-      <c r="BB13" t="s">
+      <c r="BF13" t="s">
         <v>195</v>
       </c>
-      <c r="BC13" t="s">
+      <c r="BG13" t="s">
         <v>196</v>
       </c>
-      <c r="BD13" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE13" t="s">
+      <c r="BH13" t="s">
         <v>197</v>
       </c>
-      <c r="BF13" t="s">
+      <c r="BJ13" t="s">
         <v>198</v>
       </c>
-      <c r="BG13" t="s">
+      <c r="BK13" t="s">
+        <v>224</v>
+      </c>
+      <c r="BL13" t="s">
         <v>199</v>
       </c>
-      <c r="BH13" t="s">
+      <c r="BM13" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP13" t="s">
         <v>200</v>
       </c>
-      <c r="BJ13" t="s">
+      <c r="BQ13" t="s">
         <v>201</v>
       </c>
-      <c r="BK13" t="s">
-        <v>228</v>
-      </c>
-      <c r="BL13" t="s">
+      <c r="BR13" t="s">
         <v>202</v>
       </c>
-      <c r="BM13" t="s">
-        <v>229</v>
-      </c>
-      <c r="BP13" t="s">
+      <c r="BV13" t="s">
         <v>203</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>0</v>
       </c>
       <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
         <v>106</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>107</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>108</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>310</v>
+      </c>
+      <c r="L14" t="s">
+        <v>335</v>
+      </c>
+      <c r="M14" t="s">
         <v>109</v>
-      </c>
-      <c r="K14" t="s">
-        <v>314</v>
-      </c>
-      <c r="L14" t="s">
-        <v>339</v>
-      </c>
-      <c r="M14" t="s">
-        <v>110</v>
       </c>
       <c r="O14">
         <v>-999</v>
       </c>
       <c r="Q14" t="s">
+        <v>340</v>
+      </c>
+      <c r="R14" t="s">
         <v>111</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>112</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>113</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>114</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA14" t="s">
         <v>115</v>
       </c>
-      <c r="X14" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>116</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>117</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>118</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>119</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>120</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>121</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>122</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
         <v>104</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
       <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
         <v>106</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>107</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>108</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>310</v>
+      </c>
+      <c r="L15" t="s">
+        <v>335</v>
+      </c>
+      <c r="M15" t="s">
         <v>109</v>
-      </c>
-      <c r="K15" t="s">
-        <v>314</v>
-      </c>
-      <c r="L15" t="s">
-        <v>339</v>
-      </c>
-      <c r="M15" t="s">
-        <v>110</v>
       </c>
       <c r="O15">
         <v>-999</v>
       </c>
       <c r="Q15" t="s">
+        <v>337</v>
+      </c>
+      <c r="R15" t="s">
         <v>111</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>112</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>113</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>114</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA15" t="s">
         <v>115</v>
       </c>
-      <c r="X15" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>116</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>117</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>118</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>119</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>120</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>121</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>122</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
         <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>105</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
       </c>
       <c r="F16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" t="s">
         <v>106</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>107</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>108</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>310</v>
+      </c>
+      <c r="L16" t="s">
+        <v>335</v>
+      </c>
+      <c r="M16" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" t="s">
-        <v>314</v>
-      </c>
-      <c r="L16" t="s">
-        <v>339</v>
-      </c>
-      <c r="M16" t="s">
-        <v>110</v>
       </c>
       <c r="O16">
         <v>-999</v>
       </c>
       <c r="Q16" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" t="s">
         <v>111</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>112</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>113</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>114</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA16" t="s">
         <v>115</v>
       </c>
-      <c r="X16" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>116</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>117</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>118</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>119</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>120</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>121</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>122</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" t="s">
         <v>104</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
       </c>
       <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
         <v>106</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>107</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>108</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>310</v>
+      </c>
+      <c r="L17" t="s">
+        <v>335</v>
+      </c>
+      <c r="M17" t="s">
         <v>109</v>
-      </c>
-      <c r="K17" t="s">
-        <v>314</v>
-      </c>
-      <c r="L17" t="s">
-        <v>339</v>
-      </c>
-      <c r="M17" t="s">
-        <v>110</v>
       </c>
       <c r="O17">
         <v>-999</v>
       </c>
       <c r="Q17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" t="s">
         <v>112</v>
       </c>
-      <c r="T17" t="s">
+      <c r="V17" t="s">
         <v>113</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>114</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA17" t="s">
         <v>115</v>
       </c>
-      <c r="X17" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>116</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>117</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>118</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>119</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>120</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>121</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>122</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
         <v>104</v>
-      </c>
-      <c r="D18" t="s">
-        <v>105</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
         <v>106</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>107</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>108</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>310</v>
+      </c>
+      <c r="L18" t="s">
+        <v>335</v>
+      </c>
+      <c r="M18" t="s">
         <v>109</v>
-      </c>
-      <c r="K18" t="s">
-        <v>314</v>
-      </c>
-      <c r="L18" t="s">
-        <v>339</v>
-      </c>
-      <c r="M18" t="s">
-        <v>110</v>
       </c>
       <c r="O18">
         <v>-999</v>
       </c>
       <c r="Q18" t="s">
+        <v>339</v>
+      </c>
+      <c r="R18" t="s">
         <v>111</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>112</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>113</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>114</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA18" t="s">
         <v>115</v>
       </c>
-      <c r="X18" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>116</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>117</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>118</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>119</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>120</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>121</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>122</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
         <v>104</v>
-      </c>
-      <c r="D19" t="s">
-        <v>105</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>107</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>108</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>310</v>
+      </c>
+      <c r="L19" t="s">
+        <v>335</v>
+      </c>
+      <c r="M19" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" t="s">
-        <v>314</v>
-      </c>
-      <c r="L19" t="s">
-        <v>339</v>
-      </c>
-      <c r="M19" t="s">
-        <v>110</v>
       </c>
       <c r="O19">
         <v>-999</v>
       </c>
       <c r="Q19" t="s">
+        <v>339</v>
+      </c>
+      <c r="R19" t="s">
         <v>111</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>112</v>
       </c>
-      <c r="T19" t="s">
+      <c r="V19" t="s">
         <v>113</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>114</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA19" t="s">
         <v>115</v>
       </c>
-      <c r="X19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>116</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>117</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>118</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>119</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>120</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>121</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>122</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>343</v>
       </c>
       <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>342</v>
+      </c>
+      <c r="F20" t="s">
         <v>105</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>106</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>107</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>108</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
+        <v>310</v>
+      </c>
+      <c r="L20" t="s">
+        <v>335</v>
+      </c>
+      <c r="M20" t="s">
         <v>109</v>
-      </c>
-      <c r="K20" t="s">
-        <v>314</v>
-      </c>
-      <c r="L20" t="s">
-        <v>339</v>
-      </c>
-      <c r="M20" t="s">
-        <v>110</v>
       </c>
       <c r="O20">
         <v>-999</v>
       </c>
       <c r="Q20" t="s">
+        <v>341</v>
+      </c>
+      <c r="R20" t="s">
         <v>111</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>112</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
         <v>113</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>114</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA20" t="s">
         <v>115</v>
       </c>
-      <c r="X20" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>116</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>117</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>118</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>119</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>120</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>121</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>122</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
         <v>104</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
         <v>105</v>
       </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>106</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>107</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>108</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>310</v>
+      </c>
+      <c r="L21" t="s">
+        <v>335</v>
+      </c>
+      <c r="M21" t="s">
         <v>109</v>
-      </c>
-      <c r="K21" t="s">
-        <v>314</v>
-      </c>
-      <c r="L21" t="s">
-        <v>339</v>
-      </c>
-      <c r="M21" t="s">
-        <v>110</v>
       </c>
       <c r="O21">
         <v>-999</v>
       </c>
       <c r="Q21" t="s">
+        <v>340</v>
+      </c>
+      <c r="R21" t="s">
         <v>111</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>112</v>
       </c>
-      <c r="T21" t="s">
+      <c r="V21" t="s">
         <v>113</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>114</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA21" t="s">
         <v>115</v>
       </c>
-      <c r="X21" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>116</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>117</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>118</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>119</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>120</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>121</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>122</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
         <v>104</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>105</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>106</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>107</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>108</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
+        <v>310</v>
+      </c>
+      <c r="L22" t="s">
+        <v>335</v>
+      </c>
+      <c r="M22" t="s">
         <v>109</v>
-      </c>
-      <c r="K22" t="s">
-        <v>314</v>
-      </c>
-      <c r="L22" t="s">
-        <v>339</v>
-      </c>
-      <c r="M22" t="s">
-        <v>110</v>
       </c>
       <c r="O22">
         <v>-999</v>
       </c>
       <c r="Q22" t="s">
+        <v>340</v>
+      </c>
+      <c r="R22" t="s">
         <v>111</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>112</v>
       </c>
-      <c r="T22" t="s">
+      <c r="V22" t="s">
         <v>113</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>114</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA22" t="s">
         <v>115</v>
       </c>
-      <c r="X22" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>116</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>117</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>118</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>119</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>120</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>121</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>122</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
         <v>104</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
         <v>105</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>106</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>107</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>108</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>310</v>
+      </c>
+      <c r="L23" t="s">
+        <v>335</v>
+      </c>
+      <c r="M23" t="s">
         <v>109</v>
-      </c>
-      <c r="K23" t="s">
-        <v>314</v>
-      </c>
-      <c r="L23" t="s">
-        <v>339</v>
-      </c>
-      <c r="M23" t="s">
-        <v>110</v>
       </c>
       <c r="O23">
         <v>-999</v>
       </c>
       <c r="Q23" t="s">
+        <v>340</v>
+      </c>
+      <c r="R23" t="s">
         <v>111</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>112</v>
       </c>
-      <c r="T23" t="s">
+      <c r="V23" t="s">
         <v>113</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>114</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA23" t="s">
         <v>115</v>
       </c>
-      <c r="X23" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>116</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>117</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>118</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>119</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>120</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>121</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>122</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
         <v>104</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>105</v>
       </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>106</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>107</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>108</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>310</v>
+      </c>
+      <c r="L24" t="s">
+        <v>335</v>
+      </c>
+      <c r="M24" t="s">
         <v>109</v>
-      </c>
-      <c r="K24" t="s">
-        <v>314</v>
-      </c>
-      <c r="L24" t="s">
-        <v>339</v>
-      </c>
-      <c r="M24" t="s">
-        <v>110</v>
       </c>
       <c r="O24">
         <v>-999</v>
       </c>
       <c r="Q24" t="s">
+        <v>340</v>
+      </c>
+      <c r="R24" t="s">
         <v>111</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>112</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>113</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>114</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA24" t="s">
         <v>115</v>
       </c>
-      <c r="X24" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>116</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>117</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>118</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>119</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>120</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>121</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>122</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
         <v>104</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
         <v>105</v>
       </c>
-      <c r="E25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>106</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>107</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>108</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>310</v>
+      </c>
+      <c r="L25" t="s">
+        <v>335</v>
+      </c>
+      <c r="M25" t="s">
         <v>109</v>
-      </c>
-      <c r="K25" t="s">
-        <v>314</v>
-      </c>
-      <c r="L25" t="s">
-        <v>339</v>
-      </c>
-      <c r="M25" t="s">
-        <v>110</v>
       </c>
       <c r="O25">
         <v>-999</v>
       </c>
       <c r="Q25" t="s">
+        <v>340</v>
+      </c>
+      <c r="R25" t="s">
         <v>111</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T25" t="s">
         <v>112</v>
       </c>
-      <c r="T25" t="s">
+      <c r="V25" t="s">
         <v>113</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA25" t="s">
         <v>115</v>
       </c>
-      <c r="X25" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>116</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>117</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>118</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>119</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>120</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>121</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>122</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
         <v>104</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
         <v>105</v>
       </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>106</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>107</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>108</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>310</v>
+      </c>
+      <c r="L26" t="s">
+        <v>335</v>
+      </c>
+      <c r="M26" t="s">
         <v>109</v>
-      </c>
-      <c r="K26" t="s">
-        <v>314</v>
-      </c>
-      <c r="L26" t="s">
-        <v>339</v>
-      </c>
-      <c r="M26" t="s">
-        <v>110</v>
       </c>
       <c r="O26">
         <v>-999</v>
       </c>
       <c r="Q26" t="s">
+        <v>340</v>
+      </c>
+      <c r="R26" t="s">
         <v>111</v>
       </c>
-      <c r="R26" t="s">
+      <c r="T26" t="s">
         <v>112</v>
       </c>
-      <c r="T26" t="s">
+      <c r="V26" t="s">
         <v>113</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>114</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA26" t="s">
         <v>115</v>
       </c>
-      <c r="X26" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>116</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AC26" t="s">
         <v>117</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>118</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>119</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>120</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>121</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>122</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
         <v>104</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
         <v>105</v>
       </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>106</v>
       </c>
-      <c r="G27" t="s">
-        <v>138</v>
-      </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="J27" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L27" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M27" t="s">
-        <v>336</v>
+        <v>109</v>
       </c>
       <c r="O27">
         <v>-999</v>
       </c>
       <c r="Q27" t="s">
-        <v>141</v>
+        <v>340</v>
       </c>
       <c r="R27" t="s">
+        <v>111</v>
+      </c>
+      <c r="T27" t="s">
         <v>112</v>
       </c>
-      <c r="T27" t="s">
+      <c r="V27" t="s">
         <v>113</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>114</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA27" t="s">
         <v>115</v>
       </c>
-      <c r="X27" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>116</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>117</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>118</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>119</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>120</v>
       </c>
-      <c r="AF27" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>146</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>147</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>151</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>154</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>155</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>157</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>158</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>160</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>161</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>162</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>163</v>
+      <c r="AG27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
         <v>104</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
         <v>105</v>
       </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>106</v>
-      </c>
       <c r="G28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" t="s">
         <v>138</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>139</v>
       </c>
-      <c r="J28" t="s">
-        <v>140</v>
-      </c>
       <c r="K28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L28" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M28" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O28">
         <v>-999</v>
       </c>
       <c r="Q28" t="s">
+        <v>140</v>
+      </c>
+      <c r="R28" t="s">
+        <v>111</v>
+      </c>
+      <c r="T28" t="s">
+        <v>112</v>
+      </c>
+      <c r="V28" t="s">
+        <v>113</v>
+      </c>
+      <c r="W28" t="s">
+        <v>114</v>
+      </c>
+      <c r="X28" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF28" t="s">
         <v>141</v>
       </c>
-      <c r="R28" t="s">
-        <v>112</v>
-      </c>
-      <c r="T28" t="s">
-        <v>113</v>
-      </c>
-      <c r="V28" t="s">
-        <v>114</v>
-      </c>
-      <c r="W28" t="s">
-        <v>115</v>
-      </c>
-      <c r="X28" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF28" t="s">
+      <c r="AL28" t="s">
         <v>142</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>143</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AN28" t="s">
         <v>144</v>
       </c>
-      <c r="AN28" t="s">
+      <c r="AQ28" t="s">
         <v>145</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AW28" t="s">
         <v>146</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AY28" t="s">
         <v>147</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="BA28" t="s">
         <v>148</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BB28" t="s">
         <v>149</v>
       </c>
-      <c r="BB28" t="s">
+      <c r="BC28" t="s">
         <v>150</v>
       </c>
-      <c r="BC28" t="s">
+      <c r="BD28" t="s">
         <v>151</v>
       </c>
-      <c r="BD28" t="s">
+      <c r="BE28" t="s">
         <v>152</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BF28" t="s">
         <v>153</v>
       </c>
-      <c r="BF28" t="s">
+      <c r="BG28" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH28" t="s">
         <v>154</v>
       </c>
-      <c r="BG28" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH28" t="s">
+      <c r="BJ28" t="s">
         <v>155</v>
       </c>
-      <c r="BJ28" t="s">
+      <c r="BK28" t="s">
         <v>156</v>
       </c>
-      <c r="BK28" t="s">
+      <c r="BL28" t="s">
         <v>157</v>
       </c>
-      <c r="BL28" t="s">
+      <c r="BP28" t="s">
         <v>158</v>
       </c>
-      <c r="BP28" t="s">
+      <c r="BQ28" t="s">
         <v>159</v>
       </c>
-      <c r="BQ28" t="s">
+      <c r="BR28" t="s">
         <v>160</v>
       </c>
-      <c r="BR28" t="s">
+      <c r="BU28" t="s">
         <v>161</v>
       </c>
-      <c r="BU28" t="s">
+      <c r="BV28" t="s">
         <v>162</v>
-      </c>
-      <c r="BV28" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
         <v>104</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>105</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>106</v>
-      </c>
       <c r="G29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" t="s">
         <v>138</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>139</v>
       </c>
-      <c r="J29" t="s">
-        <v>140</v>
-      </c>
       <c r="K29" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M29" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O29">
         <v>-999</v>
       </c>
       <c r="Q29" t="s">
+        <v>140</v>
+      </c>
+      <c r="R29" t="s">
+        <v>111</v>
+      </c>
+      <c r="T29" t="s">
+        <v>112</v>
+      </c>
+      <c r="V29" t="s">
+        <v>113</v>
+      </c>
+      <c r="W29" t="s">
+        <v>114</v>
+      </c>
+      <c r="X29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF29" t="s">
         <v>141</v>
       </c>
-      <c r="R29" t="s">
-        <v>112</v>
-      </c>
-      <c r="T29" t="s">
-        <v>113</v>
-      </c>
-      <c r="V29" t="s">
-        <v>114</v>
-      </c>
-      <c r="W29" t="s">
-        <v>115</v>
-      </c>
-      <c r="X29" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF29" t="s">
+      <c r="AL29" t="s">
         <v>142</v>
       </c>
-      <c r="AL29" t="s">
+      <c r="AM29" t="s">
         <v>143</v>
       </c>
-      <c r="AM29" t="s">
+      <c r="AN29" t="s">
         <v>144</v>
       </c>
-      <c r="AN29" t="s">
+      <c r="AQ29" t="s">
         <v>145</v>
       </c>
-      <c r="AQ29" t="s">
+      <c r="AW29" t="s">
         <v>146</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AY29" t="s">
         <v>147</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="BA29" t="s">
         <v>148</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BB29" t="s">
         <v>149</v>
       </c>
-      <c r="BB29" t="s">
+      <c r="BC29" t="s">
         <v>150</v>
       </c>
-      <c r="BC29" t="s">
+      <c r="BD29" t="s">
         <v>151</v>
       </c>
-      <c r="BD29" t="s">
+      <c r="BE29" t="s">
         <v>152</v>
       </c>
-      <c r="BE29" t="s">
+      <c r="BF29" t="s">
         <v>153</v>
       </c>
-      <c r="BF29" t="s">
+      <c r="BG29" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH29" t="s">
         <v>154</v>
       </c>
-      <c r="BG29" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH29" t="s">
+      <c r="BJ29" t="s">
         <v>155</v>
       </c>
-      <c r="BJ29" t="s">
+      <c r="BK29" t="s">
         <v>156</v>
       </c>
-      <c r="BK29" t="s">
+      <c r="BL29" t="s">
         <v>157</v>
       </c>
-      <c r="BL29" t="s">
+      <c r="BP29" t="s">
         <v>158</v>
       </c>
-      <c r="BP29" t="s">
+      <c r="BQ29" t="s">
         <v>159</v>
       </c>
-      <c r="BQ29" t="s">
+      <c r="BR29" t="s">
         <v>160</v>
       </c>
-      <c r="BR29" t="s">
+      <c r="BU29" t="s">
         <v>161</v>
       </c>
-      <c r="BU29" t="s">
+      <c r="BV29" t="s">
         <v>162</v>
-      </c>
-      <c r="BV29" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
         <v>104</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
         <v>105</v>
       </c>
-      <c r="E30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>106</v>
-      </c>
       <c r="G30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" t="s">
         <v>138</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>139</v>
       </c>
-      <c r="J30" t="s">
-        <v>140</v>
-      </c>
       <c r="K30" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M30" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O30">
         <v>-999</v>
       </c>
       <c r="Q30" t="s">
+        <v>140</v>
+      </c>
+      <c r="R30" t="s">
+        <v>111</v>
+      </c>
+      <c r="T30" t="s">
+        <v>112</v>
+      </c>
+      <c r="V30" t="s">
+        <v>113</v>
+      </c>
+      <c r="W30" t="s">
+        <v>114</v>
+      </c>
+      <c r="X30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF30" t="s">
         <v>141</v>
       </c>
-      <c r="R30" t="s">
-        <v>112</v>
-      </c>
-      <c r="T30" t="s">
-        <v>113</v>
-      </c>
-      <c r="V30" t="s">
-        <v>114</v>
-      </c>
-      <c r="W30" t="s">
-        <v>115</v>
-      </c>
-      <c r="X30" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF30" t="s">
+      <c r="AL30" t="s">
         <v>142</v>
       </c>
-      <c r="AL30" t="s">
+      <c r="AM30" t="s">
         <v>143</v>
       </c>
-      <c r="AM30" t="s">
+      <c r="AN30" t="s">
         <v>144</v>
       </c>
-      <c r="AN30" t="s">
+      <c r="AQ30" t="s">
         <v>145</v>
       </c>
-      <c r="AQ30" t="s">
+      <c r="AW30" t="s">
         <v>146</v>
       </c>
-      <c r="AW30" t="s">
+      <c r="AY30" t="s">
         <v>147</v>
       </c>
-      <c r="AY30" t="s">
+      <c r="BA30" t="s">
         <v>148</v>
       </c>
-      <c r="BA30" t="s">
+      <c r="BB30" t="s">
         <v>149</v>
       </c>
-      <c r="BB30" t="s">
+      <c r="BC30" t="s">
         <v>150</v>
       </c>
-      <c r="BC30" t="s">
+      <c r="BD30" t="s">
         <v>151</v>
       </c>
-      <c r="BD30" t="s">
+      <c r="BE30" t="s">
         <v>152</v>
       </c>
-      <c r="BE30" t="s">
+      <c r="BF30" t="s">
         <v>153</v>
       </c>
-      <c r="BF30" t="s">
+      <c r="BG30" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH30" t="s">
         <v>154</v>
       </c>
-      <c r="BG30" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH30" t="s">
+      <c r="BJ30" t="s">
         <v>155</v>
       </c>
-      <c r="BJ30" t="s">
+      <c r="BK30" t="s">
         <v>156</v>
       </c>
-      <c r="BK30" t="s">
+      <c r="BL30" t="s">
         <v>157</v>
       </c>
-      <c r="BL30" t="s">
+      <c r="BP30" t="s">
         <v>158</v>
       </c>
-      <c r="BP30" t="s">
+      <c r="BQ30" t="s">
         <v>159</v>
       </c>
-      <c r="BQ30" t="s">
+      <c r="BR30" t="s">
         <v>160</v>
       </c>
-      <c r="BR30" t="s">
+      <c r="BU30" t="s">
         <v>161</v>
       </c>
-      <c r="BU30" t="s">
+      <c r="BV30" t="s">
         <v>162</v>
-      </c>
-      <c r="BV30" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
         <v>105</v>
       </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>106</v>
-      </c>
       <c r="G31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" t="s">
         <v>138</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>139</v>
       </c>
-      <c r="J31" t="s">
-        <v>140</v>
-      </c>
       <c r="K31" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O31">
         <v>-999</v>
       </c>
       <c r="Q31" t="s">
+        <v>140</v>
+      </c>
+      <c r="R31" t="s">
+        <v>111</v>
+      </c>
+      <c r="T31" t="s">
+        <v>112</v>
+      </c>
+      <c r="V31" t="s">
+        <v>113</v>
+      </c>
+      <c r="W31" t="s">
+        <v>114</v>
+      </c>
+      <c r="X31" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF31" t="s">
         <v>141</v>
       </c>
-      <c r="R31" t="s">
-        <v>112</v>
-      </c>
-      <c r="T31" t="s">
-        <v>113</v>
-      </c>
-      <c r="V31" t="s">
-        <v>114</v>
-      </c>
-      <c r="W31" t="s">
-        <v>115</v>
-      </c>
-      <c r="X31" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF31" t="s">
+      <c r="AL31" t="s">
         <v>142</v>
       </c>
-      <c r="AL31" t="s">
+      <c r="AM31" t="s">
         <v>143</v>
       </c>
-      <c r="AM31" t="s">
+      <c r="AN31" t="s">
         <v>144</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AQ31" t="s">
         <v>145</v>
       </c>
-      <c r="AQ31" t="s">
+      <c r="AW31" t="s">
         <v>146</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AY31" t="s">
         <v>147</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="BA31" t="s">
         <v>148</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BB31" t="s">
         <v>149</v>
       </c>
-      <c r="BB31" t="s">
+      <c r="BC31" t="s">
         <v>150</v>
       </c>
-      <c r="BC31" t="s">
+      <c r="BD31" t="s">
         <v>151</v>
       </c>
-      <c r="BD31" t="s">
+      <c r="BE31" t="s">
         <v>152</v>
       </c>
-      <c r="BE31" t="s">
+      <c r="BF31" t="s">
         <v>153</v>
       </c>
-      <c r="BF31" t="s">
+      <c r="BG31" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH31" t="s">
         <v>154</v>
       </c>
-      <c r="BG31" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH31" t="s">
+      <c r="BJ31" t="s">
         <v>155</v>
       </c>
-      <c r="BJ31" t="s">
+      <c r="BK31" t="s">
         <v>156</v>
       </c>
-      <c r="BK31" t="s">
+      <c r="BL31" t="s">
         <v>157</v>
       </c>
-      <c r="BL31" t="s">
+      <c r="BP31" t="s">
         <v>158</v>
       </c>
-      <c r="BP31" t="s">
+      <c r="BQ31" t="s">
         <v>159</v>
       </c>
-      <c r="BQ31" t="s">
+      <c r="BR31" t="s">
         <v>160</v>
       </c>
-      <c r="BR31" t="s">
+      <c r="BU31" t="s">
         <v>161</v>
       </c>
-      <c r="BU31" t="s">
+      <c r="BV31" t="s">
         <v>162</v>
-      </c>
-      <c r="BV31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
         <v>104</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
         <v>105</v>
       </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>106</v>
-      </c>
       <c r="G32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" t="s">
         <v>138</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>139</v>
       </c>
-      <c r="J32" t="s">
-        <v>140</v>
-      </c>
       <c r="K32" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M32" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O32">
         <v>-999</v>
       </c>
       <c r="Q32" t="s">
+        <v>140</v>
+      </c>
+      <c r="R32" t="s">
+        <v>111</v>
+      </c>
+      <c r="T32" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" t="s">
+        <v>113</v>
+      </c>
+      <c r="W32" t="s">
+        <v>114</v>
+      </c>
+      <c r="X32" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF32" t="s">
         <v>141</v>
       </c>
-      <c r="R32" t="s">
-        <v>112</v>
-      </c>
-      <c r="T32" t="s">
-        <v>113</v>
-      </c>
-      <c r="V32" t="s">
-        <v>114</v>
-      </c>
-      <c r="W32" t="s">
-        <v>115</v>
-      </c>
-      <c r="X32" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF32" t="s">
+      <c r="AL32" t="s">
         <v>142</v>
       </c>
-      <c r="AL32" t="s">
+      <c r="AM32" t="s">
         <v>143</v>
       </c>
-      <c r="AM32" t="s">
+      <c r="AN32" t="s">
         <v>144</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="AQ32" t="s">
         <v>145</v>
       </c>
-      <c r="AQ32" t="s">
+      <c r="AW32" t="s">
         <v>146</v>
       </c>
-      <c r="AW32" t="s">
+      <c r="AY32" t="s">
         <v>147</v>
       </c>
-      <c r="AY32" t="s">
+      <c r="BA32" t="s">
         <v>148</v>
       </c>
-      <c r="BA32" t="s">
+      <c r="BB32" t="s">
         <v>149</v>
       </c>
-      <c r="BB32" t="s">
+      <c r="BC32" t="s">
         <v>150</v>
       </c>
-      <c r="BC32" t="s">
+      <c r="BD32" t="s">
         <v>151</v>
       </c>
-      <c r="BD32" t="s">
+      <c r="BE32" t="s">
         <v>152</v>
       </c>
-      <c r="BE32" t="s">
+      <c r="BF32" t="s">
         <v>153</v>
       </c>
-      <c r="BF32" t="s">
+      <c r="BG32" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH32" t="s">
         <v>154</v>
       </c>
-      <c r="BG32" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH32" t="s">
+      <c r="BJ32" t="s">
         <v>155</v>
       </c>
-      <c r="BJ32" t="s">
+      <c r="BK32" t="s">
         <v>156</v>
       </c>
-      <c r="BK32" t="s">
+      <c r="BL32" t="s">
         <v>157</v>
       </c>
-      <c r="BL32" t="s">
+      <c r="BP32" t="s">
         <v>158</v>
       </c>
-      <c r="BP32" t="s">
+      <c r="BQ32" t="s">
         <v>159</v>
       </c>
-      <c r="BQ32" t="s">
+      <c r="BR32" t="s">
         <v>160</v>
       </c>
-      <c r="BR32" t="s">
+      <c r="BU32" t="s">
         <v>161</v>
       </c>
-      <c r="BU32" t="s">
+      <c r="BV32" t="s">
         <v>162</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
         <v>104</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
         <v>105</v>
       </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>106</v>
-      </c>
       <c r="G33" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" t="s">
         <v>138</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>139</v>
       </c>
-      <c r="J33" t="s">
-        <v>140</v>
-      </c>
       <c r="K33" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M33" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O33">
         <v>-999</v>
       </c>
       <c r="Q33" t="s">
+        <v>140</v>
+      </c>
+      <c r="R33" t="s">
+        <v>111</v>
+      </c>
+      <c r="T33" t="s">
+        <v>112</v>
+      </c>
+      <c r="V33" t="s">
+        <v>113</v>
+      </c>
+      <c r="W33" t="s">
+        <v>114</v>
+      </c>
+      <c r="X33" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF33" t="s">
         <v>141</v>
       </c>
-      <c r="R33" t="s">
-        <v>112</v>
-      </c>
-      <c r="T33" t="s">
-        <v>113</v>
-      </c>
-      <c r="V33" t="s">
-        <v>114</v>
-      </c>
-      <c r="W33" t="s">
-        <v>115</v>
-      </c>
-      <c r="X33" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF33" t="s">
+      <c r="AL33" t="s">
         <v>142</v>
       </c>
-      <c r="AL33" t="s">
+      <c r="AM33" t="s">
         <v>143</v>
       </c>
-      <c r="AM33" t="s">
+      <c r="AN33" t="s">
         <v>144</v>
       </c>
-      <c r="AN33" t="s">
+      <c r="AQ33" t="s">
         <v>145</v>
       </c>
-      <c r="AQ33" t="s">
+      <c r="AW33" t="s">
         <v>146</v>
       </c>
-      <c r="AW33" t="s">
+      <c r="AY33" t="s">
         <v>147</v>
       </c>
-      <c r="AY33" t="s">
+      <c r="BA33" t="s">
         <v>148</v>
       </c>
-      <c r="BA33" t="s">
+      <c r="BB33" t="s">
         <v>149</v>
       </c>
-      <c r="BB33" t="s">
+      <c r="BC33" t="s">
         <v>150</v>
       </c>
-      <c r="BC33" t="s">
+      <c r="BD33" t="s">
         <v>151</v>
       </c>
-      <c r="BD33" t="s">
+      <c r="BE33" t="s">
         <v>152</v>
       </c>
-      <c r="BE33" t="s">
+      <c r="BF33" t="s">
         <v>153</v>
       </c>
-      <c r="BF33" t="s">
+      <c r="BG33" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH33" t="s">
         <v>154</v>
       </c>
-      <c r="BG33" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH33" t="s">
+      <c r="BJ33" t="s">
         <v>155</v>
       </c>
-      <c r="BJ33" t="s">
+      <c r="BK33" t="s">
         <v>156</v>
       </c>
-      <c r="BK33" t="s">
+      <c r="BL33" t="s">
         <v>157</v>
       </c>
-      <c r="BL33" t="s">
+      <c r="BP33" t="s">
         <v>158</v>
       </c>
-      <c r="BP33" t="s">
+      <c r="BQ33" t="s">
         <v>159</v>
       </c>
-      <c r="BQ33" t="s">
+      <c r="BR33" t="s">
         <v>160</v>
       </c>
-      <c r="BR33" t="s">
+      <c r="BU33" t="s">
         <v>161</v>
       </c>
-      <c r="BU33" t="s">
+      <c r="BV33" t="s">
         <v>162</v>
-      </c>
-      <c r="BV33" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
         <v>104</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
         <v>105</v>
       </c>
-      <c r="E34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>106</v>
-      </c>
       <c r="G34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" t="s">
         <v>138</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>139</v>
       </c>
-      <c r="J34" t="s">
-        <v>140</v>
-      </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M34" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O34">
         <v>-999</v>
       </c>
       <c r="Q34" t="s">
+        <v>140</v>
+      </c>
+      <c r="R34" t="s">
+        <v>111</v>
+      </c>
+      <c r="T34" t="s">
+        <v>112</v>
+      </c>
+      <c r="V34" t="s">
+        <v>113</v>
+      </c>
+      <c r="W34" t="s">
+        <v>114</v>
+      </c>
+      <c r="X34" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF34" t="s">
         <v>141</v>
       </c>
-      <c r="R34" t="s">
-        <v>112</v>
-      </c>
-      <c r="T34" t="s">
-        <v>113</v>
-      </c>
-      <c r="V34" t="s">
-        <v>114</v>
-      </c>
-      <c r="W34" t="s">
-        <v>115</v>
-      </c>
-      <c r="X34" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF34" t="s">
+      <c r="AL34" t="s">
         <v>142</v>
       </c>
-      <c r="AL34" t="s">
+      <c r="AM34" t="s">
         <v>143</v>
       </c>
-      <c r="AM34" t="s">
+      <c r="AN34" t="s">
         <v>144</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AQ34" t="s">
         <v>145</v>
       </c>
-      <c r="AQ34" t="s">
+      <c r="AW34" t="s">
         <v>146</v>
       </c>
-      <c r="AW34" t="s">
+      <c r="AY34" t="s">
         <v>147</v>
       </c>
-      <c r="AY34" t="s">
+      <c r="BA34" t="s">
         <v>148</v>
       </c>
-      <c r="BA34" t="s">
+      <c r="BB34" t="s">
         <v>149</v>
       </c>
-      <c r="BB34" t="s">
+      <c r="BC34" t="s">
         <v>150</v>
       </c>
-      <c r="BC34" t="s">
+      <c r="BD34" t="s">
         <v>151</v>
       </c>
-      <c r="BD34" t="s">
+      <c r="BE34" t="s">
         <v>152</v>
       </c>
-      <c r="BE34" t="s">
+      <c r="BF34" t="s">
         <v>153</v>
       </c>
-      <c r="BF34" t="s">
+      <c r="BG34" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH34" t="s">
         <v>154</v>
       </c>
-      <c r="BG34" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH34" t="s">
+      <c r="BJ34" t="s">
         <v>155</v>
       </c>
-      <c r="BJ34" t="s">
+      <c r="BK34" t="s">
         <v>156</v>
       </c>
-      <c r="BK34" t="s">
+      <c r="BL34" t="s">
         <v>157</v>
       </c>
-      <c r="BL34" t="s">
+      <c r="BP34" t="s">
         <v>158</v>
       </c>
-      <c r="BP34" t="s">
+      <c r="BQ34" t="s">
         <v>159</v>
       </c>
-      <c r="BQ34" t="s">
+      <c r="BR34" t="s">
         <v>160</v>
       </c>
-      <c r="BR34" t="s">
+      <c r="BU34" t="s">
         <v>161</v>
       </c>
-      <c r="BU34" t="s">
+      <c r="BV34" t="s">
         <v>162</v>
-      </c>
-      <c r="BV34" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
         <v>104</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
         <v>105</v>
       </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>106</v>
-      </c>
       <c r="G35" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" t="s">
         <v>138</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>139</v>
       </c>
-      <c r="J35" t="s">
-        <v>140</v>
-      </c>
       <c r="K35" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M35" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O35">
         <v>-999</v>
       </c>
       <c r="Q35" t="s">
+        <v>140</v>
+      </c>
+      <c r="R35" t="s">
+        <v>111</v>
+      </c>
+      <c r="T35" t="s">
+        <v>112</v>
+      </c>
+      <c r="V35" t="s">
+        <v>113</v>
+      </c>
+      <c r="W35" t="s">
+        <v>114</v>
+      </c>
+      <c r="X35" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF35" t="s">
         <v>141</v>
       </c>
-      <c r="R35" t="s">
-        <v>112</v>
-      </c>
-      <c r="T35" t="s">
-        <v>113</v>
-      </c>
-      <c r="V35" t="s">
-        <v>114</v>
-      </c>
-      <c r="W35" t="s">
-        <v>115</v>
-      </c>
-      <c r="X35" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF35" t="s">
+      <c r="AL35" t="s">
         <v>142</v>
       </c>
-      <c r="AL35" t="s">
+      <c r="AM35" t="s">
         <v>143</v>
       </c>
-      <c r="AM35" t="s">
+      <c r="AN35" t="s">
         <v>144</v>
       </c>
-      <c r="AN35" t="s">
+      <c r="AQ35" t="s">
         <v>145</v>
       </c>
-      <c r="AQ35" t="s">
+      <c r="AW35" t="s">
         <v>146</v>
       </c>
-      <c r="AW35" t="s">
+      <c r="AY35" t="s">
         <v>147</v>
       </c>
-      <c r="AY35" t="s">
+      <c r="BA35" t="s">
         <v>148</v>
       </c>
-      <c r="BA35" t="s">
+      <c r="BB35" t="s">
         <v>149</v>
       </c>
-      <c r="BB35" t="s">
+      <c r="BC35" t="s">
         <v>150</v>
       </c>
-      <c r="BC35" t="s">
+      <c r="BD35" t="s">
         <v>151</v>
       </c>
-      <c r="BD35" t="s">
+      <c r="BE35" t="s">
         <v>152</v>
       </c>
-      <c r="BE35" t="s">
+      <c r="BF35" t="s">
         <v>153</v>
       </c>
-      <c r="BF35" t="s">
+      <c r="BG35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH35" t="s">
         <v>154</v>
       </c>
-      <c r="BG35" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH35" t="s">
+      <c r="BJ35" t="s">
         <v>155</v>
       </c>
-      <c r="BJ35" t="s">
+      <c r="BK35" t="s">
         <v>156</v>
       </c>
-      <c r="BK35" t="s">
+      <c r="BL35" t="s">
         <v>157</v>
       </c>
-      <c r="BL35" t="s">
+      <c r="BP35" t="s">
         <v>158</v>
       </c>
-      <c r="BP35" t="s">
+      <c r="BQ35" t="s">
         <v>159</v>
       </c>
-      <c r="BQ35" t="s">
+      <c r="BR35" t="s">
         <v>160</v>
       </c>
-      <c r="BR35" t="s">
+      <c r="BU35" t="s">
         <v>161</v>
       </c>
-      <c r="BU35" t="s">
+      <c r="BV35" t="s">
         <v>162</v>
-      </c>
-      <c r="BV35" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
         <v>104</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
         <v>105</v>
       </c>
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" t="s">
-        <v>106</v>
-      </c>
       <c r="G36" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" t="s">
         <v>138</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>139</v>
       </c>
-      <c r="J36" t="s">
-        <v>140</v>
-      </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L36" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O36">
         <v>-999</v>
       </c>
       <c r="Q36" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="R36" t="s">
+        <v>111</v>
+      </c>
+      <c r="T36" t="s">
         <v>112</v>
       </c>
-      <c r="T36" t="s">
+      <c r="V36" t="s">
         <v>113</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>114</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA36" t="s">
         <v>115</v>
       </c>
-      <c r="X36" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA36" t="s">
+      <c r="AB36" t="s">
         <v>116</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AC36" t="s">
         <v>117</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AD36" t="s">
         <v>118</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>119</v>
       </c>
-      <c r="AE36" t="s">
-        <v>120</v>
-      </c>
       <c r="AF36" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL36" t="s">
         <v>142</v>
       </c>
-      <c r="AL36" t="s">
+      <c r="AM36" t="s">
         <v>143</v>
       </c>
-      <c r="AM36" t="s">
+      <c r="AN36" t="s">
         <v>144</v>
       </c>
-      <c r="AN36" t="s">
+      <c r="AQ36" t="s">
         <v>145</v>
       </c>
-      <c r="AQ36" t="s">
+      <c r="AW36" t="s">
         <v>146</v>
       </c>
-      <c r="AW36" t="s">
+      <c r="AY36" t="s">
         <v>147</v>
       </c>
-      <c r="AY36" t="s">
+      <c r="BA36" t="s">
         <v>148</v>
       </c>
-      <c r="BA36" t="s">
+      <c r="BB36" t="s">
         <v>149</v>
       </c>
-      <c r="BB36" t="s">
+      <c r="BC36" t="s">
         <v>150</v>
       </c>
-      <c r="BC36" t="s">
+      <c r="BD36" t="s">
         <v>151</v>
       </c>
-      <c r="BD36" t="s">
+      <c r="BE36" t="s">
         <v>152</v>
       </c>
-      <c r="BE36" t="s">
+      <c r="BF36" t="s">
         <v>153</v>
       </c>
-      <c r="BF36" t="s">
+      <c r="BG36" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH36" t="s">
         <v>154</v>
       </c>
-      <c r="BG36" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH36" t="s">
+      <c r="BJ36" t="s">
         <v>155</v>
       </c>
-      <c r="BJ36" t="s">
+      <c r="BK36" t="s">
         <v>156</v>
       </c>
-      <c r="BK36" t="s">
+      <c r="BL36" t="s">
         <v>157</v>
       </c>
-      <c r="BL36" t="s">
+      <c r="BP36" t="s">
         <v>158</v>
       </c>
-      <c r="BP36" t="s">
+      <c r="BQ36" t="s">
         <v>159</v>
       </c>
-      <c r="BQ36" t="s">
+      <c r="BR36" t="s">
         <v>160</v>
       </c>
-      <c r="BR36" t="s">
+      <c r="BU36" t="s">
         <v>161</v>
       </c>
-      <c r="BU36" t="s">
+      <c r="BV36" t="s">
         <v>162</v>
-      </c>
-      <c r="BV36" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
         <v>104</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
         <v>105</v>
       </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
-        <v>106</v>
-      </c>
       <c r="G37" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" t="s">
         <v>138</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>139</v>
       </c>
-      <c r="J37" t="s">
-        <v>140</v>
-      </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O37">
         <v>-999</v>
       </c>
       <c r="Q37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="R37" t="s">
+        <v>111</v>
+      </c>
+      <c r="T37" t="s">
         <v>112</v>
       </c>
-      <c r="T37" t="s">
+      <c r="V37" t="s">
         <v>113</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>114</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA37" t="s">
         <v>115</v>
       </c>
-      <c r="X37" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA37" t="s">
+      <c r="AB37" t="s">
         <v>116</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AC37" t="s">
         <v>117</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AD37" t="s">
         <v>118</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>119</v>
       </c>
-      <c r="AE37" t="s">
-        <v>120</v>
-      </c>
       <c r="AF37" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL37" t="s">
         <v>142</v>
       </c>
-      <c r="AL37" t="s">
+      <c r="AM37" t="s">
         <v>143</v>
       </c>
-      <c r="AM37" t="s">
+      <c r="AN37" t="s">
         <v>144</v>
       </c>
-      <c r="AN37" t="s">
+      <c r="AQ37" t="s">
         <v>145</v>
       </c>
-      <c r="AQ37" t="s">
+      <c r="AW37" t="s">
         <v>146</v>
       </c>
-      <c r="AW37" t="s">
+      <c r="AY37" t="s">
         <v>147</v>
       </c>
-      <c r="AY37" t="s">
+      <c r="BA37" t="s">
         <v>148</v>
       </c>
-      <c r="BA37" t="s">
+      <c r="BB37" t="s">
         <v>149</v>
       </c>
-      <c r="BB37" t="s">
+      <c r="BC37" t="s">
         <v>150</v>
       </c>
-      <c r="BC37" t="s">
+      <c r="BD37" t="s">
         <v>151</v>
       </c>
-      <c r="BD37" t="s">
+      <c r="BE37" t="s">
         <v>152</v>
       </c>
-      <c r="BE37" t="s">
+      <c r="BF37" t="s">
         <v>153</v>
       </c>
-      <c r="BF37" t="s">
+      <c r="BG37" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH37" t="s">
         <v>154</v>
       </c>
-      <c r="BG37" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH37" t="s">
+      <c r="BJ37" t="s">
         <v>155</v>
       </c>
-      <c r="BJ37" t="s">
+      <c r="BK37" t="s">
         <v>156</v>
       </c>
-      <c r="BK37" t="s">
+      <c r="BL37" t="s">
         <v>157</v>
       </c>
-      <c r="BL37" t="s">
+      <c r="BP37" t="s">
         <v>158</v>
       </c>
-      <c r="BP37" t="s">
+      <c r="BQ37" t="s">
         <v>159</v>
       </c>
-      <c r="BQ37" t="s">
+      <c r="BR37" t="s">
         <v>160</v>
       </c>
-      <c r="BR37" t="s">
+      <c r="BU37" t="s">
         <v>161</v>
       </c>
-      <c r="BU37" t="s">
+      <c r="BV37" t="s">
         <v>162</v>
-      </c>
-      <c r="BV37" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
         <v>104</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
         <v>105</v>
       </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>106</v>
-      </c>
       <c r="G38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" t="s">
         <v>138</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>139</v>
       </c>
-      <c r="J38" t="s">
-        <v>140</v>
-      </c>
       <c r="K38" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="O38">
         <v>-999</v>
@@ -6058,958 +6019,1104 @@
         <v>173</v>
       </c>
       <c r="R38" t="s">
+        <v>111</v>
+      </c>
+      <c r="T38" t="s">
         <v>112</v>
       </c>
-      <c r="T38" t="s">
+      <c r="V38" t="s">
         <v>113</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>114</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA38" t="s">
         <v>115</v>
       </c>
-      <c r="X38" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA38" t="s">
+      <c r="AB38" t="s">
         <v>116</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AC38" t="s">
         <v>117</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AD38" t="s">
         <v>118</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>119</v>
       </c>
-      <c r="AE38" t="s">
-        <v>120</v>
-      </c>
       <c r="AF38" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL38" t="s">
         <v>142</v>
       </c>
-      <c r="AL38" t="s">
+      <c r="AM38" t="s">
         <v>143</v>
       </c>
-      <c r="AM38" t="s">
+      <c r="AN38" t="s">
         <v>144</v>
       </c>
-      <c r="AN38" t="s">
+      <c r="AQ38" t="s">
         <v>145</v>
       </c>
-      <c r="AQ38" t="s">
+      <c r="AW38" t="s">
         <v>146</v>
       </c>
-      <c r="AW38" t="s">
+      <c r="AY38" t="s">
         <v>147</v>
       </c>
-      <c r="AY38" t="s">
+      <c r="BA38" t="s">
         <v>148</v>
       </c>
-      <c r="BA38" t="s">
+      <c r="BB38" t="s">
         <v>149</v>
       </c>
-      <c r="BB38" t="s">
+      <c r="BC38" t="s">
         <v>150</v>
       </c>
-      <c r="BC38" t="s">
+      <c r="BD38" t="s">
         <v>151</v>
       </c>
-      <c r="BD38" t="s">
+      <c r="BE38" t="s">
         <v>152</v>
       </c>
-      <c r="BE38" t="s">
+      <c r="BF38" t="s">
         <v>153</v>
       </c>
-      <c r="BF38" t="s">
+      <c r="BG38" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH38" t="s">
         <v>154</v>
       </c>
-      <c r="BG38" t="s">
-        <v>85</v>
-      </c>
-      <c r="BH38" t="s">
+      <c r="BJ38" t="s">
         <v>155</v>
       </c>
-      <c r="BJ38" t="s">
+      <c r="BK38" t="s">
         <v>156</v>
       </c>
-      <c r="BK38" t="s">
+      <c r="BL38" t="s">
         <v>157</v>
       </c>
-      <c r="BL38" t="s">
+      <c r="BP38" t="s">
         <v>158</v>
       </c>
-      <c r="BP38" t="s">
+      <c r="BQ38" t="s">
         <v>159</v>
       </c>
-      <c r="BQ38" t="s">
+      <c r="BR38" t="s">
         <v>160</v>
       </c>
-      <c r="BR38" t="s">
+      <c r="BU38" t="s">
         <v>161</v>
       </c>
-      <c r="BU38" t="s">
+      <c r="BV38" t="s">
         <v>162</v>
-      </c>
-      <c r="BV38" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
         <v>104</v>
       </c>
-      <c r="D39" t="s">
-        <v>335</v>
-      </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G39" t="s">
-        <v>238</v>
+        <v>137</v>
       </c>
       <c r="I39" t="s">
-        <v>239</v>
+        <v>138</v>
+      </c>
+      <c r="J39" t="s">
+        <v>139</v>
       </c>
       <c r="K39" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M39" t="s">
-        <v>237</v>
-      </c>
-      <c r="O39" t="s">
-        <v>240</v>
+        <v>332</v>
+      </c>
+      <c r="O39">
+        <v>-999</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>171</v>
       </c>
       <c r="R39" t="s">
-        <v>184</v>
+        <v>111</v>
       </c>
       <c r="T39" t="s">
-        <v>287</v>
-      </c>
-      <c r="U39" t="s">
-        <v>288</v>
+        <v>112</v>
+      </c>
+      <c r="V39" t="s">
+        <v>113</v>
+      </c>
+      <c r="W39" t="s">
+        <v>114</v>
+      </c>
+      <c r="X39" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>117</v>
       </c>
       <c r="AD39" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="AE39" t="s">
-        <v>242</v>
+        <v>119</v>
       </c>
       <c r="AF39" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ39" t="s">
-        <v>244</v>
+        <v>141</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>142</v>
       </c>
       <c r="AM39" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="AN39" t="s">
-        <v>246</v>
-      </c>
-      <c r="AP39" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="AQ39" t="s">
-        <v>248</v>
-      </c>
-      <c r="AX39" t="s">
-        <v>249</v>
+        <v>145</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>146</v>
       </c>
       <c r="AY39" t="s">
-        <v>250</v>
+        <v>147</v>
       </c>
       <c r="BA39" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="BB39" t="s">
-        <v>252</v>
+        <v>149</v>
       </c>
       <c r="BC39" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="BD39" t="s">
-        <v>254</v>
+        <v>151</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>152</v>
       </c>
       <c r="BF39" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="BG39" t="s">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c r="BH39" t="s">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="BJ39" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="BK39" t="s">
-        <v>257</v>
+        <v>156</v>
       </c>
       <c r="BL39" t="s">
-        <v>258</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>259</v>
+        <v>157</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>158</v>
       </c>
       <c r="BQ39" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="BR39" t="s">
-        <v>261</v>
+        <v>160</v>
+      </c>
+      <c r="BU39" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV39" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G40" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="I40" t="s">
+        <v>235</v>
+      </c>
+      <c r="K40" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" t="s">
+        <v>334</v>
+      </c>
+      <c r="M40" t="s">
+        <v>233</v>
+      </c>
+      <c r="O40" t="s">
+        <v>236</v>
+      </c>
+      <c r="R40" t="s">
+        <v>182</v>
+      </c>
+      <c r="T40" t="s">
+        <v>283</v>
+      </c>
+      <c r="U40" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF40" t="s">
         <v>239</v>
       </c>
-      <c r="K40" t="s">
-        <v>318</v>
-      </c>
-      <c r="L40" t="s">
-        <v>339</v>
-      </c>
-      <c r="M40" t="s">
-        <v>237</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="AJ40" t="s">
         <v>240</v>
       </c>
-      <c r="R40" t="s">
-        <v>184</v>
-      </c>
-      <c r="T40" t="s">
-        <v>287</v>
-      </c>
-      <c r="U40" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD40" t="s">
+      <c r="AM40" t="s">
         <v>241</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AN40" t="s">
         <v>242</v>
       </c>
-      <c r="AF40" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>264</v>
+      <c r="AP40" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>244</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>198</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>255</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>256</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
+        <v>331</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" t="s">
+        <v>259</v>
+      </c>
+      <c r="I41" t="s">
+        <v>235</v>
+      </c>
+      <c r="K41" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" t="s">
         <v>335</v>
       </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="M41" t="s">
+        <v>233</v>
+      </c>
+      <c r="O41" t="s">
+        <v>236</v>
+      </c>
+      <c r="R41" t="s">
+        <v>182</v>
+      </c>
+      <c r="T41" t="s">
+        <v>283</v>
+      </c>
+      <c r="U41" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE41" t="s">
         <v>238</v>
       </c>
-      <c r="I41" t="s">
-        <v>239</v>
-      </c>
-      <c r="K41" t="s">
-        <v>319</v>
-      </c>
-      <c r="L41" t="s">
-        <v>338</v>
-      </c>
-      <c r="M41" t="s">
-        <v>237</v>
-      </c>
-      <c r="O41" t="s">
-        <v>240</v>
-      </c>
-      <c r="R41" t="s">
-        <v>184</v>
-      </c>
-      <c r="T41" t="s">
-        <v>287</v>
-      </c>
-      <c r="U41" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>242</v>
-      </c>
       <c r="AF41" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ41" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>246</v>
-      </c>
-      <c r="AP41" t="s">
-        <v>247</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>248</v>
-      </c>
-      <c r="AX41" t="s">
-        <v>249</v>
-      </c>
-      <c r="AY41" t="s">
-        <v>250</v>
-      </c>
-      <c r="BA41" t="s">
-        <v>251</v>
-      </c>
-      <c r="BB41" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC41" t="s">
-        <v>253</v>
-      </c>
-      <c r="BD41" t="s">
-        <v>254</v>
-      </c>
-      <c r="BF41" t="s">
-        <v>198</v>
-      </c>
-      <c r="BG41" t="s">
-        <v>255</v>
-      </c>
-      <c r="BH41" t="s">
-        <v>256</v>
-      </c>
-      <c r="BJ41" t="s">
-        <v>201</v>
-      </c>
-      <c r="BK41" t="s">
-        <v>257</v>
-      </c>
-      <c r="BL41" t="s">
-        <v>258</v>
-      </c>
-      <c r="BM41" t="s">
-        <v>259</v>
-      </c>
-      <c r="BQ41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG41" t="s">
         <v>260</v>
-      </c>
-      <c r="BR41" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G42" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="I42" t="s">
+        <v>235</v>
+      </c>
+      <c r="K42" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" t="s">
+        <v>334</v>
+      </c>
+      <c r="M42" t="s">
+        <v>233</v>
+      </c>
+      <c r="O42" t="s">
+        <v>236</v>
+      </c>
+      <c r="R42" t="s">
+        <v>182</v>
+      </c>
+      <c r="T42" t="s">
+        <v>283</v>
+      </c>
+      <c r="U42" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF42" t="s">
         <v>239</v>
       </c>
-      <c r="K42" t="s">
-        <v>322</v>
-      </c>
-      <c r="L42" t="s">
-        <v>339</v>
-      </c>
-      <c r="M42" t="s">
-        <v>237</v>
-      </c>
-      <c r="O42" t="s">
+      <c r="AJ42" t="s">
         <v>240</v>
       </c>
-      <c r="R42" t="s">
-        <v>184</v>
-      </c>
-      <c r="T42" t="s">
-        <v>287</v>
-      </c>
-      <c r="U42" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD42" t="s">
+      <c r="AM42" t="s">
         <v>241</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AN42" t="s">
         <v>242</v>
       </c>
-      <c r="AF42" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>264</v>
+      <c r="AP42" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>244</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>198</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>255</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>256</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
+        <v>331</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" t="s">
+        <v>259</v>
+      </c>
+      <c r="I43" t="s">
+        <v>235</v>
+      </c>
+      <c r="K43" t="s">
+        <v>318</v>
+      </c>
+      <c r="L43" t="s">
         <v>335</v>
       </c>
-      <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="M43" t="s">
+        <v>233</v>
+      </c>
+      <c r="O43" t="s">
+        <v>236</v>
+      </c>
+      <c r="R43" t="s">
+        <v>182</v>
+      </c>
+      <c r="T43" t="s">
+        <v>283</v>
+      </c>
+      <c r="U43" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE43" t="s">
         <v>238</v>
       </c>
-      <c r="I43" t="s">
-        <v>239</v>
-      </c>
-      <c r="K43" t="s">
-        <v>320</v>
-      </c>
-      <c r="L43" t="s">
-        <v>338</v>
-      </c>
-      <c r="M43" t="s">
-        <v>237</v>
-      </c>
-      <c r="O43" t="s">
-        <v>240</v>
-      </c>
-      <c r="R43" t="s">
-        <v>184</v>
-      </c>
-      <c r="T43" t="s">
-        <v>287</v>
-      </c>
-      <c r="U43" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>242</v>
-      </c>
       <c r="AF43" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>246</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>247</v>
-      </c>
-      <c r="AQ43" t="s">
-        <v>248</v>
-      </c>
-      <c r="AX43" t="s">
-        <v>249</v>
-      </c>
-      <c r="AY43" t="s">
-        <v>250</v>
-      </c>
-      <c r="BA43" t="s">
-        <v>251</v>
-      </c>
-      <c r="BB43" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC43" t="s">
-        <v>253</v>
-      </c>
-      <c r="BD43" t="s">
-        <v>254</v>
-      </c>
-      <c r="BF43" t="s">
-        <v>198</v>
-      </c>
-      <c r="BG43" t="s">
-        <v>255</v>
-      </c>
-      <c r="BH43" t="s">
-        <v>256</v>
-      </c>
-      <c r="BJ43" t="s">
-        <v>201</v>
-      </c>
-      <c r="BK43" t="s">
-        <v>257</v>
-      </c>
-      <c r="BL43" t="s">
-        <v>258</v>
-      </c>
-      <c r="BM43" t="s">
-        <v>259</v>
-      </c>
-      <c r="BQ43" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG43" t="s">
         <v>260</v>
-      </c>
-      <c r="BR43" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E44" t="s">
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="I44" t="s">
+        <v>235</v>
+      </c>
+      <c r="K44" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s">
+        <v>334</v>
+      </c>
+      <c r="M44" t="s">
+        <v>233</v>
+      </c>
+      <c r="O44" t="s">
+        <v>236</v>
+      </c>
+      <c r="R44" t="s">
+        <v>182</v>
+      </c>
+      <c r="T44" t="s">
+        <v>283</v>
+      </c>
+      <c r="U44" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF44" t="s">
         <v>239</v>
       </c>
-      <c r="K44" t="s">
-        <v>321</v>
-      </c>
-      <c r="L44" t="s">
-        <v>339</v>
-      </c>
-      <c r="M44" t="s">
-        <v>237</v>
-      </c>
-      <c r="O44" t="s">
+      <c r="AJ44" t="s">
         <v>240</v>
       </c>
-      <c r="R44" t="s">
-        <v>184</v>
-      </c>
-      <c r="T44" t="s">
-        <v>287</v>
-      </c>
-      <c r="U44" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD44" t="s">
+      <c r="AM44" t="s">
         <v>241</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AN44" t="s">
         <v>242</v>
       </c>
-      <c r="AF44" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>264</v>
+      <c r="AP44" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>244</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>247</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>251</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>198</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>253</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>255</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>256</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C45" t="s">
-        <v>270</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>272</v>
-      </c>
-      <c r="H45" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="I45" t="s">
-        <v>274</v>
-      </c>
-      <c r="J45" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="K45" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s">
-        <v>311</v>
-      </c>
-      <c r="N45" t="s">
-        <v>276</v>
-      </c>
-      <c r="O45">
-        <v>-999</v>
+        <v>233</v>
+      </c>
+      <c r="O45" t="s">
+        <v>236</v>
       </c>
       <c r="R45" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="T45" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="U45" t="s">
-        <v>277</v>
-      </c>
-      <c r="V45" t="s">
-        <v>278</v>
-      </c>
-      <c r="W45" t="s">
-        <v>279</v>
-      </c>
-      <c r="X45" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC45" t="s">
         <v>284</v>
       </c>
+      <c r="AD45" t="s">
+        <v>237</v>
+      </c>
       <c r="AE45" t="s">
-        <v>312</v>
+        <v>238</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>141</v>
       </c>
       <c r="AG45" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="C46" t="s">
+        <v>266</v>
+      </c>
+      <c r="D46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>105</v>
+      </c>
+      <c r="G46" t="s">
+        <v>268</v>
+      </c>
+      <c r="H46" t="s">
+        <v>269</v>
+      </c>
+      <c r="I46" t="s">
         <v>270</v>
       </c>
-      <c r="D46" t="s">
+      <c r="J46" t="s">
         <v>271</v>
       </c>
-      <c r="E46" t="s">
-        <v>289</v>
-      </c>
-      <c r="F46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="K46" t="s">
+        <v>312</v>
+      </c>
+      <c r="L46" t="s">
+        <v>335</v>
+      </c>
+      <c r="M46" t="s">
+        <v>307</v>
+      </c>
+      <c r="N46" t="s">
         <v>272</v>
-      </c>
-      <c r="H46" t="s">
-        <v>273</v>
-      </c>
-      <c r="I46" t="s">
-        <v>274</v>
-      </c>
-      <c r="J46" t="s">
-        <v>275</v>
-      </c>
-      <c r="K46" t="s">
-        <v>316</v>
-      </c>
-      <c r="L46" t="s">
-        <v>339</v>
-      </c>
-      <c r="M46" t="s">
-        <v>311</v>
-      </c>
-      <c r="N46" t="s">
-        <v>276</v>
       </c>
       <c r="O46">
         <v>-999</v>
       </c>
       <c r="R46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T46" t="s">
+        <v>273</v>
+      </c>
+      <c r="U46" t="s">
+        <v>273</v>
+      </c>
+      <c r="V46" t="s">
+        <v>274</v>
+      </c>
+      <c r="W46" t="s">
+        <v>275</v>
+      </c>
+      <c r="X46" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y46" t="s">
         <v>277</v>
       </c>
-      <c r="U46" t="s">
-        <v>277</v>
-      </c>
-      <c r="V46" t="s">
+      <c r="AA46" t="s">
         <v>278</v>
       </c>
-      <c r="W46" t="s">
+      <c r="AB46" t="s">
         <v>279</v>
       </c>
-      <c r="X46" t="s">
+      <c r="AC46" t="s">
         <v>280</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="AE46" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG46" t="s">
         <v>281</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AH46" t="s">
         <v>282</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>312</v>
-      </c>
-      <c r="AG46" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH46" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C47" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" t="s">
+        <v>267</v>
+      </c>
+      <c r="E47" t="s">
+        <v>285</v>
+      </c>
+      <c r="F47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" t="s">
+        <v>268</v>
+      </c>
+      <c r="H47" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" t="s">
         <v>270</v>
       </c>
-      <c r="D47" t="s">
+      <c r="J47" t="s">
         <v>271</v>
       </c>
-      <c r="E47" t="s">
-        <v>289</v>
-      </c>
-      <c r="F47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="K47" t="s">
+        <v>312</v>
+      </c>
+      <c r="L47" t="s">
+        <v>335</v>
+      </c>
+      <c r="M47" t="s">
+        <v>307</v>
+      </c>
+      <c r="N47" t="s">
         <v>272</v>
-      </c>
-      <c r="H47" t="s">
-        <v>273</v>
-      </c>
-      <c r="I47" t="s">
-        <v>274</v>
-      </c>
-      <c r="J47" t="s">
-        <v>275</v>
-      </c>
-      <c r="K47" t="s">
-        <v>316</v>
-      </c>
-      <c r="L47" t="s">
-        <v>338</v>
-      </c>
-      <c r="M47" t="s">
-        <v>340</v>
-      </c>
-      <c r="N47" t="s">
-        <v>276</v>
       </c>
       <c r="O47">
         <v>-999</v>
       </c>
-      <c r="P47">
+      <c r="R47" t="s">
+        <v>111</v>
+      </c>
+      <c r="T47" t="s">
+        <v>273</v>
+      </c>
+      <c r="U47" t="s">
+        <v>273</v>
+      </c>
+      <c r="V47" t="s">
+        <v>274</v>
+      </c>
+      <c r="W47" t="s">
+        <v>275</v>
+      </c>
+      <c r="X47" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:74" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>287</v>
+      </c>
+      <c r="C48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" t="s">
+        <v>267</v>
+      </c>
+      <c r="E48" t="s">
+        <v>285</v>
+      </c>
+      <c r="F48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" t="s">
+        <v>268</v>
+      </c>
+      <c r="H48" t="s">
+        <v>269</v>
+      </c>
+      <c r="I48" t="s">
+        <v>270</v>
+      </c>
+      <c r="J48" t="s">
+        <v>271</v>
+      </c>
+      <c r="K48" t="s">
+        <v>312</v>
+      </c>
+      <c r="L48" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" t="s">
+        <v>336</v>
+      </c>
+      <c r="N48" t="s">
+        <v>272</v>
+      </c>
+      <c r="O48">
+        <v>-999</v>
+      </c>
+      <c r="P48">
         <v>1E-4</v>
       </c>
-      <c r="Q47" t="s">
-        <v>183</v>
-      </c>
-      <c r="R47" t="s">
-        <v>112</v>
-      </c>
-      <c r="T47" t="s">
+      <c r="Q48" t="s">
+        <v>181</v>
+      </c>
+      <c r="R48" t="s">
+        <v>111</v>
+      </c>
+      <c r="T48" t="s">
+        <v>273</v>
+      </c>
+      <c r="U48" t="s">
+        <v>273</v>
+      </c>
+      <c r="V48" t="s">
+        <v>274</v>
+      </c>
+      <c r="W48" t="s">
+        <v>275</v>
+      </c>
+      <c r="X48" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y48" t="s">
         <v>277</v>
       </c>
-      <c r="U47" t="s">
-        <v>277</v>
-      </c>
-      <c r="V47" t="s">
+      <c r="AA48" t="s">
         <v>278</v>
       </c>
-      <c r="W47" t="s">
+      <c r="AB48" t="s">
         <v>279</v>
       </c>
-      <c r="X47" t="s">
+      <c r="AC48" t="s">
         <v>280</v>
       </c>
-      <c r="Y47" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ47" t="s">
+      <c r="AJ48" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ48" t="s">
         <v>292</v>
       </c>
-      <c r="AL47" t="s">
+      <c r="AR48" t="s">
         <v>293</v>
       </c>
-      <c r="AM47" t="s">
+      <c r="AU48" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY48" t="s">
         <v>294</v>
       </c>
-      <c r="AN47" t="s">
+      <c r="BA48" t="s">
         <v>295</v>
       </c>
-      <c r="AQ47" t="s">
+      <c r="BB48" t="s">
         <v>296</v>
       </c>
-      <c r="AR47" t="s">
+      <c r="BC48" t="s">
         <v>297</v>
       </c>
-      <c r="AU47" t="s">
-        <v>310</v>
-      </c>
-      <c r="AW47" t="s">
-        <v>309</v>
-      </c>
-      <c r="AY47" t="s">
+      <c r="BD48" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE48" t="s">
         <v>298</v>
       </c>
-      <c r="BA47" t="s">
+      <c r="BF48" t="s">
         <v>299</v>
       </c>
-      <c r="BB47" t="s">
+      <c r="BG48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>197</v>
+      </c>
+      <c r="BJ48" t="s">
         <v>300</v>
       </c>
-      <c r="BC47" t="s">
+      <c r="BO48" t="s">
         <v>301</v>
       </c>
-      <c r="BD47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE47" t="s">
+      <c r="BP48" t="s">
         <v>302</v>
       </c>
-      <c r="BF47" t="s">
+      <c r="BQ48" t="s">
         <v>303</v>
       </c>
-      <c r="BG47" t="s">
-        <v>199</v>
-      </c>
-      <c r="BH47" t="s">
-        <v>200</v>
-      </c>
-      <c r="BJ47" t="s">
+      <c r="BR48" t="s">
         <v>304</v>
       </c>
-      <c r="BO47" t="s">
-        <v>305</v>
-      </c>
-      <c r="BP47" t="s">
-        <v>306</v>
-      </c>
-      <c r="BQ47" t="s">
-        <v>307</v>
-      </c>
-      <c r="BR47" t="s">
-        <v>308</v>
-      </c>
-      <c r="BU47" t="s">
+      <c r="BU48" t="s">
+        <v>98</v>
+      </c>
+      <c r="BV48" t="s">
         <v>99</v>
-      </c>
-      <c r="BV47" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/product_data/processing_metadata/C4/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C4/PIG_meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{44D4C86A-6D31-46FF-96E9-7CB5DA15733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D77137-B84F-413F-9D2E-98CA977B2E5B}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{44D4C86A-6D31-46FF-96E9-7CB5DA15733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC387908-0086-47A0-A85A-60F9311402CC}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69322DFE-E2CA-486C-AA5E-7CF334D8D225}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="347">
   <si>
     <t>33LG20110101</t>
   </si>
@@ -1434,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3EC7E7-D61A-4686-AF29-9DAA74ADE754}">
   <dimension ref="A1:BW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6841,12 +6841,6 @@
       <c r="R46" t="s">
         <v>111</v>
       </c>
-      <c r="T46" t="s">
-        <v>273</v>
-      </c>
-      <c r="U46" t="s">
-        <v>273</v>
-      </c>
       <c r="V46" t="s">
         <v>274</v>
       </c>
